--- a/9983.T.xlsx
+++ b/9983.T.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D21EEC1-ED0B-4F76-AAF7-D93F2672799D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA6E743-2F14-4F91-AAD0-9244DD93258E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{C51DE7BF-0E76-4BFC-AC60-72AAABFBEE4E}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19380" windowHeight="20925" activeTab="1" xr2:uid="{C51DE7BF-0E76-4BFC-AC60-72AAABFBEE4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="69">
   <si>
     <t>Fast Retailing</t>
   </si>
@@ -236,6 +236,15 @@
   <si>
     <t>Employee Count:</t>
   </si>
+  <si>
+    <t>CEO</t>
+  </si>
+  <si>
+    <t>Management</t>
+  </si>
+  <si>
+    <t>Tadashi Yanai</t>
+  </si>
 </sst>
 </file>
 
@@ -424,7 +433,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -449,6 +458,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -785,10 +796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A20E60AF-353C-4D62-948D-7EB06D7260C7}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,7 +824,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="5">
-        <v>45660</v>
+        <v>46660</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -824,10 +835,10 @@
         <v>2</v>
       </c>
       <c r="J4" s="5">
-        <v>306.68563799999998</v>
+        <v>306.76797599999998</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -839,7 +850,7 @@
       </c>
       <c r="J5" s="5">
         <f>J4*J3</f>
-        <v>14003266.231079999</v>
+        <v>14313793.760159999</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -847,10 +858,10 @@
         <v>4</v>
       </c>
       <c r="J6" s="5">
-        <v>1198840</v>
+        <v>977330</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -868,10 +879,11 @@
         <v>5</v>
       </c>
       <c r="J7" s="5">
-        <v>211168</v>
+        <f>141049+192864</f>
+        <v>333913</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -886,7 +898,7 @@
       </c>
       <c r="J8" s="5">
         <f>J5+J7-J6</f>
-        <v>13015594.231079999</v>
+        <v>13670376.760159999</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -903,7 +915,7 @@
       <c r="I10" t="s">
         <v>64</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="5">
         <f>729+783</f>
         <v>1512</v>
       </c>
@@ -917,6 +929,19 @@
       <c r="E11" s="15"/>
       <c r="I11" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I13" s="20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
+        <v>66</v>
+      </c>
+      <c r="J14" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -931,11 +956,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F30EE377-B68B-4065-B032-EB2CBD2D9E42}">
   <dimension ref="A1:AZ251"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A27" sqref="A27"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -982,13 +1007,19 @@
       <c r="C3" s="5">
         <v>244498</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="5">
+        <f>541545-C3</f>
+        <v>297047</v>
+      </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
         <v>266602</v>
       </c>
-      <c r="H3" s="5"/>
+      <c r="H3" s="5">
+        <f>485108-G3</f>
+        <v>218506</v>
+      </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
@@ -1032,13 +1063,19 @@
       <c r="C4" s="5">
         <v>180347</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="5">
+        <f>361705-C4</f>
+        <v>181358</v>
+      </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5">
         <v>178610</v>
       </c>
-      <c r="H4" s="5"/>
+      <c r="H4" s="5">
+        <f>360453-G4</f>
+        <v>181843</v>
+      </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -1082,13 +1119,19 @@
       <c r="C5" s="5">
         <v>131273</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="5">
+        <f>320496-C5</f>
+        <v>189223</v>
+      </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5">
         <v>154138</v>
       </c>
-      <c r="H5" s="5"/>
+      <c r="H5" s="5">
+        <f>272818-G5</f>
+        <v>118680</v>
+      </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
@@ -1132,13 +1175,19 @@
       <c r="C6" s="5">
         <v>57971</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="5">
+        <f>137365-C6</f>
+        <v>79394</v>
+      </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5">
         <v>68013</v>
       </c>
-      <c r="H6" s="5"/>
+      <c r="H6" s="5">
+        <f>108540-G6</f>
+        <v>40527</v>
+      </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
@@ -1182,13 +1231,19 @@
       <c r="C7" s="5">
         <v>71726</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="5">
+        <f>194588-C7</f>
+        <v>122862</v>
+      </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5">
         <v>102004</v>
       </c>
-      <c r="H7" s="5"/>
+      <c r="H7" s="5">
+        <f>142172-G7</f>
+        <v>40168</v>
+      </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
@@ -1232,13 +1287,19 @@
       <c r="C8" s="5">
         <v>244498</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="5">
+        <f>541545-C8</f>
+        <v>297047</v>
+      </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5">
         <v>266602</v>
       </c>
-      <c r="H8" s="5"/>
+      <c r="H8" s="5">
+        <f>485108-G8</f>
+        <v>218506</v>
+      </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -1291,13 +1352,19 @@
       <c r="C9" s="5">
         <v>441318</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="5">
+        <f>1014155-C9</f>
+        <v>572837</v>
+      </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5">
         <v>501767</v>
       </c>
-      <c r="H9" s="5"/>
+      <c r="H9" s="5">
+        <f>883985-G9</f>
+        <v>382218</v>
+      </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -1350,13 +1417,19 @@
       <c r="C10" s="5">
         <v>87856</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="5">
+        <f>165844-C10</f>
+        <v>77988</v>
+      </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5">
         <v>90610</v>
       </c>
-      <c r="H10" s="5"/>
+      <c r="H10" s="5">
+        <f>159574-G10</f>
+        <v>68964</v>
+      </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -1409,13 +1482,19 @@
       <c r="C11" s="5">
         <v>36684</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="5">
+        <f>67792-C11</f>
+        <v>31108</v>
+      </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5">
         <v>35794</v>
       </c>
-      <c r="H11" s="5"/>
+      <c r="H11" s="5">
+        <f>69417-G11</f>
+        <v>33623</v>
+      </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -1468,13 +1547,19 @@
       <c r="C12" s="5">
         <v>475</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="5">
+        <f>859-C12</f>
+        <v>384</v>
+      </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5">
         <v>417</v>
       </c>
-      <c r="H12" s="5"/>
+      <c r="H12" s="5">
+        <f>912-G12</f>
+        <v>495</v>
+      </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -1528,13 +1613,19 @@
       <c r="C13" s="6">
         <v>810833</v>
       </c>
-      <c r="D13" s="6"/>
+      <c r="D13" s="6">
+        <f>1598999-C13</f>
+        <v>788166</v>
+      </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6">
         <v>895192</v>
       </c>
-      <c r="H13" s="6"/>
+      <c r="H13" s="6">
+        <f>1790198-G13</f>
+        <v>895006</v>
+      </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="5"/>
@@ -1587,13 +1678,19 @@
       <c r="C14" s="5">
         <v>368010</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="5">
+        <f>753755-C14</f>
+        <v>385745</v>
+      </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5">
         <v>407620</v>
       </c>
-      <c r="H14" s="5"/>
+      <c r="H14" s="5">
+        <f>835371-G14</f>
+        <v>427751</v>
+      </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
@@ -1647,14 +1744,20 @@
         <f>+C13-C14</f>
         <v>442823</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="5">
+        <f>+D13-D14</f>
+        <v>402421</v>
+      </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5">
         <f>+G13-G14</f>
         <v>487572</v>
       </c>
-      <c r="H15" s="5"/>
+      <c r="H15" s="5">
+        <f>+H13-H14</f>
+        <v>467255</v>
+      </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
@@ -1707,13 +1810,19 @@
       <c r="C16" s="5">
         <v>301400</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="5">
+        <f>594073-C16</f>
+        <v>292673</v>
+      </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5">
         <v>330580</v>
       </c>
-      <c r="H16" s="5"/>
+      <c r="H16" s="5">
+        <f>653155-G16</f>
+        <v>322575</v>
+      </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
@@ -1766,13 +1875,19 @@
       <c r="C17" s="5">
         <v>5664</v>
       </c>
-      <c r="D17" s="5"/>
+      <c r="D17" s="5">
+        <f>7338-C17</f>
+        <v>1674</v>
+      </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5">
         <v>1404</v>
       </c>
-      <c r="H17" s="5"/>
+      <c r="H17" s="5">
+        <f>3699-G17</f>
+        <v>2295</v>
+      </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
@@ -1825,13 +1940,19 @@
       <c r="C18" s="5">
         <v>1070</v>
       </c>
-      <c r="D18" s="5"/>
+      <c r="D18" s="5">
+        <f>2414-C18</f>
+        <v>1344</v>
+      </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5">
         <v>1765</v>
       </c>
-      <c r="H18" s="5"/>
+      <c r="H18" s="5">
+        <f>2653-G18</f>
+        <v>888</v>
+      </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
@@ -1884,13 +2005,19 @@
       <c r="C19" s="5">
         <v>671</v>
       </c>
-      <c r="D19" s="5"/>
+      <c r="D19" s="5">
+        <f>989-C19</f>
+        <v>318</v>
+      </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5">
         <v>925</v>
       </c>
-      <c r="H19" s="5"/>
+      <c r="H19" s="5">
+        <f>1499-G19</f>
+        <v>574</v>
+      </c>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
@@ -1944,14 +2071,20 @@
         <f>+C15-C16+C17-C18+C19</f>
         <v>146688</v>
       </c>
-      <c r="D20" s="5"/>
+      <c r="D20" s="5">
+        <f>+D15-D16+D17-D18+D19</f>
+        <v>110396</v>
+      </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5">
         <f>+G15-G16+G17-G18+G19</f>
         <v>157556</v>
       </c>
-      <c r="H20" s="5"/>
+      <c r="H20" s="5">
+        <f>+H15-H16+H17-H18+H19</f>
+        <v>146661</v>
+      </c>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
@@ -2004,13 +2137,19 @@
       <c r="C21" s="5">
         <v>18261</v>
       </c>
-      <c r="D21" s="5"/>
+      <c r="D21" s="5">
+        <f>47273-C21</f>
+        <v>29012</v>
+      </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5">
         <v>42345</v>
       </c>
-      <c r="H21" s="5"/>
+      <c r="H21" s="5">
+        <f>65832-G21</f>
+        <v>23487</v>
+      </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -2063,13 +2202,19 @@
       <c r="C22" s="5">
         <v>2476</v>
       </c>
-      <c r="D22" s="5"/>
+      <c r="D22" s="5">
+        <f>4962-C22</f>
+        <v>2486</v>
+      </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5">
         <v>3288</v>
       </c>
-      <c r="H22" s="5"/>
+      <c r="H22" s="5">
+        <f>6324-G22</f>
+        <v>3036</v>
+      </c>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
@@ -2123,14 +2268,20 @@
         <f>+C20+C21-C22</f>
         <v>162473</v>
       </c>
-      <c r="D23" s="5"/>
+      <c r="D23" s="5">
+        <f>+D20+D21-D22</f>
+        <v>136922</v>
+      </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5">
         <f>+G20+G21-G22</f>
         <v>196613</v>
       </c>
-      <c r="H23" s="5"/>
+      <c r="H23" s="5">
+        <f>+H20+H21-H22</f>
+        <v>167112</v>
+      </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
@@ -2183,13 +2334,19 @@
       <c r="C24" s="5">
         <v>47764</v>
       </c>
-      <c r="D24" s="5"/>
+      <c r="D24" s="5">
+        <f>89957-C24</f>
+        <v>42193</v>
+      </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5">
         <v>56312</v>
       </c>
-      <c r="H24" s="5"/>
+      <c r="H24" s="5">
+        <f>114442-G24</f>
+        <v>58130</v>
+      </c>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
@@ -2243,14 +2400,20 @@
         <f>+C23-C24</f>
         <v>114709</v>
       </c>
-      <c r="D25" s="5"/>
+      <c r="D25" s="5">
+        <f>+D23-D24</f>
+        <v>94729</v>
+      </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5">
         <f>+G23-G24</f>
         <v>140301</v>
       </c>
-      <c r="H25" s="5"/>
+      <c r="H25" s="5">
+        <f>+H23-H24</f>
+        <v>108982</v>
+      </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
@@ -2303,13 +2466,19 @@
       <c r="C26" s="5">
         <v>6905</v>
       </c>
-      <c r="D26" s="5"/>
+      <c r="D26" s="5">
+        <f>13526-C26</f>
+        <v>6621</v>
+      </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5">
         <v>8337</v>
       </c>
-      <c r="H26" s="5"/>
+      <c r="H26" s="5">
+        <f>15715-G26</f>
+        <v>7378</v>
+      </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
@@ -2363,14 +2532,20 @@
         <f>+C25-C26</f>
         <v>107804</v>
       </c>
-      <c r="D27" s="5"/>
+      <c r="D27" s="5">
+        <f>+D25-D26</f>
+        <v>88108</v>
+      </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5">
         <f>+G25-G26</f>
         <v>131964</v>
       </c>
-      <c r="H27" s="5"/>
+      <c r="H27" s="5">
+        <f>+H25-H26</f>
+        <v>101604</v>
+      </c>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
@@ -2476,9 +2651,9 @@
         <f t="shared" ref="C29:F29" si="0">+C27/C30</f>
         <v>351.43451337610696</v>
       </c>
-      <c r="D29" s="7" t="e">
+      <c r="D29" s="7">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>287.2848519462608</v>
       </c>
       <c r="E29" s="7" t="e">
         <f t="shared" si="0"/>
@@ -2492,9 +2667,9 @@
         <f>+G27/G30</f>
         <v>430.29077220759848</v>
       </c>
-      <c r="H29" s="7" t="e">
+      <c r="H29" s="7">
         <f t="shared" ref="H29:J29" si="1">+H27/H30</f>
-        <v>#DIV/0!</v>
+        <v>331.20797458989006</v>
       </c>
       <c r="I29" s="7" t="e">
         <f t="shared" si="1"/>
@@ -2554,13 +2729,17 @@
       <c r="C30" s="5">
         <v>306.75416300000001</v>
       </c>
-      <c r="D30" s="5"/>
+      <c r="D30" s="5">
+        <v>306.69211899999999</v>
+      </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5">
         <v>306.68563799999998</v>
       </c>
-      <c r="H30" s="5"/>
+      <c r="H30" s="5">
+        <v>306.76797599999998</v>
+      </c>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
@@ -2670,9 +2849,9 @@
         <f>+G3/C3-1</f>
         <v>9.0405647489959051E-2</v>
       </c>
-      <c r="H32" s="19" t="e">
+      <c r="H32" s="19">
         <f t="shared" ref="H32:I42" si="2">+H3/D3-1</f>
-        <v>#DIV/0!</v>
+        <v>-0.26440596942571382</v>
       </c>
       <c r="I32" s="19" t="e">
         <f t="shared" si="2"/>
@@ -2734,9 +2913,9 @@
         <f t="shared" ref="G33:G42" si="3">+G4/C4-1</f>
         <v>-9.6314327379994902E-3</v>
       </c>
-      <c r="H33" s="19" t="e">
+      <c r="H33" s="19">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>2.6742685737601857E-3</v>
       </c>
       <c r="I33" s="19" t="e">
         <f t="shared" si="2"/>
@@ -2798,9 +2977,9 @@
         <f t="shared" si="3"/>
         <v>0.17417900101315587</v>
       </c>
-      <c r="H34" s="19" t="e">
+      <c r="H34" s="19">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>-0.37280351754279339</v>
       </c>
       <c r="I34" s="19" t="e">
         <f t="shared" si="2"/>
@@ -2862,9 +3041,9 @@
         <f t="shared" si="3"/>
         <v>0.1732245433061359</v>
       </c>
-      <c r="H35" s="19" t="e">
+      <c r="H35" s="19">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>-0.48954580950701565</v>
       </c>
       <c r="I35" s="19" t="e">
         <f t="shared" si="2"/>
@@ -2926,9 +3105,9 @@
         <f t="shared" si="3"/>
         <v>0.4221342330535649</v>
       </c>
-      <c r="H36" s="19" t="e">
+      <c r="H36" s="19">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>-0.67306408816395624</v>
       </c>
       <c r="I36" s="19" t="e">
         <f t="shared" si="2"/>
@@ -2990,9 +3169,9 @@
         <f t="shared" si="3"/>
         <v>9.0405647489959051E-2</v>
       </c>
-      <c r="H37" s="19" t="e">
+      <c r="H37" s="19">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>-0.26440596942571382</v>
       </c>
       <c r="I37" s="19" t="e">
         <f t="shared" si="2"/>
@@ -3054,9 +3233,9 @@
         <f t="shared" si="3"/>
         <v>0.13697379214081451</v>
       </c>
-      <c r="H38" s="19" t="e">
+      <c r="H38" s="19">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>-0.33276307221775125</v>
       </c>
       <c r="I38" s="19" t="e">
         <f t="shared" si="2"/>
@@ -3118,9 +3297,9 @@
         <f t="shared" si="3"/>
         <v>3.1346749226006221E-2</v>
       </c>
-      <c r="H39" s="19" t="e">
+      <c r="H39" s="19">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>-0.11571010924757652</v>
       </c>
       <c r="I39" s="19" t="e">
         <f t="shared" si="2"/>
@@ -3182,9 +3361,9 @@
         <f t="shared" si="3"/>
         <v>-2.426125831425141E-2</v>
       </c>
-      <c r="H40" s="19" t="e">
+      <c r="H40" s="19">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>8.0847370451330836E-2</v>
       </c>
       <c r="I40" s="19" t="e">
         <f t="shared" si="2"/>
@@ -3246,9 +3425,9 @@
         <f t="shared" si="3"/>
         <v>-0.12210526315789472</v>
       </c>
-      <c r="H41" s="19" t="e">
+      <c r="H41" s="19">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.2890625</v>
       </c>
       <c r="I41" s="19" t="e">
         <f t="shared" si="2"/>
@@ -3299,22 +3478,22 @@
       <c r="AZ41" s="5"/>
     </row>
     <row r="42" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+      <c r="B42" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="19">
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="21">
         <f t="shared" si="3"/>
         <v>0.10403991944087121</v>
       </c>
-      <c r="H42" s="19" t="e">
+      <c r="H42" s="21">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I42" s="19" t="e">
+        <v>0.13555520030044432</v>
+      </c>
+      <c r="I42" s="21" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -3370,9 +3549,9 @@
         <f t="shared" ref="C43:F43" si="4">+C15/C13</f>
         <v>0.54613342081538374</v>
       </c>
-      <c r="D43" s="19" t="e">
+      <c r="D43" s="19">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>0.51057898970521443</v>
       </c>
       <c r="E43" s="19" t="e">
         <f t="shared" si="4"/>
@@ -3386,9 +3565,9 @@
         <f>+G15/G13</f>
         <v>0.54465634187973078</v>
       </c>
-      <c r="H43" s="19" t="e">
+      <c r="H43" s="19">
         <f>+H15/H13</f>
-        <v>#DIV/0!</v>
+        <v>0.52206912579357012</v>
       </c>
       <c r="I43" s="19" t="e">
         <f>+I15/I13</f>
@@ -3446,9 +3625,9 @@
         <f t="shared" ref="C44:F44" si="5">+C20/C13</f>
         <v>0.18091024908951658</v>
       </c>
-      <c r="D44" s="19" t="e">
+      <c r="D44" s="19">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.14006694021310231</v>
       </c>
       <c r="E44" s="19" t="e">
         <f t="shared" si="5"/>
@@ -3462,9 +3641,9 @@
         <f>+G20/G13</f>
         <v>0.17600246650997775</v>
       </c>
-      <c r="H44" s="19" t="e">
+      <c r="H44" s="19">
         <f>+H20/H13</f>
-        <v>#DIV/0!</v>
+        <v>0.16386594056352694</v>
       </c>
       <c r="I44" s="19" t="e">
         <f>+I20/I13</f>
@@ -3522,9 +3701,9 @@
         <f t="shared" ref="C45:F45" si="6">+C24/C23</f>
         <v>0.29398115379170692</v>
       </c>
-      <c r="D45" s="19" t="e">
+      <c r="D45" s="19">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0.30815354727509092</v>
       </c>
       <c r="E45" s="19" t="e">
         <f t="shared" si="6"/>
@@ -3538,9 +3717,9 @@
         <f>+G24/G23</f>
         <v>0.28641035943706672</v>
       </c>
-      <c r="H45" s="19" t="e">
+      <c r="H45" s="19">
         <f>+H24/H23</f>
-        <v>#DIV/0!</v>
+        <v>0.34785054334817367</v>
       </c>
       <c r="I45" s="19" t="e">
         <f>+I24/I23</f>

--- a/9983.T.xlsx
+++ b/9983.T.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA6E743-2F14-4F91-AAD0-9244DD93258E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95ABFC7-28DE-4B8E-A827-722A73E616EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19380" windowHeight="20925" activeTab="1" xr2:uid="{C51DE7BF-0E76-4BFC-AC60-72AAABFBEE4E}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{C51DE7BF-0E76-4BFC-AC60-72AAABFBEE4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -433,7 +433,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -460,6 +460,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -798,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A20E60AF-353C-4D62-948D-7EB06D7260C7}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,7 +825,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="5">
-        <v>46660</v>
+        <v>43500</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -835,10 +836,10 @@
         <v>2</v>
       </c>
       <c r="J4" s="5">
-        <v>306.76797599999998</v>
+        <v>306.77834300000001</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -850,7 +851,7 @@
       </c>
       <c r="J5" s="5">
         <f>J4*J3</f>
-        <v>14313793.760159999</v>
+        <v>13344857.920500001</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -858,10 +859,11 @@
         <v>4</v>
       </c>
       <c r="J6" s="5">
-        <v>977330</v>
+        <f>991761+636441</f>
+        <v>1628202</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -879,11 +881,11 @@
         <v>5</v>
       </c>
       <c r="J7" s="5">
-        <f>141049+192864</f>
-        <v>333913</v>
+        <f>141089+188980</f>
+        <v>330069</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -898,7 +900,7 @@
       </c>
       <c r="J8" s="5">
         <f>J5+J7-J6</f>
-        <v>13670376.760159999</v>
+        <v>12046724.920500001</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -956,11 +958,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F30EE377-B68B-4065-B032-EB2CBD2D9E42}">
   <dimension ref="A1:AZ251"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1011,7 +1013,9 @@
         <f>541545-C3</f>
         <v>297047</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5">
+        <v>180512</v>
+      </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
         <v>266602</v>
@@ -1020,7 +1024,9 @@
         <f>485108-G3</f>
         <v>218506</v>
       </c>
-      <c r="I3" s="5"/>
+      <c r="I3" s="5">
+        <v>316314</v>
+      </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -1067,7 +1073,9 @@
         <f>361705-C4</f>
         <v>181358</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="5">
+        <v>160764</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5">
         <v>178610</v>
@@ -1076,7 +1084,9 @@
         <f>360453-G4</f>
         <v>181843</v>
       </c>
-      <c r="I4" s="5"/>
+      <c r="I4" s="5">
+        <v>150038</v>
+      </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
@@ -1123,7 +1133,9 @@
         <f>320496-C5</f>
         <v>189223</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="5">
+        <v>84051</v>
+      </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5">
         <v>154138</v>
@@ -1132,7 +1144,9 @@
         <f>272818-G5</f>
         <v>118680</v>
       </c>
-      <c r="I5" s="5"/>
+      <c r="I5" s="5">
+        <v>196405</v>
+      </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
@@ -1179,7 +1193,9 @@
         <f>137365-C6</f>
         <v>79394</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="5">
+        <v>22962</v>
+      </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5">
         <v>68013</v>
@@ -1188,7 +1204,9 @@
         <f>108540-G6</f>
         <v>40527</v>
       </c>
-      <c r="I6" s="5"/>
+      <c r="I6" s="5">
+        <v>92387</v>
+      </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
@@ -1235,7 +1253,9 @@
         <f>194588-C7</f>
         <v>122862</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="5">
+        <v>10917</v>
+      </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5">
         <v>102004</v>
@@ -1244,7 +1264,9 @@
         <f>142172-G7</f>
         <v>40168</v>
       </c>
-      <c r="I7" s="5"/>
+      <c r="I7" s="5">
+        <v>134320</v>
+      </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -1291,7 +1313,9 @@
         <f>541545-C8</f>
         <v>297047</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="5">
+        <v>180512</v>
+      </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5">
         <v>266602</v>
@@ -1300,7 +1324,9 @@
         <f>485108-G8</f>
         <v>218506</v>
       </c>
-      <c r="I8" s="5"/>
+      <c r="I8" s="5">
+        <v>316314</v>
+      </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -1356,7 +1382,9 @@
         <f>1014155-C9</f>
         <v>572837</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="5">
+        <v>278694</v>
+      </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5">
         <v>501767</v>
@@ -1365,7 +1393,9 @@
         <f>883985-G9</f>
         <v>382218</v>
       </c>
-      <c r="I9" s="5"/>
+      <c r="I9" s="5">
+        <v>573150</v>
+      </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
@@ -1421,7 +1451,9 @@
         <f>165844-C10</f>
         <v>77988</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="5">
+        <v>80620</v>
+      </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5">
         <v>90610</v>
@@ -1430,7 +1462,9 @@
         <f>159574-G10</f>
         <v>68964</v>
       </c>
-      <c r="I10" s="5"/>
+      <c r="I10" s="5">
+        <v>96713</v>
+      </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
@@ -1486,7 +1520,9 @@
         <f>67792-C11</f>
         <v>31108</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="E11" s="5">
+        <v>35993</v>
+      </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5">
         <v>35794</v>
@@ -1495,7 +1531,9 @@
         <f>69417-G11</f>
         <v>33623</v>
       </c>
-      <c r="I11" s="5"/>
+      <c r="I11" s="5">
+        <v>31169</v>
+      </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
@@ -1551,7 +1589,9 @@
         <f>859-C12</f>
         <v>384</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="5">
+        <v>485</v>
+      </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5">
         <v>417</v>
@@ -1560,7 +1600,9 @@
         <f>912-G12</f>
         <v>495</v>
       </c>
-      <c r="I12" s="5"/>
+      <c r="I12" s="5">
+        <v>363</v>
+      </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
@@ -1617,8 +1659,10 @@
         <f>1598999-C13</f>
         <v>788166</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+      <c r="E13" s="6">
+        <v>767502</v>
+      </c>
+      <c r="F13" s="22"/>
       <c r="G13" s="6">
         <v>895192</v>
       </c>
@@ -1626,8 +1670,10 @@
         <f>1790198-G13</f>
         <v>895006</v>
       </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
+      <c r="I13" s="6">
+        <v>826510</v>
+      </c>
+      <c r="J13" s="22"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
@@ -1682,8 +1728,10 @@
         <f>753755-C14</f>
         <v>385745</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="E14" s="5">
+        <v>333771</v>
+      </c>
+      <c r="F14" s="22"/>
       <c r="G14" s="5">
         <v>407620</v>
       </c>
@@ -1691,8 +1739,10 @@
         <f>835371-G14</f>
         <v>427751</v>
       </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
+      <c r="I14" s="22">
+        <v>372805</v>
+      </c>
+      <c r="J14" s="22"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
@@ -1748,8 +1798,11 @@
         <f>+D13-D14</f>
         <v>402421</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+      <c r="E15" s="5">
+        <f>+E13-E14</f>
+        <v>433731</v>
+      </c>
+      <c r="F15" s="22"/>
       <c r="G15" s="5">
         <f>+G13-G14</f>
         <v>487572</v>
@@ -1758,8 +1811,11 @@
         <f>+H13-H14</f>
         <v>467255</v>
       </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
+      <c r="I15" s="5">
+        <f>+I13-I14</f>
+        <v>453705</v>
+      </c>
+      <c r="J15" s="22"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
@@ -1814,8 +1870,10 @@
         <f>594073-C16</f>
         <v>292673</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+      <c r="E16" s="5">
+        <v>291799</v>
+      </c>
+      <c r="F16" s="22"/>
       <c r="G16" s="5">
         <v>330580</v>
       </c>
@@ -1823,8 +1881,10 @@
         <f>653155-G16</f>
         <v>322575</v>
       </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
+      <c r="I16" s="22">
+        <v>311831</v>
+      </c>
+      <c r="J16" s="22"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
@@ -1879,8 +1939,10 @@
         <f>7338-C17</f>
         <v>1674</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+      <c r="E17" s="5">
+        <v>3489</v>
+      </c>
+      <c r="F17" s="22"/>
       <c r="G17" s="5">
         <v>1404</v>
       </c>
@@ -1888,8 +1950,10 @@
         <f>3699-G17</f>
         <v>2295</v>
       </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
+      <c r="I17" s="22">
+        <v>5340</v>
+      </c>
+      <c r="J17" s="22"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
@@ -1944,8 +2008,10 @@
         <f>2414-C18</f>
         <v>1344</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+      <c r="E18" s="5">
+        <v>1090</v>
+      </c>
+      <c r="F18" s="22"/>
       <c r="G18" s="5">
         <v>1765</v>
       </c>
@@ -1953,8 +2019,10 @@
         <f>2653-G18</f>
         <v>888</v>
       </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
+      <c r="I18" s="22">
+        <v>1208</v>
+      </c>
+      <c r="J18" s="22"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
@@ -2009,8 +2077,10 @@
         <f>989-C19</f>
         <v>318</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+      <c r="E19" s="5">
+        <v>390</v>
+      </c>
+      <c r="F19" s="22"/>
       <c r="G19" s="5">
         <v>925</v>
       </c>
@@ -2018,8 +2088,10 @@
         <f>1499-G19</f>
         <v>574</v>
       </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
+      <c r="I19" s="22">
+        <v>729</v>
+      </c>
+      <c r="J19" s="22"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
@@ -2075,8 +2147,11 @@
         <f>+D15-D16+D17-D18+D19</f>
         <v>110396</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+      <c r="E20" s="5">
+        <f>+E15-E16+E17-E18+E19</f>
+        <v>144721</v>
+      </c>
+      <c r="F20" s="22"/>
       <c r="G20" s="5">
         <f>+G15-G16+G17-G18+G19</f>
         <v>157556</v>
@@ -2085,8 +2160,11 @@
         <f>+H15-H16+H17-H18+H19</f>
         <v>146661</v>
       </c>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
+      <c r="I20" s="5">
+        <f>+I15-I16+I17-I18+I19</f>
+        <v>146735</v>
+      </c>
+      <c r="J20" s="22"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
@@ -2141,8 +2219,10 @@
         <f>47273-C21</f>
         <v>29012</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+      <c r="E21" s="5">
+        <v>36544</v>
+      </c>
+      <c r="F21" s="22"/>
       <c r="G21" s="5">
         <v>42345</v>
       </c>
@@ -2150,8 +2230,10 @@
         <f>65832-G21</f>
         <v>23487</v>
       </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
+      <c r="I21" s="22">
+        <v>13188</v>
+      </c>
+      <c r="J21" s="22"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
@@ -2206,8 +2288,10 @@
         <f>4962-C22</f>
         <v>2486</v>
       </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
+      <c r="E22" s="5">
+        <v>2891</v>
+      </c>
+      <c r="F22" s="22"/>
       <c r="G22" s="5">
         <v>3288</v>
       </c>
@@ -2215,8 +2299,10 @@
         <f>6324-G22</f>
         <v>3036</v>
       </c>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
+      <c r="I22" s="22">
+        <v>3143</v>
+      </c>
+      <c r="J22" s="22"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
@@ -2272,8 +2358,11 @@
         <f>+D20+D21-D22</f>
         <v>136922</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
+      <c r="E23" s="5">
+        <f>+E20+E21-E22</f>
+        <v>178374</v>
+      </c>
+      <c r="F23" s="22"/>
       <c r="G23" s="5">
         <f>+G20+G21-G22</f>
         <v>196613</v>
@@ -2282,8 +2371,11 @@
         <f>+H20+H21-H22</f>
         <v>167112</v>
       </c>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
+      <c r="I23" s="5">
+        <f>+I20+I21-I22</f>
+        <v>156780</v>
+      </c>
+      <c r="J23" s="22"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
@@ -2338,8 +2430,10 @@
         <f>89957-C24</f>
         <v>42193</v>
       </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
+      <c r="E24" s="5">
+        <v>55873</v>
+      </c>
+      <c r="F24" s="22"/>
       <c r="G24" s="5">
         <v>56312</v>
       </c>
@@ -2347,8 +2441,10 @@
         <f>114442-G24</f>
         <v>58130</v>
       </c>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
+      <c r="I24" s="22">
+        <v>46456</v>
+      </c>
+      <c r="J24" s="22"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
@@ -2404,8 +2500,11 @@
         <f>+D23-D24</f>
         <v>94729</v>
       </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
+      <c r="E25" s="5">
+        <f>+E23-E24</f>
+        <v>122501</v>
+      </c>
+      <c r="F25" s="22"/>
       <c r="G25" s="5">
         <f>+G23-G24</f>
         <v>140301</v>
@@ -2414,8 +2513,11 @@
         <f>+H23-H24</f>
         <v>108982</v>
       </c>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
+      <c r="I25" s="5">
+        <f>+I23-I24</f>
+        <v>110324</v>
+      </c>
+      <c r="J25" s="22"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
@@ -2470,8 +2572,10 @@
         <f>13526-C26</f>
         <v>6621</v>
       </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
+      <c r="E26" s="5">
+        <v>5572</v>
+      </c>
+      <c r="F26" s="22"/>
       <c r="G26" s="5">
         <v>8337</v>
       </c>
@@ -2479,8 +2583,10 @@
         <f>15715-G26</f>
         <v>7378</v>
       </c>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
+      <c r="I26" s="22">
+        <v>4793</v>
+      </c>
+      <c r="J26" s="22"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
@@ -2536,8 +2642,11 @@
         <f>+D25-D26</f>
         <v>88108</v>
       </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
+      <c r="E27" s="5">
+        <f>+E25-E26</f>
+        <v>116929</v>
+      </c>
+      <c r="F27" s="22"/>
       <c r="G27" s="5">
         <f>+G25-G26</f>
         <v>131964</v>
@@ -2546,8 +2655,11 @@
         <f>+H25-H26</f>
         <v>101604</v>
       </c>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
+      <c r="I27" s="5">
+        <f>+I25-I26</f>
+        <v>105531</v>
+      </c>
+      <c r="J27" s="22"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
@@ -2655,9 +2767,9 @@
         <f t="shared" si="0"/>
         <v>287.2848519462608</v>
       </c>
-      <c r="E29" s="7" t="e">
+      <c r="E29" s="7">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>381.24905078184275</v>
       </c>
       <c r="F29" s="7" t="e">
         <f t="shared" si="0"/>
@@ -2671,9 +2783,9 @@
         <f t="shared" ref="H29:J29" si="1">+H27/H30</f>
         <v>331.20797458989006</v>
       </c>
-      <c r="I29" s="7" t="e">
+      <c r="I29" s="7">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>343.99755526419278</v>
       </c>
       <c r="J29" s="7" t="e">
         <f t="shared" si="1"/>
@@ -2732,7 +2844,9 @@
       <c r="D30" s="5">
         <v>306.69211899999999</v>
       </c>
-      <c r="E30" s="5"/>
+      <c r="E30" s="5">
+        <v>306.69977999999998</v>
+      </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5">
         <v>306.68563799999998</v>
@@ -2740,7 +2854,9 @@
       <c r="H30" s="5">
         <v>306.76797599999998</v>
       </c>
-      <c r="I30" s="5"/>
+      <c r="I30" s="5">
+        <v>306.77834300000001</v>
+      </c>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
@@ -2853,11 +2969,14 @@
         <f t="shared" ref="H32:I42" si="2">+H3/D3-1</f>
         <v>-0.26440596942571382</v>
       </c>
-      <c r="I32" s="19" t="e">
+      <c r="I32" s="19">
         <f t="shared" si="2"/>
+        <v>0.75231563552561598</v>
+      </c>
+      <c r="J32" s="19" t="e">
+        <f t="shared" ref="J32:J42" si="3">+J3/F3-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J32" s="5"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
@@ -2910,18 +3029,21 @@
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="19">
-        <f t="shared" ref="G33:G42" si="3">+G4/C4-1</f>
+        <f t="shared" ref="G33:G42" si="4">+G4/C4-1</f>
         <v>-9.6314327379994902E-3</v>
       </c>
       <c r="H33" s="19">
         <f t="shared" si="2"/>
         <v>2.6742685737601857E-3</v>
       </c>
-      <c r="I33" s="19" t="e">
+      <c r="I33" s="19">
         <f t="shared" si="2"/>
+        <v>-6.6718917170510816E-2</v>
+      </c>
+      <c r="J33" s="19" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J33" s="5"/>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
@@ -2974,18 +3096,21 @@
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.17417900101315587</v>
       </c>
       <c r="H34" s="19">
         <f t="shared" si="2"/>
         <v>-0.37280351754279339</v>
       </c>
-      <c r="I34" s="19" t="e">
+      <c r="I34" s="19">
         <f t="shared" si="2"/>
+        <v>1.3367360293155346</v>
+      </c>
+      <c r="J34" s="19" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J34" s="5"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
@@ -3038,18 +3163,21 @@
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1732245433061359</v>
       </c>
       <c r="H35" s="19">
         <f t="shared" si="2"/>
         <v>-0.48954580950701565</v>
       </c>
-      <c r="I35" s="19" t="e">
+      <c r="I35" s="19">
         <f t="shared" si="2"/>
+        <v>3.0234735650204687</v>
+      </c>
+      <c r="J35" s="19" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J35" s="5"/>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
@@ -3102,18 +3230,21 @@
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.4221342330535649</v>
       </c>
       <c r="H36" s="19">
         <f t="shared" si="2"/>
         <v>-0.67306408816395624</v>
       </c>
-      <c r="I36" s="19" t="e">
+      <c r="I36" s="19">
         <f t="shared" si="2"/>
+        <v>11.303746450490062</v>
+      </c>
+      <c r="J36" s="19" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J36" s="5"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
@@ -3166,18 +3297,21 @@
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.0405647489959051E-2</v>
       </c>
       <c r="H37" s="19">
         <f t="shared" si="2"/>
         <v>-0.26440596942571382</v>
       </c>
-      <c r="I37" s="19" t="e">
+      <c r="I37" s="19">
         <f t="shared" si="2"/>
+        <v>0.75231563552561598</v>
+      </c>
+      <c r="J37" s="19" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J37" s="5"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
@@ -3230,18 +3364,21 @@
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.13697379214081451</v>
       </c>
       <c r="H38" s="19">
         <f t="shared" si="2"/>
         <v>-0.33276307221775125</v>
       </c>
-      <c r="I38" s="19" t="e">
+      <c r="I38" s="19">
         <f t="shared" si="2"/>
+        <v>1.0565566535339834</v>
+      </c>
+      <c r="J38" s="19" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J38" s="5"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
@@ -3294,18 +3431,21 @@
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.1346749226006221E-2</v>
       </c>
       <c r="H39" s="19">
         <f t="shared" si="2"/>
         <v>-0.11571010924757652</v>
       </c>
-      <c r="I39" s="19" t="e">
+      <c r="I39" s="19">
         <f t="shared" si="2"/>
+        <v>0.19961548002976937</v>
+      </c>
+      <c r="J39" s="19" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J39" s="5"/>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
@@ -3358,18 +3498,21 @@
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.426125831425141E-2</v>
       </c>
       <c r="H40" s="19">
         <f t="shared" si="2"/>
         <v>8.0847370451330836E-2</v>
       </c>
-      <c r="I40" s="19" t="e">
+      <c r="I40" s="19">
         <f t="shared" si="2"/>
+        <v>-0.1340260606228989</v>
+      </c>
+      <c r="J40" s="19" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J40" s="5"/>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
@@ -3422,18 +3565,21 @@
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.12210526315789472</v>
       </c>
       <c r="H41" s="19">
         <f t="shared" si="2"/>
         <v>0.2890625</v>
       </c>
-      <c r="I41" s="19" t="e">
+      <c r="I41" s="19">
         <f t="shared" si="2"/>
+        <v>-0.25154639175257731</v>
+      </c>
+      <c r="J41" s="19" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J41" s="5"/>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
@@ -3486,18 +3632,21 @@
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.10403991944087121</v>
       </c>
       <c r="H42" s="21">
         <f t="shared" si="2"/>
         <v>0.13555520030044432</v>
       </c>
-      <c r="I42" s="21" t="e">
+      <c r="I42" s="21">
         <f t="shared" si="2"/>
+        <v>7.6883187275081921E-2</v>
+      </c>
+      <c r="J42" s="21" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J42" s="5"/>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
@@ -3546,19 +3695,19 @@
         <v>61</v>
       </c>
       <c r="C43" s="19">
-        <f t="shared" ref="C43:F43" si="4">+C15/C13</f>
+        <f t="shared" ref="C43:F43" si="5">+C15/C13</f>
         <v>0.54613342081538374</v>
       </c>
       <c r="D43" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.51057898970521443</v>
       </c>
-      <c r="E43" s="19" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="E43" s="19">
+        <f t="shared" si="5"/>
+        <v>0.56512035147791151</v>
       </c>
       <c r="F43" s="19" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G43" s="19">
@@ -3569,11 +3718,14 @@
         <f>+H15/H13</f>
         <v>0.52206912579357012</v>
       </c>
-      <c r="I43" s="19" t="e">
+      <c r="I43" s="19">
         <f>+I15/I13</f>
+        <v>0.54894072666997373</v>
+      </c>
+      <c r="J43" s="19" t="e">
+        <f t="shared" ref="J43" si="6">+J15/J13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J43" s="5"/>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
@@ -3622,19 +3774,19 @@
         <v>62</v>
       </c>
       <c r="C44" s="19">
-        <f t="shared" ref="C44:F44" si="5">+C20/C13</f>
+        <f t="shared" ref="C44:F44" si="7">+C20/C13</f>
         <v>0.18091024908951658</v>
       </c>
       <c r="D44" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.14006694021310231</v>
       </c>
-      <c r="E44" s="19" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+      <c r="E44" s="19">
+        <f t="shared" si="7"/>
+        <v>0.18856107215355791</v>
       </c>
       <c r="F44" s="19" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G44" s="19">
@@ -3645,11 +3797,14 @@
         <f>+H20/H13</f>
         <v>0.16386594056352694</v>
       </c>
-      <c r="I44" s="19" t="e">
+      <c r="I44" s="19">
         <f>+I20/I13</f>
+        <v>0.17753566200045975</v>
+      </c>
+      <c r="J44" s="19" t="e">
+        <f t="shared" ref="J44" si="8">+J20/J13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J44" s="5"/>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
@@ -3698,19 +3853,19 @@
         <v>63</v>
       </c>
       <c r="C45" s="19">
-        <f t="shared" ref="C45:F45" si="6">+C24/C23</f>
+        <f t="shared" ref="C45:F45" si="9">+C24/C23</f>
         <v>0.29398115379170692</v>
       </c>
       <c r="D45" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.30815354727509092</v>
       </c>
-      <c r="E45" s="19" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+      <c r="E45" s="19">
+        <f t="shared" si="9"/>
+        <v>0.31323511274064608</v>
       </c>
       <c r="F45" s="19" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G45" s="19">
@@ -3721,11 +3876,14 @@
         <f>+H24/H23</f>
         <v>0.34785054334817367</v>
       </c>
-      <c r="I45" s="19" t="e">
+      <c r="I45" s="19">
         <f>+I24/I23</f>
+        <v>0.29631330526852917</v>
+      </c>
+      <c r="J45" s="19" t="e">
+        <f t="shared" ref="J45" si="10">+J24/J23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J45" s="5"/>
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>

--- a/9983.T.xlsx
+++ b/9983.T.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894D52AE-6CED-40EA-BF2B-01C3185359AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766B7E6D-7BC5-4328-BBFA-8F0EC178C1DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" activeTab="1" xr2:uid="{C51DE7BF-0E76-4BFC-AC60-72AAABFBEE4E}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{C51DE7BF-0E76-4BFC-AC60-72AAABFBEE4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="74">
   <si>
     <t>Fast Retailing</t>
   </si>
@@ -245,6 +245,21 @@
   <si>
     <t>Tadashi Yanai</t>
   </si>
+  <si>
+    <t>FY21</t>
+  </si>
+  <si>
+    <t>FY22</t>
+  </si>
+  <si>
+    <t>FY23</t>
+  </si>
+  <si>
+    <t>FY24</t>
+  </si>
+  <si>
+    <t>FY25</t>
+  </si>
 </sst>
 </file>
 
@@ -253,13 +268,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -441,37 +462,40 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -810,8 +834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A20E60AF-353C-4D62-948D-7EB06D7260C7}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -839,7 +863,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="3">
-        <v>43500</v>
+        <v>48290</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -850,10 +874,10 @@
         <v>2</v>
       </c>
       <c r="J4" s="3">
-        <v>306.77834300000001</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>18</v>
+        <v>306.78660200000002</v>
+      </c>
+      <c r="K4" s="23" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -865,7 +889,7 @@
       </c>
       <c r="J5" s="3">
         <f>J4*J3</f>
-        <v>13344857.920500001</v>
+        <v>14814725.010580001</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -873,11 +897,11 @@
         <v>4</v>
       </c>
       <c r="J6" s="3">
-        <f>991761+636441</f>
-        <v>1628202</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>18</v>
+        <f>893239+899701</f>
+        <v>1792940</v>
+      </c>
+      <c r="K6" s="23" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -895,11 +919,11 @@
         <v>5</v>
       </c>
       <c r="J7" s="3">
-        <f>141089+188980</f>
-        <v>330069</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>18</v>
+        <f>104770+211147</f>
+        <v>315917</v>
+      </c>
+      <c r="K7" s="23" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -914,7 +938,7 @@
       </c>
       <c r="J8" s="3">
         <f>J5+J7-J6</f>
-        <v>12046724.920500001</v>
+        <v>13337702.010580001</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -972,18 +996,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F30EE377-B68B-4065-B032-EB2CBD2D9E42}">
   <dimension ref="A1:AZ251"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.5703125" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="2"/>
+    <col min="3" max="14" width="9.140625" style="2"/>
+    <col min="15" max="16" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.2">
@@ -1013,8 +1039,23 @@
       <c r="I2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="23" t="s">
         <v>19</v>
+      </c>
+      <c r="L2" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="O2" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="P2" s="23" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.2">
@@ -1031,7 +1072,10 @@
       <c r="E3" s="3">
         <v>180512</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="3">
+        <f>+O3-SUM(C3:E3)</f>
+        <v>210170</v>
+      </c>
       <c r="G3" s="3">
         <v>266602</v>
       </c>
@@ -1042,13 +1086,20 @@
       <c r="I3" s="3">
         <v>316314</v>
       </c>
-      <c r="J3" s="3"/>
+      <c r="J3" s="3">
+        <f>+P3-SUM(G3:I3)</f>
+        <v>224674</v>
+      </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
+      <c r="O3" s="3">
+        <v>932227</v>
+      </c>
+      <c r="P3" s="3">
+        <v>1026096</v>
+      </c>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
@@ -1091,7 +1142,10 @@
       <c r="E4" s="3">
         <v>160764</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="3">
+        <f t="shared" ref="F4:F26" si="0">+O4-SUM(C4:E4)</f>
+        <v>154594</v>
+      </c>
       <c r="G4" s="3">
         <v>178610</v>
       </c>
@@ -1102,13 +1156,20 @@
       <c r="I4" s="3">
         <v>150038</v>
       </c>
-      <c r="J4" s="3"/>
+      <c r="J4" s="3">
+        <f t="shared" ref="J4:J24" si="1">+P4-SUM(G4:I4)</f>
+        <v>139741</v>
+      </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
+      <c r="O4" s="3">
+        <v>677063</v>
+      </c>
+      <c r="P4" s="3">
+        <v>650232</v>
+      </c>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
@@ -1151,7 +1212,10 @@
       <c r="E5" s="3">
         <v>84051</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="3">
+        <f t="shared" si="0"/>
+        <v>135979</v>
+      </c>
       <c r="G5" s="3">
         <v>154138</v>
       </c>
@@ -1162,13 +1226,20 @@
       <c r="I5" s="3">
         <v>196405</v>
       </c>
-      <c r="J5" s="3"/>
+      <c r="J5" s="3">
+        <f t="shared" si="1"/>
+        <v>150194</v>
+      </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
+      <c r="O5" s="3">
+        <v>540526</v>
+      </c>
+      <c r="P5" s="3">
+        <v>619417</v>
+      </c>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
@@ -1211,7 +1282,10 @@
       <c r="E6" s="3">
         <v>22962</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="3">
+        <f t="shared" si="0"/>
+        <v>57388</v>
+      </c>
       <c r="G6" s="3">
         <v>68013</v>
       </c>
@@ -1222,13 +1296,20 @@
       <c r="I6" s="3">
         <v>92387</v>
       </c>
-      <c r="J6" s="3"/>
+      <c r="J6" s="3">
+        <f t="shared" si="1"/>
+        <v>70203</v>
+      </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
+      <c r="O6" s="3">
+        <v>217715</v>
+      </c>
+      <c r="P6" s="3">
+        <v>271130</v>
+      </c>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
@@ -1271,7 +1352,10 @@
       <c r="E7" s="3">
         <v>10917</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="3">
+        <f t="shared" si="0"/>
+        <v>71023</v>
+      </c>
       <c r="G7" s="3">
         <v>102004</v>
       </c>
@@ -1282,13 +1366,20 @@
       <c r="I7" s="3">
         <v>134320</v>
       </c>
-      <c r="J7" s="3"/>
+      <c r="J7" s="3">
+        <f t="shared" si="1"/>
+        <v>93017</v>
+      </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
+      <c r="O7" s="3">
+        <v>276528</v>
+      </c>
+      <c r="P7" s="3">
+        <v>369509</v>
+      </c>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
@@ -1331,7 +1422,10 @@
       <c r="E8" s="3">
         <v>180512</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="3">
+        <f t="shared" si="0"/>
+        <v>210170</v>
+      </c>
       <c r="G8" s="3">
         <v>266602</v>
       </c>
@@ -1342,13 +1436,20 @@
       <c r="I8" s="3">
         <v>316314</v>
       </c>
-      <c r="J8" s="3"/>
+      <c r="J8" s="3">
+        <f t="shared" si="1"/>
+        <v>224674</v>
+      </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
+      <c r="O8" s="3">
+        <v>932227</v>
+      </c>
+      <c r="P8" s="3">
+        <v>1026096</v>
+      </c>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
@@ -1400,7 +1501,10 @@
       <c r="E9" s="3">
         <v>278694</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="3">
+        <f t="shared" si="0"/>
+        <v>418984</v>
+      </c>
       <c r="G9" s="3">
         <v>501767</v>
       </c>
@@ -1411,13 +1515,20 @@
       <c r="I9" s="3">
         <v>573150</v>
       </c>
-      <c r="J9" s="3"/>
+      <c r="J9" s="3">
+        <f t="shared" si="1"/>
+        <v>453154</v>
+      </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
+      <c r="O9" s="3">
+        <v>1711833</v>
+      </c>
+      <c r="P9" s="3">
+        <v>1910289</v>
+      </c>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
@@ -1469,7 +1580,10 @@
       <c r="E10" s="3">
         <v>80620</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="3">
+        <f t="shared" si="0"/>
+        <v>72698</v>
+      </c>
       <c r="G10" s="3">
         <v>90610</v>
       </c>
@@ -1480,13 +1594,20 @@
       <c r="I10" s="3">
         <v>96713</v>
       </c>
-      <c r="J10" s="3"/>
+      <c r="J10" s="3">
+        <f t="shared" si="1"/>
+        <v>74414</v>
+      </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
+      <c r="O10" s="3">
+        <v>319162</v>
+      </c>
+      <c r="P10" s="3">
+        <v>330701</v>
+      </c>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
@@ -1538,7 +1659,10 @@
       <c r="E11" s="3">
         <v>35993</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" s="3">
+        <f t="shared" si="0"/>
+        <v>35052</v>
+      </c>
       <c r="G11" s="3">
         <v>35794</v>
       </c>
@@ -1549,13 +1673,20 @@
       <c r="I11" s="3">
         <v>31169</v>
       </c>
-      <c r="J11" s="3"/>
+      <c r="J11" s="3">
+        <f t="shared" si="1"/>
+        <v>30956</v>
+      </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
+      <c r="O11" s="3">
+        <v>138837</v>
+      </c>
+      <c r="P11" s="3">
+        <v>131542</v>
+      </c>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
@@ -1607,7 +1738,10 @@
       <c r="E12" s="3">
         <v>485</v>
       </c>
-      <c r="F12" s="3"/>
+      <c r="F12" s="3">
+        <f t="shared" si="0"/>
+        <v>432</v>
+      </c>
       <c r="G12" s="3">
         <v>417</v>
       </c>
@@ -1618,13 +1752,20 @@
       <c r="I12" s="3">
         <v>363</v>
       </c>
-      <c r="J12" s="3"/>
+      <c r="J12" s="3">
+        <f t="shared" si="1"/>
+        <v>635</v>
+      </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
+      <c r="O12" s="3">
+        <v>1776</v>
+      </c>
+      <c r="P12" s="3">
+        <v>1910</v>
+      </c>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
@@ -1677,7 +1818,10 @@
       <c r="E13" s="19">
         <v>767502</v>
       </c>
-      <c r="F13" s="3"/>
+      <c r="F13" s="19">
+        <f t="shared" si="0"/>
+        <v>737335</v>
+      </c>
       <c r="G13" s="19">
         <v>895192</v>
       </c>
@@ -1688,13 +1832,20 @@
       <c r="I13" s="19">
         <v>826510</v>
       </c>
-      <c r="J13" s="3"/>
+      <c r="J13" s="19">
+        <f t="shared" si="1"/>
+        <v>783831</v>
+      </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
+      <c r="O13" s="19">
+        <v>3103836</v>
+      </c>
+      <c r="P13" s="19">
+        <v>3400539</v>
+      </c>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
@@ -1746,7 +1897,10 @@
       <c r="E14" s="3">
         <v>333771</v>
       </c>
-      <c r="F14" s="3"/>
+      <c r="F14" s="3">
+        <f t="shared" si="0"/>
+        <v>343238</v>
+      </c>
       <c r="G14" s="3">
         <v>407620</v>
       </c>
@@ -1757,13 +1911,20 @@
       <c r="I14" s="3">
         <v>372805</v>
       </c>
-      <c r="J14" s="3"/>
+      <c r="J14" s="3">
+        <f t="shared" si="1"/>
+        <v>363505</v>
+      </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
+      <c r="O14" s="3">
+        <v>1430764</v>
+      </c>
+      <c r="P14" s="3">
+        <v>1571681</v>
+      </c>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
@@ -1817,7 +1978,10 @@
         <f>+E13-E14</f>
         <v>433731</v>
       </c>
-      <c r="F15" s="3"/>
+      <c r="F15" s="3">
+        <f>+F13-F14</f>
+        <v>394097</v>
+      </c>
       <c r="G15" s="3">
         <f>+G13-G14</f>
         <v>487572</v>
@@ -1830,13 +1994,31 @@
         <f>+I13-I14</f>
         <v>453705</v>
       </c>
-      <c r="J15" s="3"/>
+      <c r="J15" s="3">
+        <f>+J13-J14</f>
+        <v>420326</v>
+      </c>
       <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
+      <c r="L15" s="3">
+        <f t="shared" ref="L15:O15" si="2">+L13-L14</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <f t="shared" si="2"/>
+        <v>1673072</v>
+      </c>
+      <c r="P15" s="3">
+        <f>+P13-P14</f>
+        <v>1828858</v>
+      </c>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -1888,7 +2070,10 @@
       <c r="E16" s="3">
         <v>291799</v>
       </c>
-      <c r="F16" s="3"/>
+      <c r="F16" s="3">
+        <f t="shared" si="0"/>
+        <v>301841</v>
+      </c>
       <c r="G16" s="3">
         <v>330580</v>
       </c>
@@ -1899,13 +2084,20 @@
       <c r="I16" s="3">
         <v>311831</v>
       </c>
-      <c r="J16" s="3"/>
+      <c r="J16" s="3">
+        <f t="shared" si="1"/>
+        <v>312715</v>
+      </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
+      <c r="O16" s="3">
+        <v>1187713</v>
+      </c>
+      <c r="P16" s="3">
+        <v>1277701</v>
+      </c>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
@@ -1957,7 +2149,10 @@
       <c r="E17" s="3">
         <v>3489</v>
       </c>
-      <c r="F17" s="3"/>
+      <c r="F17" s="3">
+        <f t="shared" si="0"/>
+        <v>9557</v>
+      </c>
       <c r="G17" s="3">
         <v>1404</v>
       </c>
@@ -1968,13 +2163,20 @@
       <c r="I17" s="3">
         <v>5340</v>
       </c>
-      <c r="J17" s="3"/>
+      <c r="J17" s="3">
+        <f t="shared" si="1"/>
+        <v>10452</v>
+      </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
+      <c r="O17" s="3">
+        <v>20384</v>
+      </c>
+      <c r="P17" s="3">
+        <v>19491</v>
+      </c>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
@@ -2026,7 +2228,10 @@
       <c r="E18" s="3">
         <v>1090</v>
       </c>
-      <c r="F18" s="3"/>
+      <c r="F18" s="3">
+        <f t="shared" si="0"/>
+        <v>2752</v>
+      </c>
       <c r="G18" s="3">
         <v>1765</v>
       </c>
@@ -2037,13 +2242,20 @@
       <c r="I18" s="3">
         <v>1208</v>
       </c>
-      <c r="J18" s="3"/>
+      <c r="J18" s="3">
+        <f t="shared" si="1"/>
+        <v>4226</v>
+      </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
+      <c r="O18" s="3">
+        <v>6256</v>
+      </c>
+      <c r="P18" s="3">
+        <v>8087</v>
+      </c>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
@@ -2095,7 +2307,10 @@
       <c r="E19" s="3">
         <v>390</v>
       </c>
-      <c r="F19" s="3"/>
+      <c r="F19" s="3">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
       <c r="G19" s="3">
         <v>925</v>
       </c>
@@ -2106,13 +2321,20 @@
       <c r="I19" s="3">
         <v>729</v>
       </c>
-      <c r="J19" s="3"/>
+      <c r="J19" s="3">
+        <f t="shared" si="1"/>
+        <v>-524</v>
+      </c>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
+      <c r="O19" s="3">
+        <v>1417</v>
+      </c>
+      <c r="P19" s="3">
+        <v>1704</v>
+      </c>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
@@ -2166,7 +2388,10 @@
         <f>+E15-E16+E17-E18+E19</f>
         <v>144721</v>
       </c>
-      <c r="F20" s="3"/>
+      <c r="F20" s="3">
+        <f>+F15-F16+F17-F18+F19</f>
+        <v>99099</v>
+      </c>
       <c r="G20" s="3">
         <f>+G15-G16+G17-G18+G19</f>
         <v>157556</v>
@@ -2179,13 +2404,31 @@
         <f>+I15-I16+I17-I18+I19</f>
         <v>146735</v>
       </c>
-      <c r="J20" s="3"/>
+      <c r="J20" s="3">
+        <f>+J15-J16+J17-J18+J19</f>
+        <v>113313</v>
+      </c>
       <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
+      <c r="L20" s="3">
+        <f t="shared" ref="L20:P20" si="3">+L15-L16+L17-L18+L19</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <f t="shared" si="3"/>
+        <v>500904</v>
+      </c>
+      <c r="P20" s="3">
+        <f t="shared" si="3"/>
+        <v>564265</v>
+      </c>
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
@@ -2237,7 +2480,10 @@
       <c r="E21" s="3">
         <v>36544</v>
       </c>
-      <c r="F21" s="3"/>
+      <c r="F21" s="3">
+        <f t="shared" si="0"/>
+        <v>-16418</v>
+      </c>
       <c r="G21" s="3">
         <v>42345</v>
       </c>
@@ -2248,13 +2494,20 @@
       <c r="I21" s="3">
         <v>13188</v>
       </c>
-      <c r="J21" s="3"/>
+      <c r="J21" s="3">
+        <f t="shared" si="1"/>
+        <v>20123</v>
+      </c>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
+      <c r="O21" s="3">
+        <v>67399</v>
+      </c>
+      <c r="P21" s="3">
+        <v>99143</v>
+      </c>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
@@ -2306,7 +2559,10 @@
       <c r="E22" s="3">
         <v>2891</v>
       </c>
-      <c r="F22" s="3"/>
+      <c r="F22" s="3">
+        <f t="shared" si="0"/>
+        <v>3248</v>
+      </c>
       <c r="G22" s="3">
         <v>3288</v>
       </c>
@@ -2317,13 +2573,20 @@
       <c r="I22" s="3">
         <v>3143</v>
       </c>
-      <c r="J22" s="3"/>
+      <c r="J22" s="3">
+        <f t="shared" si="1"/>
+        <v>3367</v>
+      </c>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
+      <c r="O22" s="3">
+        <v>11101</v>
+      </c>
+      <c r="P22" s="3">
+        <v>12834</v>
+      </c>
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
@@ -2377,7 +2640,10 @@
         <f>+E20+E21-E22</f>
         <v>178374</v>
       </c>
-      <c r="F23" s="3"/>
+      <c r="F23" s="3">
+        <f>+F20+F21-F22</f>
+        <v>79433</v>
+      </c>
       <c r="G23" s="3">
         <f>+G20+G21-G22</f>
         <v>196613</v>
@@ -2390,13 +2656,31 @@
         <f>+I20+I21-I22</f>
         <v>156780</v>
       </c>
-      <c r="J23" s="3"/>
+      <c r="J23" s="3">
+        <f>+J20+J21-J22</f>
+        <v>130069</v>
+      </c>
       <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
+      <c r="L23" s="3">
+        <f t="shared" ref="L23:P23" si="4">+L20+L21-L22</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
+        <f t="shared" si="4"/>
+        <v>557202</v>
+      </c>
+      <c r="P23" s="3">
+        <f t="shared" si="4"/>
+        <v>650574</v>
+      </c>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
@@ -2448,7 +2732,10 @@
       <c r="E24" s="3">
         <v>55873</v>
       </c>
-      <c r="F24" s="3"/>
+      <c r="F24" s="3">
+        <f t="shared" si="0"/>
+        <v>17766</v>
+      </c>
       <c r="G24" s="3">
         <v>56312</v>
       </c>
@@ -2459,13 +2746,19 @@
       <c r="I24" s="3">
         <v>46456</v>
       </c>
-      <c r="J24" s="3"/>
+      <c r="J24" s="3">
+        <v>4793</v>
+      </c>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
+      <c r="O24" s="3">
+        <v>163596</v>
+      </c>
+      <c r="P24" s="3">
+        <v>191421</v>
+      </c>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
@@ -2519,7 +2812,10 @@
         <f>+E23-E24</f>
         <v>122501</v>
       </c>
-      <c r="F25" s="3"/>
+      <c r="F25" s="3">
+        <f>+F23-F24</f>
+        <v>61667</v>
+      </c>
       <c r="G25" s="3">
         <f>+G23-G24</f>
         <v>140301</v>
@@ -2532,13 +2828,31 @@
         <f>+I23-I24</f>
         <v>110324</v>
       </c>
-      <c r="J25" s="3"/>
+      <c r="J25" s="3">
+        <f>+J23-J24</f>
+        <v>125276</v>
+      </c>
       <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
+      <c r="L25" s="3">
+        <f t="shared" ref="L25:P25" si="5">+L23-L24</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <f t="shared" si="5"/>
+        <v>393606</v>
+      </c>
+      <c r="P25" s="3">
+        <f t="shared" si="5"/>
+        <v>459153</v>
+      </c>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
@@ -2590,7 +2904,10 @@
       <c r="E26" s="3">
         <v>5572</v>
       </c>
-      <c r="F26" s="3"/>
+      <c r="F26" s="3">
+        <f t="shared" si="0"/>
+        <v>2507</v>
+      </c>
       <c r="G26" s="3">
         <v>8337</v>
       </c>
@@ -2601,13 +2918,19 @@
       <c r="I26" s="3">
         <v>4793</v>
       </c>
-      <c r="J26" s="3"/>
+      <c r="J26" s="3">
+        <v>4793</v>
+      </c>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
+      <c r="O26" s="3">
+        <v>21605</v>
+      </c>
+      <c r="P26" s="3">
+        <v>26143</v>
+      </c>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
@@ -2661,7 +2984,10 @@
         <f>+E25-E26</f>
         <v>116929</v>
       </c>
-      <c r="F27" s="3"/>
+      <c r="F27" s="3">
+        <f>+F25-F26</f>
+        <v>59160</v>
+      </c>
       <c r="G27" s="3">
         <f>+G25-G26</f>
         <v>131964</v>
@@ -2674,13 +3000,31 @@
         <f>+I25-I26</f>
         <v>105531</v>
       </c>
-      <c r="J27" s="3"/>
+      <c r="J27" s="3">
+        <f>+J25-J26</f>
+        <v>120483</v>
+      </c>
       <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
+      <c r="L27" s="3">
+        <f t="shared" ref="L27:O27" si="6">+L25-L26</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
+        <f t="shared" si="6"/>
+        <v>372001</v>
+      </c>
+      <c r="P27" s="3">
+        <f>+P25-P26</f>
+        <v>433010</v>
+      </c>
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
@@ -2775,43 +3119,58 @@
         <v>34</v>
       </c>
       <c r="C29" s="20">
-        <f t="shared" ref="C29:F29" si="0">+C27/C30</f>
+        <f t="shared" ref="C29:F29" si="7">+C27/C30</f>
         <v>351.43451337610696</v>
       </c>
       <c r="D29" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>287.2848519462608</v>
       </c>
       <c r="E29" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>381.24905078184275</v>
       </c>
-      <c r="F29" s="20" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="F29" s="20">
+        <f t="shared" si="7"/>
+        <v>192.8876682668583</v>
       </c>
       <c r="G29" s="20">
         <f>+G27/G30</f>
         <v>430.29077220759848</v>
       </c>
       <c r="H29" s="20">
-        <f t="shared" ref="H29:J29" si="1">+H27/H30</f>
+        <f t="shared" ref="H29:P29" si="8">+H27/H30</f>
         <v>331.20797458989006</v>
       </c>
       <c r="I29" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>343.99755526419278</v>
       </c>
-      <c r="J29" s="20" t="e">
-        <f t="shared" si="1"/>
+      <c r="J29" s="20">
+        <f t="shared" si="8"/>
+        <v>392.72575534442666</v>
+      </c>
+      <c r="K29" s="3"/>
+      <c r="L29" s="20" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
+      <c r="M29" s="20" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N29" s="20" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O29" s="20">
+        <f t="shared" si="8"/>
+        <v>1212.887178548674</v>
+      </c>
+      <c r="P29" s="20">
+        <f t="shared" si="8"/>
+        <v>1411.4371265796019</v>
+      </c>
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
@@ -2862,7 +3221,10 @@
       <c r="E30" s="3">
         <v>306.69977999999998</v>
       </c>
-      <c r="F30" s="3"/>
+      <c r="F30" s="3">
+        <f>+O30</f>
+        <v>306.70701000000003</v>
+      </c>
       <c r="G30" s="3">
         <v>306.68563799999998</v>
       </c>
@@ -2872,13 +3234,20 @@
       <c r="I30" s="3">
         <v>306.77834300000001</v>
       </c>
-      <c r="J30" s="3"/>
+      <c r="J30" s="3">
+        <f>+P30</f>
+        <v>306.78660200000002</v>
+      </c>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
+      <c r="O30" s="3">
+        <v>306.70701000000003</v>
+      </c>
+      <c r="P30" s="3">
+        <v>306.78660200000002</v>
+      </c>
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
@@ -2981,16 +3350,16 @@
         <v>9.0405647489959051E-2</v>
       </c>
       <c r="H32" s="21">
-        <f t="shared" ref="H32:I42" si="2">+H3/D3-1</f>
+        <f t="shared" ref="H32:I42" si="9">+H3/D3-1</f>
         <v>-0.26440596942571382</v>
       </c>
       <c r="I32" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.75231563552561598</v>
       </c>
-      <c r="J32" s="21" t="e">
-        <f t="shared" ref="J32:J42" si="3">+J3/F3-1</f>
-        <v>#DIV/0!</v>
+      <c r="J32" s="21">
+        <f t="shared" ref="J32:J42" si="10">+J3/F3-1</f>
+        <v>6.9010800780320736E-2</v>
       </c>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
@@ -3044,20 +3413,20 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="21">
-        <f t="shared" ref="G33:G42" si="4">+G4/C4-1</f>
+        <f t="shared" ref="G33:G42" si="11">+G4/C4-1</f>
         <v>-9.6314327379994902E-3</v>
       </c>
       <c r="H33" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>2.6742685737601857E-3</v>
       </c>
       <c r="I33" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>-6.6718917170510816E-2</v>
       </c>
-      <c r="J33" s="21" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="J33" s="21">
+        <f t="shared" si="10"/>
+        <v>-9.6077467430818797E-2</v>
       </c>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
@@ -3111,20 +3480,20 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0.17417900101315587</v>
       </c>
       <c r="H34" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>-0.37280351754279339</v>
       </c>
       <c r="I34" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1.3367360293155346</v>
       </c>
-      <c r="J34" s="21" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="J34" s="21">
+        <f t="shared" si="10"/>
+        <v>0.10453820075158671</v>
       </c>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
@@ -3178,20 +3547,20 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0.1732245433061359</v>
       </c>
       <c r="H35" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>-0.48954580950701565</v>
       </c>
       <c r="I35" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>3.0234735650204687</v>
       </c>
-      <c r="J35" s="21" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="J35" s="21">
+        <f t="shared" si="10"/>
+        <v>0.22330452359378272</v>
       </c>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
@@ -3245,20 +3614,20 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0.4221342330535649</v>
       </c>
       <c r="H36" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>-0.67306408816395624</v>
       </c>
       <c r="I36" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>11.303746450490062</v>
       </c>
-      <c r="J36" s="21" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="J36" s="21">
+        <f t="shared" si="10"/>
+        <v>0.30967433085056961</v>
       </c>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
@@ -3312,20 +3681,20 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>9.0405647489959051E-2</v>
       </c>
       <c r="H37" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>-0.26440596942571382</v>
       </c>
       <c r="I37" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.75231563552561598</v>
       </c>
-      <c r="J37" s="21" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="J37" s="21">
+        <f t="shared" si="10"/>
+        <v>6.9010800780320736E-2</v>
       </c>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
@@ -3379,20 +3748,20 @@
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0.13697379214081451</v>
       </c>
       <c r="H38" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>-0.33276307221775125</v>
       </c>
       <c r="I38" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1.0565566535339834</v>
       </c>
-      <c r="J38" s="21" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="J38" s="21">
+        <f t="shared" si="10"/>
+        <v>8.1554426899356436E-2</v>
       </c>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
@@ -3446,20 +3815,20 @@
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>3.1346749226006221E-2</v>
       </c>
       <c r="H39" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>-0.11571010924757652</v>
       </c>
       <c r="I39" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.19961548002976937</v>
       </c>
-      <c r="J39" s="21" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="J39" s="21">
+        <f t="shared" si="10"/>
+        <v>2.3604500811576612E-2</v>
       </c>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
@@ -3513,20 +3882,20 @@
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>-2.426125831425141E-2</v>
       </c>
       <c r="H40" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>8.0847370451330836E-2</v>
       </c>
       <c r="I40" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>-0.1340260606228989</v>
       </c>
-      <c r="J40" s="21" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="J40" s="21">
+        <f t="shared" si="10"/>
+        <v>-0.11685495834759785</v>
       </c>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
@@ -3580,20 +3949,20 @@
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>-0.12210526315789472</v>
       </c>
       <c r="H41" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.2890625</v>
       </c>
       <c r="I41" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>-0.25154639175257731</v>
       </c>
-      <c r="J41" s="21" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="J41" s="21">
+        <f t="shared" si="10"/>
+        <v>0.46990740740740744</v>
       </c>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
@@ -3647,20 +4016,20 @@
       <c r="E42" s="19"/>
       <c r="F42" s="19"/>
       <c r="G42" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0.10403991944087121</v>
       </c>
       <c r="H42" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.13555520030044432</v>
       </c>
       <c r="I42" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>7.6883187275081921E-2</v>
       </c>
-      <c r="J42" s="22" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="J42" s="22">
+        <f t="shared" si="10"/>
+        <v>6.3059531963083337E-2</v>
       </c>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
@@ -3710,20 +4079,20 @@
         <v>61</v>
       </c>
       <c r="C43" s="21">
-        <f t="shared" ref="C43:F43" si="5">+C15/C13</f>
+        <f t="shared" ref="C43:F43" si="12">+C15/C13</f>
         <v>0.54613342081538374</v>
       </c>
       <c r="D43" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.51057898970521443</v>
       </c>
       <c r="E43" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.56512035147791151</v>
       </c>
-      <c r="F43" s="21" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+      <c r="F43" s="21">
+        <f t="shared" si="12"/>
+        <v>0.53448839401357595</v>
       </c>
       <c r="G43" s="21">
         <f>+G15/G13</f>
@@ -3737,9 +4106,9 @@
         <f>+I15/I13</f>
         <v>0.54894072666997373</v>
       </c>
-      <c r="J43" s="21" t="e">
-        <f t="shared" ref="J43" si="6">+J15/J13</f>
-        <v>#DIV/0!</v>
+      <c r="J43" s="21">
+        <f t="shared" ref="J43" si="13">+J15/J13</f>
+        <v>0.53624569581963455</v>
       </c>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
@@ -3789,20 +4158,20 @@
         <v>62</v>
       </c>
       <c r="C44" s="21">
-        <f t="shared" ref="C44:F44" si="7">+C20/C13</f>
+        <f t="shared" ref="C44:F44" si="14">+C20/C13</f>
         <v>0.18091024908951658</v>
       </c>
       <c r="D44" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0.14006694021310231</v>
       </c>
       <c r="E44" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0.18856107215355791</v>
       </c>
-      <c r="F44" s="21" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+      <c r="F44" s="21">
+        <f t="shared" si="14"/>
+        <v>0.13440159493310369</v>
       </c>
       <c r="G44" s="21">
         <f>+G20/G13</f>
@@ -3816,9 +4185,9 @@
         <f>+I20/I13</f>
         <v>0.17753566200045975</v>
       </c>
-      <c r="J44" s="21" t="e">
-        <f t="shared" ref="J44" si="8">+J20/J13</f>
-        <v>#DIV/0!</v>
+      <c r="J44" s="21">
+        <f t="shared" ref="J44" si="15">+J20/J13</f>
+        <v>0.14456304994316377</v>
       </c>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
@@ -3868,20 +4237,20 @@
         <v>63</v>
       </c>
       <c r="C45" s="21">
-        <f t="shared" ref="C45:F45" si="9">+C24/C23</f>
+        <f t="shared" ref="C45:F45" si="16">+C24/C23</f>
         <v>0.29398115379170692</v>
       </c>
       <c r="D45" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0.30815354727509092</v>
       </c>
       <c r="E45" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0.31323511274064608</v>
       </c>
-      <c r="F45" s="21" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+      <c r="F45" s="21">
+        <f t="shared" si="16"/>
+        <v>0.22366019160802186</v>
       </c>
       <c r="G45" s="21">
         <f>+G24/G23</f>
@@ -3895,9 +4264,9 @@
         <f>+I24/I23</f>
         <v>0.29631330526852917</v>
       </c>
-      <c r="J45" s="21" t="e">
-        <f t="shared" ref="J45" si="10">+J24/J23</f>
-        <v>#DIV/0!</v>
+      <c r="J45" s="21">
+        <f t="shared" ref="J45" si="17">+J24/J23</f>
+        <v>3.6849672097117682E-2</v>
       </c>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>

--- a/9983.T.xlsx
+++ b/9983.T.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766B7E6D-7BC5-4328-BBFA-8F0EC178C1DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC86DA6-461B-4677-9A23-9B5C0CF81F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{C51DE7BF-0E76-4BFC-AC60-72AAABFBEE4E}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="78">
   <si>
     <t>Fast Retailing</t>
   </si>
@@ -260,6 +260,18 @@
   <si>
     <t>FY25</t>
   </si>
+  <si>
+    <t>Q126</t>
+  </si>
+  <si>
+    <t>Q226</t>
+  </si>
+  <si>
+    <t>Q326</t>
+  </si>
+  <si>
+    <t>Q426</t>
+  </si>
 </sst>
 </file>
 
@@ -268,13 +280,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -462,37 +480,40 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -834,7 +855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A20E60AF-353C-4D62-948D-7EB06D7260C7}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -863,7 +884,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="3">
-        <v>48290</v>
+        <v>62750</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -874,10 +895,10 @@
         <v>2</v>
       </c>
       <c r="J4" s="3">
-        <v>306.78660200000002</v>
-      </c>
-      <c r="K4" s="23" t="s">
-        <v>19</v>
+        <v>306.82456000000002</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -889,7 +910,7 @@
       </c>
       <c r="J5" s="3">
         <f>J4*J3</f>
-        <v>14814725.010580001</v>
+        <v>19253241.140000001</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -897,11 +918,11 @@
         <v>4</v>
       </c>
       <c r="J6" s="3">
-        <f>893239+899701</f>
-        <v>1792940</v>
-      </c>
-      <c r="K6" s="23" t="s">
-        <v>19</v>
+        <f>923697+1059881</f>
+        <v>1983578</v>
+      </c>
+      <c r="K6" s="24" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -919,11 +940,11 @@
         <v>5</v>
       </c>
       <c r="J7" s="3">
-        <f>104770+211147</f>
-        <v>315917</v>
-      </c>
-      <c r="K7" s="23" t="s">
-        <v>19</v>
+        <f>174468+140975</f>
+        <v>315443</v>
+      </c>
+      <c r="K7" s="24" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -938,7 +959,7 @@
       </c>
       <c r="J8" s="3">
         <f>J5+J7-J6</f>
-        <v>13337702.010580001</v>
+        <v>17585106.140000001</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -994,30 +1015,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F30EE377-B68B-4065-B032-EB2CBD2D9E42}">
-  <dimension ref="A1:AZ251"/>
+  <dimension ref="A1:BD251"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="F18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomRight" activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.5703125" style="2" customWidth="1"/>
-    <col min="3" max="14" width="9.140625" style="2"/>
-    <col min="15" max="16" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="2"/>
+    <col min="3" max="10" width="9.140625" style="2"/>
+    <col min="11" max="11" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="18" width="9.140625" style="2"/>
+    <col min="19" max="20" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:56" x14ac:dyDescent="0.2">
       <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
@@ -1042,23 +1065,35 @@
       <c r="J2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="K2" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="P2" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="M2" s="23" t="s">
+      <c r="Q2" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="N2" s="23" t="s">
+      <c r="R2" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="O2" s="23" t="s">
+      <c r="S2" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="P2" s="23" t="s">
+      <c r="T2" s="23" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>45</v>
       </c>
@@ -1073,7 +1108,7 @@
         <v>180512</v>
       </c>
       <c r="F3" s="3">
-        <f>+O3-SUM(C3:E3)</f>
+        <f>+S3-SUM(C3:E3)</f>
         <v>210170</v>
       </c>
       <c r="G3" s="3">
@@ -1087,23 +1122,25 @@
         <v>316314</v>
       </c>
       <c r="J3" s="3">
-        <f>+P3-SUM(G3:I3)</f>
+        <f>+T3-SUM(G3:I3)</f>
         <v>224674</v>
       </c>
-      <c r="K3" s="3"/>
+      <c r="K3" s="3">
+        <v>299069</v>
+      </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
-      <c r="O3" s="3">
-        <v>932227</v>
-      </c>
-      <c r="P3" s="3">
-        <v>1026096</v>
-      </c>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
+      <c r="S3" s="3">
+        <v>932227</v>
+      </c>
+      <c r="T3" s="3">
+        <v>1026096</v>
+      </c>
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
@@ -1127,8 +1164,12 @@
       <c r="AO3" s="3"/>
       <c r="AP3" s="3"/>
       <c r="AQ3" s="3"/>
-    </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="AR3" s="3"/>
+      <c r="AS3" s="3"/>
+      <c r="AT3" s="3"/>
+      <c r="AU3" s="3"/>
+    </row>
+    <row r="4" spans="1:56" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>46</v>
       </c>
@@ -1143,7 +1184,7 @@
         <v>160764</v>
       </c>
       <c r="F4" s="3">
-        <f t="shared" ref="F4:F26" si="0">+O4-SUM(C4:E4)</f>
+        <f t="shared" ref="F4:F26" si="0">+S4-SUM(C4:E4)</f>
         <v>154594</v>
       </c>
       <c r="G4" s="3">
@@ -1157,23 +1198,25 @@
         <v>150038</v>
       </c>
       <c r="J4" s="3">
-        <f t="shared" ref="J4:J24" si="1">+P4-SUM(G4:I4)</f>
+        <f t="shared" ref="J4:J22" si="1">+T4-SUM(G4:I4)</f>
         <v>139741</v>
       </c>
-      <c r="K4" s="3"/>
+      <c r="K4" s="3">
+        <v>191161</v>
+      </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
-      <c r="O4" s="3">
-        <v>677063</v>
-      </c>
-      <c r="P4" s="3">
-        <v>650232</v>
-      </c>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
+      <c r="S4" s="3">
+        <v>677063</v>
+      </c>
+      <c r="T4" s="3">
+        <v>650232</v>
+      </c>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
@@ -1197,8 +1240,12 @@
       <c r="AO4" s="3"/>
       <c r="AP4" s="3"/>
       <c r="AQ4" s="3"/>
-    </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="AR4" s="3"/>
+      <c r="AS4" s="3"/>
+      <c r="AT4" s="3"/>
+      <c r="AU4" s="3"/>
+    </row>
+    <row r="5" spans="1:56" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>47</v>
       </c>
@@ -1230,20 +1277,22 @@
         <f t="shared" si="1"/>
         <v>150194</v>
       </c>
-      <c r="K5" s="3"/>
+      <c r="K5" s="3">
+        <v>187051</v>
+      </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
-      <c r="O5" s="3">
-        <v>540526</v>
-      </c>
-      <c r="P5" s="3">
-        <v>619417</v>
-      </c>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
+      <c r="S5" s="3">
+        <v>540526</v>
+      </c>
+      <c r="T5" s="3">
+        <v>619417</v>
+      </c>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
@@ -1267,8 +1316,12 @@
       <c r="AO5" s="3"/>
       <c r="AP5" s="3"/>
       <c r="AQ5" s="3"/>
-    </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="AR5" s="3"/>
+      <c r="AS5" s="3"/>
+      <c r="AT5" s="3"/>
+      <c r="AU5" s="3"/>
+    </row>
+    <row r="6" spans="1:56" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>48</v>
       </c>
@@ -1300,20 +1353,22 @@
         <f t="shared" si="1"/>
         <v>70203</v>
       </c>
-      <c r="K6" s="3"/>
+      <c r="K6" s="3">
+        <v>88695</v>
+      </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
-      <c r="O6" s="3">
-        <v>217715</v>
-      </c>
-      <c r="P6" s="3">
-        <v>271130</v>
-      </c>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
+      <c r="S6" s="3">
+        <v>217715</v>
+      </c>
+      <c r="T6" s="3">
+        <v>271130</v>
+      </c>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
@@ -1337,8 +1392,12 @@
       <c r="AO6" s="3"/>
       <c r="AP6" s="3"/>
       <c r="AQ6" s="3"/>
-    </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="AR6" s="3"/>
+      <c r="AS6" s="3"/>
+      <c r="AT6" s="3"/>
+      <c r="AU6" s="3"/>
+    </row>
+    <row r="7" spans="1:56" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>49</v>
       </c>
@@ -1370,20 +1429,22 @@
         <f t="shared" si="1"/>
         <v>93017</v>
       </c>
-      <c r="K7" s="3"/>
+      <c r="K7" s="3">
+        <v>136954</v>
+      </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
-      <c r="O7" s="3">
-        <v>276528</v>
-      </c>
-      <c r="P7" s="3">
-        <v>369509</v>
-      </c>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
+      <c r="S7" s="3">
+        <v>276528</v>
+      </c>
+      <c r="T7" s="3">
+        <v>369509</v>
+      </c>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
@@ -1407,8 +1468,12 @@
       <c r="AO7" s="3"/>
       <c r="AP7" s="3"/>
       <c r="AQ7" s="3"/>
-    </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="AR7" s="3"/>
+      <c r="AS7" s="3"/>
+      <c r="AT7" s="3"/>
+      <c r="AU7" s="3"/>
+    </row>
+    <row r="8" spans="1:56" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>39</v>
       </c>
@@ -1440,20 +1505,22 @@
         <f t="shared" si="1"/>
         <v>224674</v>
       </c>
-      <c r="K8" s="3"/>
+      <c r="K8" s="3">
+        <v>299069</v>
+      </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
-      <c r="O8" s="3">
-        <v>932227</v>
-      </c>
-      <c r="P8" s="3">
-        <v>1026096</v>
-      </c>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
+      <c r="S8" s="3">
+        <v>932227</v>
+      </c>
+      <c r="T8" s="3">
+        <v>1026096</v>
+      </c>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
@@ -1486,8 +1553,12 @@
       <c r="AX8" s="3"/>
       <c r="AY8" s="3"/>
       <c r="AZ8" s="3"/>
-    </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA8" s="3"/>
+      <c r="BB8" s="3"/>
+      <c r="BC8" s="3"/>
+      <c r="BD8" s="3"/>
+    </row>
+    <row r="9" spans="1:56" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>38</v>
       </c>
@@ -1519,20 +1590,22 @@
         <f t="shared" si="1"/>
         <v>453154</v>
       </c>
-      <c r="K9" s="3"/>
+      <c r="K9" s="3">
+        <v>603863</v>
+      </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
-      <c r="O9" s="3">
-        <v>1711833</v>
-      </c>
-      <c r="P9" s="3">
-        <v>1910289</v>
-      </c>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
+      <c r="S9" s="3">
+        <v>1711833</v>
+      </c>
+      <c r="T9" s="3">
+        <v>1910289</v>
+      </c>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
@@ -1565,8 +1638,12 @@
       <c r="AX9" s="3"/>
       <c r="AY9" s="3"/>
       <c r="AZ9" s="3"/>
-    </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA9" s="3"/>
+      <c r="BB9" s="3"/>
+      <c r="BC9" s="3"/>
+      <c r="BD9" s="3"/>
+    </row>
+    <row r="10" spans="1:56" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>40</v>
       </c>
@@ -1598,20 +1675,22 @@
         <f t="shared" si="1"/>
         <v>74414</v>
       </c>
-      <c r="K10" s="3"/>
+      <c r="K10" s="3">
+        <v>91366</v>
+      </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
-      <c r="O10" s="3">
-        <v>319162</v>
-      </c>
-      <c r="P10" s="3">
-        <v>330701</v>
-      </c>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
+      <c r="S10" s="3">
+        <v>319162</v>
+      </c>
+      <c r="T10" s="3">
+        <v>330701</v>
+      </c>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
@@ -1644,8 +1723,12 @@
       <c r="AX10" s="3"/>
       <c r="AY10" s="3"/>
       <c r="AZ10" s="3"/>
-    </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA10" s="3"/>
+      <c r="BB10" s="3"/>
+      <c r="BC10" s="3"/>
+      <c r="BD10" s="3"/>
+    </row>
+    <row r="11" spans="1:56" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>41</v>
       </c>
@@ -1677,20 +1760,22 @@
         <f t="shared" si="1"/>
         <v>30956</v>
       </c>
-      <c r="K11" s="3"/>
+      <c r="K11" s="3">
+        <v>33077</v>
+      </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-      <c r="O11" s="3">
-        <v>138837</v>
-      </c>
-      <c r="P11" s="3">
-        <v>131542</v>
-      </c>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
+      <c r="S11" s="3">
+        <v>138837</v>
+      </c>
+      <c r="T11" s="3">
+        <v>131542</v>
+      </c>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
@@ -1723,8 +1808,12 @@
       <c r="AX11" s="3"/>
       <c r="AY11" s="3"/>
       <c r="AZ11" s="3"/>
-    </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA11" s="3"/>
+      <c r="BB11" s="3"/>
+      <c r="BC11" s="3"/>
+      <c r="BD11" s="3"/>
+    </row>
+    <row r="12" spans="1:56" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>43</v>
       </c>
@@ -1756,20 +1845,22 @@
         <f t="shared" si="1"/>
         <v>635</v>
       </c>
-      <c r="K12" s="3"/>
+      <c r="K12" s="3">
+        <v>368</v>
+      </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
-      <c r="O12" s="3">
-        <v>1776</v>
-      </c>
-      <c r="P12" s="3">
-        <v>1910</v>
-      </c>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
+      <c r="S12" s="3">
+        <v>1776</v>
+      </c>
+      <c r="T12" s="3">
+        <v>1910</v>
+      </c>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
@@ -1802,8 +1893,12 @@
       <c r="AX12" s="3"/>
       <c r="AY12" s="3"/>
       <c r="AZ12" s="3"/>
-    </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA12" s="3"/>
+      <c r="BB12" s="3"/>
+      <c r="BC12" s="3"/>
+      <c r="BD12" s="3"/>
+    </row>
+    <row r="13" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A13" s="18"/>
       <c r="B13" s="1" t="s">
         <v>16</v>
@@ -1836,20 +1931,22 @@
         <f t="shared" si="1"/>
         <v>783831</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="19">
-        <v>3103836</v>
-      </c>
-      <c r="P13" s="19">
-        <v>3400539</v>
-      </c>
+      <c r="K13" s="19">
+        <v>1027745</v>
+      </c>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
+      <c r="S13" s="19">
+        <v>3103836</v>
+      </c>
+      <c r="T13" s="19">
+        <v>3400539</v>
+      </c>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
@@ -1882,8 +1979,12 @@
       <c r="AX13" s="3"/>
       <c r="AY13" s="3"/>
       <c r="AZ13" s="3"/>
-    </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA13" s="3"/>
+      <c r="BB13" s="3"/>
+      <c r="BC13" s="3"/>
+      <c r="BD13" s="3"/>
+    </row>
+    <row r="14" spans="1:56" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>20</v>
       </c>
@@ -1915,20 +2016,22 @@
         <f t="shared" si="1"/>
         <v>363505</v>
       </c>
-      <c r="K14" s="3"/>
+      <c r="K14" s="3">
+        <v>460042</v>
+      </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
-      <c r="O14" s="3">
-        <v>1430764</v>
-      </c>
-      <c r="P14" s="3">
-        <v>1571681</v>
-      </c>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
+      <c r="S14" s="3">
+        <v>1430764</v>
+      </c>
+      <c r="T14" s="3">
+        <v>1571681</v>
+      </c>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
@@ -1961,68 +2064,75 @@
       <c r="AX14" s="3"/>
       <c r="AY14" s="3"/>
       <c r="AZ14" s="3"/>
-    </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA14" s="3"/>
+      <c r="BB14" s="3"/>
+      <c r="BC14" s="3"/>
+      <c r="BD14" s="3"/>
+    </row>
+    <row r="15" spans="1:56" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="3">
-        <f>+C13-C14</f>
+        <f t="shared" ref="C15:K15" si="2">+C13-C14</f>
         <v>442823</v>
       </c>
       <c r="D15" s="3">
-        <f>+D13-D14</f>
+        <f t="shared" si="2"/>
         <v>402421</v>
       </c>
       <c r="E15" s="3">
-        <f>+E13-E14</f>
+        <f t="shared" si="2"/>
         <v>433731</v>
       </c>
       <c r="F15" s="3">
-        <f>+F13-F14</f>
+        <f t="shared" si="2"/>
         <v>394097</v>
       </c>
       <c r="G15" s="3">
-        <f>+G13-G14</f>
+        <f t="shared" si="2"/>
         <v>487572</v>
       </c>
       <c r="H15" s="3">
-        <f>+H13-H14</f>
+        <f t="shared" si="2"/>
         <v>467255</v>
       </c>
       <c r="I15" s="3">
-        <f>+I13-I14</f>
+        <f t="shared" si="2"/>
         <v>453705</v>
       </c>
       <c r="J15" s="3">
-        <f>+J13-J14</f>
+        <f t="shared" si="2"/>
         <v>420326</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3">
-        <f t="shared" ref="L15:O15" si="2">+L13-L14</f>
+      <c r="K15" s="3">
+        <f t="shared" si="2"/>
+        <v>567703</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3">
+        <f t="shared" ref="P15:S15" si="3">+P13-P14</f>
         <v>0</v>
       </c>
-      <c r="M15" s="3">
-        <f t="shared" si="2"/>
+      <c r="Q15" s="3">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N15" s="3">
-        <f t="shared" si="2"/>
+      <c r="R15" s="3">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O15" s="3">
-        <f t="shared" si="2"/>
+      <c r="S15" s="3">
+        <f t="shared" si="3"/>
         <v>1673072</v>
       </c>
-      <c r="P15" s="3">
-        <f>+P13-P14</f>
+      <c r="T15" s="3">
+        <f>+T13-T14</f>
         <v>1828858</v>
       </c>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
@@ -2055,8 +2165,12 @@
       <c r="AX15" s="3"/>
       <c r="AY15" s="3"/>
       <c r="AZ15" s="3"/>
-    </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA15" s="3"/>
+      <c r="BB15" s="3"/>
+      <c r="BC15" s="3"/>
+      <c r="BD15" s="3"/>
+    </row>
+    <row r="16" spans="1:56" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>22</v>
       </c>
@@ -2088,20 +2202,22 @@
         <f t="shared" si="1"/>
         <v>312715</v>
       </c>
-      <c r="K16" s="3"/>
+      <c r="K16" s="3">
+        <v>362055</v>
+      </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-      <c r="O16" s="3">
-        <v>1187713</v>
-      </c>
-      <c r="P16" s="3">
-        <v>1277701</v>
-      </c>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
+      <c r="S16" s="3">
+        <v>1187713</v>
+      </c>
+      <c r="T16" s="3">
+        <v>1277701</v>
+      </c>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
@@ -2134,8 +2250,12 @@
       <c r="AX16" s="3"/>
       <c r="AY16" s="3"/>
       <c r="AZ16" s="3"/>
-    </row>
-    <row r="17" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="BA16" s="3"/>
+      <c r="BB16" s="3"/>
+      <c r="BC16" s="3"/>
+      <c r="BD16" s="3"/>
+    </row>
+    <row r="17" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>23</v>
       </c>
@@ -2167,20 +2287,22 @@
         <f t="shared" si="1"/>
         <v>10452</v>
       </c>
-      <c r="K17" s="3"/>
+      <c r="K17" s="3">
+        <v>5360</v>
+      </c>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
-      <c r="O17" s="3">
-        <v>20384</v>
-      </c>
-      <c r="P17" s="3">
-        <v>19491</v>
-      </c>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
+      <c r="S17" s="3">
+        <v>20384</v>
+      </c>
+      <c r="T17" s="3">
+        <v>19491</v>
+      </c>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
@@ -2213,8 +2335,12 @@
       <c r="AX17" s="3"/>
       <c r="AY17" s="3"/>
       <c r="AZ17" s="3"/>
-    </row>
-    <row r="18" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="BA17" s="3"/>
+      <c r="BB17" s="3"/>
+      <c r="BC17" s="3"/>
+      <c r="BD17" s="3"/>
+    </row>
+    <row r="18" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>24</v>
       </c>
@@ -2246,20 +2372,22 @@
         <f t="shared" si="1"/>
         <v>4226</v>
       </c>
-      <c r="K18" s="3"/>
+      <c r="K18" s="3">
+        <v>1030</v>
+      </c>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
-      <c r="O18" s="3">
-        <v>6256</v>
-      </c>
-      <c r="P18" s="3">
-        <v>8087</v>
-      </c>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
+      <c r="S18" s="3">
+        <v>6256</v>
+      </c>
+      <c r="T18" s="3">
+        <v>8087</v>
+      </c>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
@@ -2292,8 +2420,12 @@
       <c r="AX18" s="3"/>
       <c r="AY18" s="3"/>
       <c r="AZ18" s="3"/>
-    </row>
-    <row r="19" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="BA18" s="3"/>
+      <c r="BB18" s="3"/>
+      <c r="BC18" s="3"/>
+      <c r="BD18" s="3"/>
+    </row>
+    <row r="19" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>25</v>
       </c>
@@ -2325,20 +2457,22 @@
         <f t="shared" si="1"/>
         <v>-524</v>
       </c>
-      <c r="K19" s="3"/>
+      <c r="K19" s="3">
+        <v>937</v>
+      </c>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-      <c r="O19" s="3">
-        <v>1417</v>
-      </c>
-      <c r="P19" s="3">
-        <v>1704</v>
-      </c>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
+      <c r="S19" s="3">
+        <v>1417</v>
+      </c>
+      <c r="T19" s="3">
+        <v>1704</v>
+      </c>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
@@ -2371,68 +2505,75 @@
       <c r="AX19" s="3"/>
       <c r="AY19" s="3"/>
       <c r="AZ19" s="3"/>
-    </row>
-    <row r="20" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="BA19" s="3"/>
+      <c r="BB19" s="3"/>
+      <c r="BC19" s="3"/>
+      <c r="BD19" s="3"/>
+    </row>
+    <row r="20" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C20" s="3">
-        <f>+C15-C16+C17-C18+C19</f>
+        <f t="shared" ref="C20:K20" si="4">+C15-C16+C17-C18+C19</f>
         <v>146688</v>
       </c>
       <c r="D20" s="3">
-        <f>+D15-D16+D17-D18+D19</f>
+        <f t="shared" si="4"/>
         <v>110396</v>
       </c>
       <c r="E20" s="3">
-        <f>+E15-E16+E17-E18+E19</f>
+        <f t="shared" si="4"/>
         <v>144721</v>
       </c>
       <c r="F20" s="3">
-        <f>+F15-F16+F17-F18+F19</f>
+        <f t="shared" si="4"/>
         <v>99099</v>
       </c>
       <c r="G20" s="3">
-        <f>+G15-G16+G17-G18+G19</f>
+        <f t="shared" si="4"/>
         <v>157556</v>
       </c>
       <c r="H20" s="3">
-        <f>+H15-H16+H17-H18+H19</f>
+        <f t="shared" si="4"/>
         <v>146661</v>
       </c>
       <c r="I20" s="3">
-        <f>+I15-I16+I17-I18+I19</f>
+        <f t="shared" si="4"/>
         <v>146735</v>
       </c>
       <c r="J20" s="3">
-        <f>+J15-J16+J17-J18+J19</f>
+        <f t="shared" si="4"/>
         <v>113313</v>
       </c>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3">
-        <f t="shared" ref="L20:P20" si="3">+L15-L16+L17-L18+L19</f>
+      <c r="K20" s="3">
+        <f t="shared" si="4"/>
+        <v>210915</v>
+      </c>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3">
+        <f t="shared" ref="P20:T20" si="5">+P15-P16+P17-P18+P19</f>
         <v>0</v>
       </c>
-      <c r="M20" s="3">
-        <f t="shared" si="3"/>
+      <c r="Q20" s="3">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N20" s="3">
-        <f t="shared" si="3"/>
+      <c r="R20" s="3">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O20" s="3">
-        <f t="shared" si="3"/>
+      <c r="S20" s="3">
+        <f t="shared" si="5"/>
         <v>500904</v>
       </c>
-      <c r="P20" s="3">
-        <f t="shared" si="3"/>
+      <c r="T20" s="3">
+        <f t="shared" si="5"/>
         <v>564265</v>
       </c>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
@@ -2465,8 +2606,12 @@
       <c r="AX20" s="3"/>
       <c r="AY20" s="3"/>
       <c r="AZ20" s="3"/>
-    </row>
-    <row r="21" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="BA20" s="3"/>
+      <c r="BB20" s="3"/>
+      <c r="BC20" s="3"/>
+      <c r="BD20" s="3"/>
+    </row>
+    <row r="21" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>27</v>
       </c>
@@ -2498,20 +2643,22 @@
         <f t="shared" si="1"/>
         <v>20123</v>
       </c>
-      <c r="K21" s="3"/>
+      <c r="K21" s="3">
+        <v>19387</v>
+      </c>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
-      <c r="O21" s="3">
-        <v>67399</v>
-      </c>
-      <c r="P21" s="3">
-        <v>99143</v>
-      </c>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
+      <c r="S21" s="3">
+        <v>67399</v>
+      </c>
+      <c r="T21" s="3">
+        <v>99143</v>
+      </c>
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
@@ -2544,8 +2691,12 @@
       <c r="AX21" s="3"/>
       <c r="AY21" s="3"/>
       <c r="AZ21" s="3"/>
-    </row>
-    <row r="22" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="BA21" s="3"/>
+      <c r="BB21" s="3"/>
+      <c r="BC21" s="3"/>
+      <c r="BD21" s="3"/>
+    </row>
+    <row r="22" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>28</v>
       </c>
@@ -2577,20 +2728,22 @@
         <f t="shared" si="1"/>
         <v>3367</v>
       </c>
-      <c r="K22" s="3"/>
+      <c r="K22" s="3">
+        <v>3634</v>
+      </c>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
-      <c r="O22" s="3">
-        <v>11101</v>
-      </c>
-      <c r="P22" s="3">
-        <v>12834</v>
-      </c>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
+      <c r="S22" s="3">
+        <v>11101</v>
+      </c>
+      <c r="T22" s="3">
+        <v>12834</v>
+      </c>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
@@ -2623,68 +2776,75 @@
       <c r="AX22" s="3"/>
       <c r="AY22" s="3"/>
       <c r="AZ22" s="3"/>
-    </row>
-    <row r="23" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="BA22" s="3"/>
+      <c r="BB22" s="3"/>
+      <c r="BC22" s="3"/>
+      <c r="BD22" s="3"/>
+    </row>
+    <row r="23" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C23" s="3">
-        <f>+C20+C21-C22</f>
+        <f t="shared" ref="C23:K23" si="6">+C20+C21-C22</f>
         <v>162473</v>
       </c>
       <c r="D23" s="3">
-        <f>+D20+D21-D22</f>
+        <f t="shared" si="6"/>
         <v>136922</v>
       </c>
       <c r="E23" s="3">
-        <f>+E20+E21-E22</f>
+        <f t="shared" si="6"/>
         <v>178374</v>
       </c>
       <c r="F23" s="3">
-        <f>+F20+F21-F22</f>
+        <f t="shared" si="6"/>
         <v>79433</v>
       </c>
       <c r="G23" s="3">
-        <f>+G20+G21-G22</f>
+        <f t="shared" si="6"/>
         <v>196613</v>
       </c>
       <c r="H23" s="3">
-        <f>+H20+H21-H22</f>
+        <f t="shared" si="6"/>
         <v>167112</v>
       </c>
       <c r="I23" s="3">
-        <f>+I20+I21-I22</f>
+        <f t="shared" si="6"/>
         <v>156780</v>
       </c>
       <c r="J23" s="3">
-        <f>+J20+J21-J22</f>
+        <f t="shared" si="6"/>
         <v>130069</v>
       </c>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3">
-        <f t="shared" ref="L23:P23" si="4">+L20+L21-L22</f>
+      <c r="K23" s="3">
+        <f t="shared" si="6"/>
+        <v>226668</v>
+      </c>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3">
+        <f t="shared" ref="P23:T23" si="7">+P20+P21-P22</f>
         <v>0</v>
       </c>
-      <c r="M23" s="3">
-        <f t="shared" si="4"/>
+      <c r="Q23" s="3">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N23" s="3">
-        <f t="shared" si="4"/>
+      <c r="R23" s="3">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O23" s="3">
-        <f t="shared" si="4"/>
+      <c r="S23" s="3">
+        <f t="shared" si="7"/>
         <v>557202</v>
       </c>
-      <c r="P23" s="3">
-        <f t="shared" si="4"/>
+      <c r="T23" s="3">
+        <f t="shared" si="7"/>
         <v>650574</v>
       </c>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
@@ -2717,8 +2877,12 @@
       <c r="AX23" s="3"/>
       <c r="AY23" s="3"/>
       <c r="AZ23" s="3"/>
-    </row>
-    <row r="24" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="BA23" s="3"/>
+      <c r="BB23" s="3"/>
+      <c r="BC23" s="3"/>
+      <c r="BD23" s="3"/>
+    </row>
+    <row r="24" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>30</v>
       </c>
@@ -2749,20 +2913,22 @@
       <c r="J24" s="3">
         <v>4793</v>
       </c>
-      <c r="K24" s="3"/>
+      <c r="K24" s="3">
+        <v>68153</v>
+      </c>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
-      <c r="O24" s="3">
-        <v>163596</v>
-      </c>
-      <c r="P24" s="3">
-        <v>191421</v>
-      </c>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
+      <c r="S24" s="3">
+        <v>163596</v>
+      </c>
+      <c r="T24" s="3">
+        <v>191421</v>
+      </c>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
@@ -2795,68 +2961,75 @@
       <c r="AX24" s="3"/>
       <c r="AY24" s="3"/>
       <c r="AZ24" s="3"/>
-    </row>
-    <row r="25" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="BA24" s="3"/>
+      <c r="BB24" s="3"/>
+      <c r="BC24" s="3"/>
+      <c r="BD24" s="3"/>
+    </row>
+    <row r="25" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C25" s="3">
-        <f>+C23-C24</f>
+        <f t="shared" ref="C25:K25" si="8">+C23-C24</f>
         <v>114709</v>
       </c>
       <c r="D25" s="3">
-        <f>+D23-D24</f>
+        <f t="shared" si="8"/>
         <v>94729</v>
       </c>
       <c r="E25" s="3">
-        <f>+E23-E24</f>
+        <f t="shared" si="8"/>
         <v>122501</v>
       </c>
       <c r="F25" s="3">
-        <f>+F23-F24</f>
+        <f t="shared" si="8"/>
         <v>61667</v>
       </c>
       <c r="G25" s="3">
-        <f>+G23-G24</f>
+        <f t="shared" si="8"/>
         <v>140301</v>
       </c>
       <c r="H25" s="3">
-        <f>+H23-H24</f>
+        <f t="shared" si="8"/>
         <v>108982</v>
       </c>
       <c r="I25" s="3">
-        <f>+I23-I24</f>
+        <f t="shared" si="8"/>
         <v>110324</v>
       </c>
       <c r="J25" s="3">
-        <f>+J23-J24</f>
+        <f t="shared" si="8"/>
         <v>125276</v>
       </c>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3">
-        <f t="shared" ref="L25:P25" si="5">+L23-L24</f>
+      <c r="K25" s="3">
+        <f t="shared" si="8"/>
+        <v>158515</v>
+      </c>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3">
+        <f t="shared" ref="P25:T25" si="9">+P23-P24</f>
         <v>0</v>
       </c>
-      <c r="M25" s="3">
-        <f t="shared" si="5"/>
+      <c r="Q25" s="3">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="N25" s="3">
-        <f t="shared" si="5"/>
+      <c r="R25" s="3">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O25" s="3">
-        <f t="shared" si="5"/>
+      <c r="S25" s="3">
+        <f t="shared" si="9"/>
         <v>393606</v>
       </c>
-      <c r="P25" s="3">
-        <f t="shared" si="5"/>
+      <c r="T25" s="3">
+        <f t="shared" si="9"/>
         <v>459153</v>
       </c>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
@@ -2889,8 +3062,12 @@
       <c r="AX25" s="3"/>
       <c r="AY25" s="3"/>
       <c r="AZ25" s="3"/>
-    </row>
-    <row r="26" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="BA25" s="3"/>
+      <c r="BB25" s="3"/>
+      <c r="BC25" s="3"/>
+      <c r="BD25" s="3"/>
+    </row>
+    <row r="26" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>32</v>
       </c>
@@ -2921,20 +3098,22 @@
       <c r="J26" s="3">
         <v>4793</v>
       </c>
-      <c r="K26" s="3"/>
+      <c r="K26" s="3">
+        <v>11067</v>
+      </c>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
-      <c r="O26" s="3">
-        <v>21605</v>
-      </c>
-      <c r="P26" s="3">
-        <v>26143</v>
-      </c>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
+      <c r="S26" s="3">
+        <v>21605</v>
+      </c>
+      <c r="T26" s="3">
+        <v>26143</v>
+      </c>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
@@ -2967,68 +3146,75 @@
       <c r="AX26" s="3"/>
       <c r="AY26" s="3"/>
       <c r="AZ26" s="3"/>
-    </row>
-    <row r="27" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="BA26" s="3"/>
+      <c r="BB26" s="3"/>
+      <c r="BC26" s="3"/>
+      <c r="BD26" s="3"/>
+    </row>
+    <row r="27" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C27" s="3">
-        <f>+C25-C26</f>
+        <f t="shared" ref="C27:K27" si="10">+C25-C26</f>
         <v>107804</v>
       </c>
       <c r="D27" s="3">
-        <f>+D25-D26</f>
+        <f t="shared" si="10"/>
         <v>88108</v>
       </c>
       <c r="E27" s="3">
-        <f>+E25-E26</f>
+        <f t="shared" si="10"/>
         <v>116929</v>
       </c>
       <c r="F27" s="3">
-        <f>+F25-F26</f>
+        <f t="shared" si="10"/>
         <v>59160</v>
       </c>
       <c r="G27" s="3">
-        <f>+G25-G26</f>
+        <f t="shared" si="10"/>
         <v>131964</v>
       </c>
       <c r="H27" s="3">
-        <f>+H25-H26</f>
+        <f t="shared" si="10"/>
         <v>101604</v>
       </c>
       <c r="I27" s="3">
-        <f>+I25-I26</f>
+        <f t="shared" si="10"/>
         <v>105531</v>
       </c>
       <c r="J27" s="3">
-        <f>+J25-J26</f>
+        <f t="shared" si="10"/>
         <v>120483</v>
       </c>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3">
-        <f t="shared" ref="L27:O27" si="6">+L25-L26</f>
+      <c r="K27" s="3">
+        <f t="shared" si="10"/>
+        <v>147448</v>
+      </c>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3">
+        <f t="shared" ref="P27:S27" si="11">+P25-P26</f>
         <v>0</v>
       </c>
-      <c r="M27" s="3">
-        <f t="shared" si="6"/>
+      <c r="Q27" s="3">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N27" s="3">
-        <f t="shared" si="6"/>
+      <c r="R27" s="3">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O27" s="3">
-        <f t="shared" si="6"/>
+      <c r="S27" s="3">
+        <f t="shared" si="11"/>
         <v>372001</v>
       </c>
-      <c r="P27" s="3">
-        <f>+P25-P26</f>
+      <c r="T27" s="3">
+        <f>+T25-T26</f>
         <v>433010</v>
       </c>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
@@ -3061,8 +3247,12 @@
       <c r="AX27" s="3"/>
       <c r="AY27" s="3"/>
       <c r="AZ27" s="3"/>
-    </row>
-    <row r="28" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="BA27" s="3"/>
+      <c r="BB27" s="3"/>
+      <c r="BC27" s="3"/>
+      <c r="BD27" s="3"/>
+    </row>
+    <row r="28" spans="2:56" x14ac:dyDescent="0.2">
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -3113,25 +3303,29 @@
       <c r="AX28" s="3"/>
       <c r="AY28" s="3"/>
       <c r="AZ28" s="3"/>
-    </row>
-    <row r="29" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="BA28" s="3"/>
+      <c r="BB28" s="3"/>
+      <c r="BC28" s="3"/>
+      <c r="BD28" s="3"/>
+    </row>
+    <row r="29" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C29" s="20">
-        <f t="shared" ref="C29:F29" si="7">+C27/C30</f>
+        <f t="shared" ref="C29:F29" si="12">+C27/C30</f>
         <v>351.43451337610696</v>
       </c>
       <c r="D29" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>287.2848519462608</v>
       </c>
       <c r="E29" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>381.24905078184275</v>
       </c>
       <c r="F29" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>192.8876682668583</v>
       </c>
       <c r="G29" s="20">
@@ -3139,42 +3333,45 @@
         <v>430.29077220759848</v>
       </c>
       <c r="H29" s="20">
-        <f t="shared" ref="H29:P29" si="8">+H27/H30</f>
+        <f t="shared" ref="H29:T29" si="13">+H27/H30</f>
         <v>331.20797458989006</v>
       </c>
       <c r="I29" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>343.99755526419278</v>
       </c>
       <c r="J29" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>392.72575534442666</v>
       </c>
-      <c r="K29" s="3"/>
-      <c r="L29" s="20" t="e">
-        <f t="shared" si="8"/>
+      <c r="K29" s="20">
+        <f t="shared" si="13"/>
+        <v>480.56126928039919</v>
+      </c>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="20" t="e">
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M29" s="20" t="e">
-        <f t="shared" si="8"/>
+      <c r="Q29" s="20" t="e">
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N29" s="20" t="e">
-        <f t="shared" si="8"/>
+      <c r="R29" s="20" t="e">
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O29" s="20">
-        <f t="shared" si="8"/>
+      <c r="S29" s="20">
+        <f t="shared" si="13"/>
         <v>1212.887178548674</v>
       </c>
-      <c r="P29" s="20">
-        <f t="shared" si="8"/>
+      <c r="T29" s="20">
+        <f t="shared" si="13"/>
         <v>1411.4371265796019</v>
       </c>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
@@ -3207,8 +3404,12 @@
       <c r="AX29" s="3"/>
       <c r="AY29" s="3"/>
       <c r="AZ29" s="3"/>
-    </row>
-    <row r="30" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="BA29" s="3"/>
+      <c r="BB29" s="3"/>
+      <c r="BC29" s="3"/>
+      <c r="BD29" s="3"/>
+    </row>
+    <row r="30" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>2</v>
       </c>
@@ -3222,7 +3423,7 @@
         <v>306.69977999999998</v>
       </c>
       <c r="F30" s="3">
-        <f>+O30</f>
+        <f>+S30</f>
         <v>306.70701000000003</v>
       </c>
       <c r="G30" s="3">
@@ -3235,23 +3436,25 @@
         <v>306.77834300000001</v>
       </c>
       <c r="J30" s="3">
-        <f>+P30</f>
+        <f>+T30</f>
         <v>306.78660200000002</v>
       </c>
-      <c r="K30" s="3"/>
+      <c r="K30" s="3">
+        <v>306.82456000000002</v>
+      </c>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
-      <c r="O30" s="3">
-        <v>306.70701000000003</v>
-      </c>
-      <c r="P30" s="3">
-        <v>306.78660200000002</v>
-      </c>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
+      <c r="S30" s="3">
+        <v>306.70701000000003</v>
+      </c>
+      <c r="T30" s="3">
+        <v>306.78660200000002</v>
+      </c>
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
@@ -3284,8 +3487,12 @@
       <c r="AX30" s="3"/>
       <c r="AY30" s="3"/>
       <c r="AZ30" s="3"/>
-    </row>
-    <row r="31" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="BA30" s="3"/>
+      <c r="BB30" s="3"/>
+      <c r="BC30" s="3"/>
+      <c r="BD30" s="3"/>
+    </row>
+    <row r="31" spans="2:56" x14ac:dyDescent="0.2">
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -3336,8 +3543,12 @@
       <c r="AX31" s="3"/>
       <c r="AY31" s="3"/>
       <c r="AZ31" s="3"/>
-    </row>
-    <row r="32" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="BA31" s="3"/>
+      <c r="BB31" s="3"/>
+      <c r="BC31" s="3"/>
+      <c r="BD31" s="3"/>
+    </row>
+    <row r="32" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>50</v>
       </c>
@@ -3350,21 +3561,24 @@
         <v>9.0405647489959051E-2</v>
       </c>
       <c r="H32" s="21">
-        <f t="shared" ref="H32:I42" si="9">+H3/D3-1</f>
+        <f t="shared" ref="H32:I42" si="14">+H3/D3-1</f>
         <v>-0.26440596942571382</v>
       </c>
       <c r="I32" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.75231563552561598</v>
       </c>
       <c r="J32" s="21">
-        <f t="shared" ref="J32:J42" si="10">+J3/F3-1</f>
+        <f t="shared" ref="J32:K42" si="15">+J3/F3-1</f>
         <v>6.9010800780320736E-2</v>
       </c>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
+      <c r="K32" s="21">
+        <f t="shared" si="15"/>
+        <v>0.12178078183959617</v>
+      </c>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
@@ -3403,8 +3617,12 @@
       <c r="AX32" s="3"/>
       <c r="AY32" s="3"/>
       <c r="AZ32" s="3"/>
-    </row>
-    <row r="33" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="BA32" s="3"/>
+      <c r="BB32" s="3"/>
+      <c r="BC32" s="3"/>
+      <c r="BD32" s="3"/>
+    </row>
+    <row r="33" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
         <v>51</v>
       </c>
@@ -3413,25 +3631,28 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="21">
-        <f t="shared" ref="G33:G42" si="11">+G4/C4-1</f>
+        <f t="shared" ref="G33:G42" si="16">+G4/C4-1</f>
         <v>-9.6314327379994902E-3</v>
       </c>
       <c r="H33" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2.6742685737601857E-3</v>
       </c>
       <c r="I33" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>-6.6718917170510816E-2</v>
       </c>
       <c r="J33" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>-9.6077467430818797E-2</v>
       </c>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
+      <c r="K33" s="21">
+        <f t="shared" si="15"/>
+        <v>7.0270421588936705E-2</v>
+      </c>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
@@ -3470,8 +3691,12 @@
       <c r="AX33" s="3"/>
       <c r="AY33" s="3"/>
       <c r="AZ33" s="3"/>
-    </row>
-    <row r="34" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="BA33" s="3"/>
+      <c r="BB33" s="3"/>
+      <c r="BC33" s="3"/>
+      <c r="BD33" s="3"/>
+    </row>
+    <row r="34" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>52</v>
       </c>
@@ -3480,25 +3705,28 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.17417900101315587</v>
       </c>
       <c r="H34" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>-0.37280351754279339</v>
       </c>
       <c r="I34" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1.3367360293155346</v>
       </c>
       <c r="J34" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0.10453820075158671</v>
       </c>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
+      <c r="K34" s="21">
+        <f t="shared" si="15"/>
+        <v>0.21352943466244545</v>
+      </c>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
@@ -3537,8 +3765,12 @@
       <c r="AX34" s="3"/>
       <c r="AY34" s="3"/>
       <c r="AZ34" s="3"/>
-    </row>
-    <row r="35" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="BA34" s="3"/>
+      <c r="BB34" s="3"/>
+      <c r="BC34" s="3"/>
+      <c r="BD34" s="3"/>
+    </row>
+    <row r="35" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
         <v>53</v>
       </c>
@@ -3547,25 +3779,28 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.1732245433061359</v>
       </c>
       <c r="H35" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>-0.48954580950701565</v>
       </c>
       <c r="I35" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>3.0234735650204687</v>
       </c>
       <c r="J35" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0.22330452359378272</v>
       </c>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
+      <c r="K35" s="21">
+        <f t="shared" si="15"/>
+        <v>0.30408892417626032</v>
+      </c>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
@@ -3604,8 +3839,12 @@
       <c r="AX35" s="3"/>
       <c r="AY35" s="3"/>
       <c r="AZ35" s="3"/>
-    </row>
-    <row r="36" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="BA35" s="3"/>
+      <c r="BB35" s="3"/>
+      <c r="BC35" s="3"/>
+      <c r="BD35" s="3"/>
+    </row>
+    <row r="36" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
         <v>54</v>
       </c>
@@ -3614,25 +3853,28 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.4221342330535649</v>
       </c>
       <c r="H36" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>-0.67306408816395624</v>
       </c>
       <c r="I36" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>11.303746450490062</v>
       </c>
       <c r="J36" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0.30967433085056961</v>
       </c>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
+      <c r="K36" s="21">
+        <f t="shared" si="15"/>
+        <v>0.34263362221089366</v>
+      </c>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
@@ -3671,8 +3913,12 @@
       <c r="AX36" s="3"/>
       <c r="AY36" s="3"/>
       <c r="AZ36" s="3"/>
-    </row>
-    <row r="37" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="BA36" s="3"/>
+      <c r="BB36" s="3"/>
+      <c r="BC36" s="3"/>
+      <c r="BD36" s="3"/>
+    </row>
+    <row r="37" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
         <v>55</v>
       </c>
@@ -3681,25 +3927,28 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>9.0405647489959051E-2</v>
       </c>
       <c r="H37" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>-0.26440596942571382</v>
       </c>
       <c r="I37" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.75231563552561598</v>
       </c>
       <c r="J37" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>6.9010800780320736E-2</v>
       </c>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
+      <c r="K37" s="21">
+        <f t="shared" si="15"/>
+        <v>0.12178078183959617</v>
+      </c>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
@@ -3738,8 +3987,12 @@
       <c r="AX37" s="3"/>
       <c r="AY37" s="3"/>
       <c r="AZ37" s="3"/>
-    </row>
-    <row r="38" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="BA37" s="3"/>
+      <c r="BB37" s="3"/>
+      <c r="BC37" s="3"/>
+      <c r="BD37" s="3"/>
+    </row>
+    <row r="38" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
         <v>56</v>
       </c>
@@ -3748,25 +4001,28 @@
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.13697379214081451</v>
       </c>
       <c r="H38" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>-0.33276307221775125</v>
       </c>
       <c r="I38" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1.0565566535339834</v>
       </c>
       <c r="J38" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>8.1554426899356436E-2</v>
       </c>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
+      <c r="K38" s="21">
+        <f t="shared" si="15"/>
+        <v>0.20347292667712313</v>
+      </c>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
@@ -3805,8 +4061,12 @@
       <c r="AX38" s="3"/>
       <c r="AY38" s="3"/>
       <c r="AZ38" s="3"/>
-    </row>
-    <row r="39" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="BA38" s="3"/>
+      <c r="BB38" s="3"/>
+      <c r="BC38" s="3"/>
+      <c r="BD38" s="3"/>
+    </row>
+    <row r="39" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
         <v>57</v>
       </c>
@@ -3815,25 +4075,28 @@
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3.1346749226006221E-2</v>
       </c>
       <c r="H39" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>-0.11571010924757652</v>
       </c>
       <c r="I39" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.19961548002976937</v>
       </c>
       <c r="J39" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>2.3604500811576612E-2</v>
       </c>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
+      <c r="K39" s="21">
+        <f t="shared" si="15"/>
+        <v>8.3434499503365345E-3</v>
+      </c>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
@@ -3872,8 +4135,12 @@
       <c r="AX39" s="3"/>
       <c r="AY39" s="3"/>
       <c r="AZ39" s="3"/>
-    </row>
-    <row r="40" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="BA39" s="3"/>
+      <c r="BB39" s="3"/>
+      <c r="BC39" s="3"/>
+      <c r="BD39" s="3"/>
+    </row>
+    <row r="40" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
         <v>58</v>
       </c>
@@ -3882,25 +4149,28 @@
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>-2.426125831425141E-2</v>
       </c>
       <c r="H40" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>8.0847370451330836E-2</v>
       </c>
       <c r="I40" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>-0.1340260606228989</v>
       </c>
       <c r="J40" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>-0.11685495834759785</v>
       </c>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
+      <c r="K40" s="21">
+        <f t="shared" si="15"/>
+        <v>-7.5906576521204694E-2</v>
+      </c>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
@@ -3939,8 +4209,12 @@
       <c r="AX40" s="3"/>
       <c r="AY40" s="3"/>
       <c r="AZ40" s="3"/>
-    </row>
-    <row r="41" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="BA40" s="3"/>
+      <c r="BB40" s="3"/>
+      <c r="BC40" s="3"/>
+      <c r="BD40" s="3"/>
+    </row>
+    <row r="41" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
         <v>59</v>
       </c>
@@ -3949,25 +4223,28 @@
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>-0.12210526315789472</v>
       </c>
       <c r="H41" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.2890625</v>
       </c>
       <c r="I41" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>-0.25154639175257731</v>
       </c>
       <c r="J41" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0.46990740740740744</v>
       </c>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
+      <c r="K41" s="21">
+        <f t="shared" si="15"/>
+        <v>-0.11750599520383698</v>
+      </c>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
@@ -4006,8 +4283,12 @@
       <c r="AX41" s="3"/>
       <c r="AY41" s="3"/>
       <c r="AZ41" s="3"/>
-    </row>
-    <row r="42" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="BA41" s="3"/>
+      <c r="BB41" s="3"/>
+      <c r="BC41" s="3"/>
+      <c r="BD41" s="3"/>
+    </row>
+    <row r="42" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>60</v>
       </c>
@@ -4016,25 +4297,28 @@
       <c r="E42" s="19"/>
       <c r="F42" s="19"/>
       <c r="G42" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.10403991944087121</v>
       </c>
       <c r="H42" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.13555520030044432</v>
       </c>
       <c r="I42" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>7.6883187275081921E-2</v>
       </c>
       <c r="J42" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>6.3059531963083337E-2</v>
       </c>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
+      <c r="K42" s="22">
+        <f t="shared" si="15"/>
+        <v>0.14807214541684921</v>
+      </c>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22"/>
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
@@ -4073,25 +4357,29 @@
       <c r="AX42" s="3"/>
       <c r="AY42" s="3"/>
       <c r="AZ42" s="3"/>
-    </row>
-    <row r="43" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="BA42" s="3"/>
+      <c r="BB42" s="3"/>
+      <c r="BC42" s="3"/>
+      <c r="BD42" s="3"/>
+    </row>
+    <row r="43" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C43" s="21">
-        <f t="shared" ref="C43:F43" si="12">+C15/C13</f>
+        <f t="shared" ref="C43:F43" si="17">+C15/C13</f>
         <v>0.54613342081538374</v>
       </c>
       <c r="D43" s="21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0.51057898970521443</v>
       </c>
       <c r="E43" s="21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0.56512035147791151</v>
       </c>
       <c r="F43" s="21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0.53448839401357595</v>
       </c>
       <c r="G43" s="21">
@@ -4107,13 +4395,16 @@
         <v>0.54894072666997373</v>
       </c>
       <c r="J43" s="21">
-        <f t="shared" ref="J43" si="13">+J15/J13</f>
+        <f t="shared" ref="J43:K43" si="18">+J15/J13</f>
         <v>0.53624569581963455</v>
       </c>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
+      <c r="K43" s="21">
+        <f t="shared" si="18"/>
+        <v>0.5523772920325567</v>
+      </c>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
@@ -4152,25 +4443,29 @@
       <c r="AX43" s="3"/>
       <c r="AY43" s="3"/>
       <c r="AZ43" s="3"/>
-    </row>
-    <row r="44" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="BA43" s="3"/>
+      <c r="BB43" s="3"/>
+      <c r="BC43" s="3"/>
+      <c r="BD43" s="3"/>
+    </row>
+    <row r="44" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C44" s="21">
-        <f t="shared" ref="C44:F44" si="14">+C20/C13</f>
+        <f t="shared" ref="C44:F44" si="19">+C20/C13</f>
         <v>0.18091024908951658</v>
       </c>
       <c r="D44" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.14006694021310231</v>
       </c>
       <c r="E44" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.18856107215355791</v>
       </c>
       <c r="F44" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.13440159493310369</v>
       </c>
       <c r="G44" s="21">
@@ -4186,13 +4481,16 @@
         <v>0.17753566200045975</v>
       </c>
       <c r="J44" s="21">
-        <f t="shared" ref="J44" si="15">+J20/J13</f>
+        <f t="shared" ref="J44:K44" si="20">+J20/J13</f>
         <v>0.14456304994316377</v>
       </c>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
+      <c r="K44" s="21">
+        <f t="shared" si="20"/>
+        <v>0.20522113948498899</v>
+      </c>
+      <c r="L44" s="21"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="21"/>
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
@@ -4231,25 +4529,29 @@
       <c r="AX44" s="3"/>
       <c r="AY44" s="3"/>
       <c r="AZ44" s="3"/>
-    </row>
-    <row r="45" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="BA44" s="3"/>
+      <c r="BB44" s="3"/>
+      <c r="BC44" s="3"/>
+      <c r="BD44" s="3"/>
+    </row>
+    <row r="45" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C45" s="21">
-        <f t="shared" ref="C45:F45" si="16">+C24/C23</f>
+        <f t="shared" ref="C45:F45" si="21">+C24/C23</f>
         <v>0.29398115379170692</v>
       </c>
       <c r="D45" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0.30815354727509092</v>
       </c>
       <c r="E45" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0.31323511274064608</v>
       </c>
       <c r="F45" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0.22366019160802186</v>
       </c>
       <c r="G45" s="21">
@@ -4265,13 +4567,16 @@
         <v>0.29631330526852917</v>
       </c>
       <c r="J45" s="21">
-        <f t="shared" ref="J45" si="17">+J24/J23</f>
+        <f t="shared" ref="J45:K45" si="22">+J24/J23</f>
         <v>3.6849672097117682E-2</v>
       </c>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
+      <c r="K45" s="21">
+        <f t="shared" si="22"/>
+        <v>0.30067323133393331</v>
+      </c>
+      <c r="L45" s="21"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="21"/>
       <c r="O45" s="3"/>
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
@@ -4310,8 +4615,12 @@
       <c r="AX45" s="3"/>
       <c r="AY45" s="3"/>
       <c r="AZ45" s="3"/>
-    </row>
-    <row r="46" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="BA45" s="3"/>
+      <c r="BB45" s="3"/>
+      <c r="BC45" s="3"/>
+      <c r="BD45" s="3"/>
+    </row>
+    <row r="46" spans="2:56" x14ac:dyDescent="0.2">
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -4362,8 +4671,12 @@
       <c r="AX46" s="3"/>
       <c r="AY46" s="3"/>
       <c r="AZ46" s="3"/>
-    </row>
-    <row r="47" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="BA46" s="3"/>
+      <c r="BB46" s="3"/>
+      <c r="BC46" s="3"/>
+      <c r="BD46" s="3"/>
+    </row>
+    <row r="47" spans="2:56" x14ac:dyDescent="0.2">
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -4414,8 +4727,12 @@
       <c r="AX47" s="3"/>
       <c r="AY47" s="3"/>
       <c r="AZ47" s="3"/>
-    </row>
-    <row r="48" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="BA47" s="3"/>
+      <c r="BB47" s="3"/>
+      <c r="BC47" s="3"/>
+      <c r="BD47" s="3"/>
+    </row>
+    <row r="48" spans="2:56" x14ac:dyDescent="0.2">
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -4466,8 +4783,12 @@
       <c r="AX48" s="3"/>
       <c r="AY48" s="3"/>
       <c r="AZ48" s="3"/>
-    </row>
-    <row r="49" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA48" s="3"/>
+      <c r="BB48" s="3"/>
+      <c r="BC48" s="3"/>
+      <c r="BD48" s="3"/>
+    </row>
+    <row r="49" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -4518,8 +4839,12 @@
       <c r="AX49" s="3"/>
       <c r="AY49" s="3"/>
       <c r="AZ49" s="3"/>
-    </row>
-    <row r="50" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA49" s="3"/>
+      <c r="BB49" s="3"/>
+      <c r="BC49" s="3"/>
+      <c r="BD49" s="3"/>
+    </row>
+    <row r="50" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -4570,8 +4895,12 @@
       <c r="AX50" s="3"/>
       <c r="AY50" s="3"/>
       <c r="AZ50" s="3"/>
-    </row>
-    <row r="51" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA50" s="3"/>
+      <c r="BB50" s="3"/>
+      <c r="BC50" s="3"/>
+      <c r="BD50" s="3"/>
+    </row>
+    <row r="51" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -4622,8 +4951,12 @@
       <c r="AX51" s="3"/>
       <c r="AY51" s="3"/>
       <c r="AZ51" s="3"/>
-    </row>
-    <row r="52" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA51" s="3"/>
+      <c r="BB51" s="3"/>
+      <c r="BC51" s="3"/>
+      <c r="BD51" s="3"/>
+    </row>
+    <row r="52" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -4674,8 +5007,12 @@
       <c r="AX52" s="3"/>
       <c r="AY52" s="3"/>
       <c r="AZ52" s="3"/>
-    </row>
-    <row r="53" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA52" s="3"/>
+      <c r="BB52" s="3"/>
+      <c r="BC52" s="3"/>
+      <c r="BD52" s="3"/>
+    </row>
+    <row r="53" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -4726,8 +5063,12 @@
       <c r="AX53" s="3"/>
       <c r="AY53" s="3"/>
       <c r="AZ53" s="3"/>
-    </row>
-    <row r="54" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA53" s="3"/>
+      <c r="BB53" s="3"/>
+      <c r="BC53" s="3"/>
+      <c r="BD53" s="3"/>
+    </row>
+    <row r="54" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -4778,8 +5119,12 @@
       <c r="AX54" s="3"/>
       <c r="AY54" s="3"/>
       <c r="AZ54" s="3"/>
-    </row>
-    <row r="55" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA54" s="3"/>
+      <c r="BB54" s="3"/>
+      <c r="BC54" s="3"/>
+      <c r="BD54" s="3"/>
+    </row>
+    <row r="55" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -4830,8 +5175,12 @@
       <c r="AX55" s="3"/>
       <c r="AY55" s="3"/>
       <c r="AZ55" s="3"/>
-    </row>
-    <row r="56" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA55" s="3"/>
+      <c r="BB55" s="3"/>
+      <c r="BC55" s="3"/>
+      <c r="BD55" s="3"/>
+    </row>
+    <row r="56" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -4882,8 +5231,12 @@
       <c r="AX56" s="3"/>
       <c r="AY56" s="3"/>
       <c r="AZ56" s="3"/>
-    </row>
-    <row r="57" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA56" s="3"/>
+      <c r="BB56" s="3"/>
+      <c r="BC56" s="3"/>
+      <c r="BD56" s="3"/>
+    </row>
+    <row r="57" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -4934,8 +5287,12 @@
       <c r="AX57" s="3"/>
       <c r="AY57" s="3"/>
       <c r="AZ57" s="3"/>
-    </row>
-    <row r="58" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA57" s="3"/>
+      <c r="BB57" s="3"/>
+      <c r="BC57" s="3"/>
+      <c r="BD57" s="3"/>
+    </row>
+    <row r="58" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -4986,8 +5343,12 @@
       <c r="AX58" s="3"/>
       <c r="AY58" s="3"/>
       <c r="AZ58" s="3"/>
-    </row>
-    <row r="59" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA58" s="3"/>
+      <c r="BB58" s="3"/>
+      <c r="BC58" s="3"/>
+      <c r="BD58" s="3"/>
+    </row>
+    <row r="59" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -5038,8 +5399,12 @@
       <c r="AX59" s="3"/>
       <c r="AY59" s="3"/>
       <c r="AZ59" s="3"/>
-    </row>
-    <row r="60" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA59" s="3"/>
+      <c r="BB59" s="3"/>
+      <c r="BC59" s="3"/>
+      <c r="BD59" s="3"/>
+    </row>
+    <row r="60" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -5090,8 +5455,12 @@
       <c r="AX60" s="3"/>
       <c r="AY60" s="3"/>
       <c r="AZ60" s="3"/>
-    </row>
-    <row r="61" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA60" s="3"/>
+      <c r="BB60" s="3"/>
+      <c r="BC60" s="3"/>
+      <c r="BD60" s="3"/>
+    </row>
+    <row r="61" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -5142,8 +5511,12 @@
       <c r="AX61" s="3"/>
       <c r="AY61" s="3"/>
       <c r="AZ61" s="3"/>
-    </row>
-    <row r="62" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA61" s="3"/>
+      <c r="BB61" s="3"/>
+      <c r="BC61" s="3"/>
+      <c r="BD61" s="3"/>
+    </row>
+    <row r="62" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -5194,8 +5567,12 @@
       <c r="AX62" s="3"/>
       <c r="AY62" s="3"/>
       <c r="AZ62" s="3"/>
-    </row>
-    <row r="63" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA62" s="3"/>
+      <c r="BB62" s="3"/>
+      <c r="BC62" s="3"/>
+      <c r="BD62" s="3"/>
+    </row>
+    <row r="63" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -5246,8 +5623,12 @@
       <c r="AX63" s="3"/>
       <c r="AY63" s="3"/>
       <c r="AZ63" s="3"/>
-    </row>
-    <row r="64" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA63" s="3"/>
+      <c r="BB63" s="3"/>
+      <c r="BC63" s="3"/>
+      <c r="BD63" s="3"/>
+    </row>
+    <row r="64" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -5298,8 +5679,12 @@
       <c r="AX64" s="3"/>
       <c r="AY64" s="3"/>
       <c r="AZ64" s="3"/>
-    </row>
-    <row r="65" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA64" s="3"/>
+      <c r="BB64" s="3"/>
+      <c r="BC64" s="3"/>
+      <c r="BD64" s="3"/>
+    </row>
+    <row r="65" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -5350,8 +5735,12 @@
       <c r="AX65" s="3"/>
       <c r="AY65" s="3"/>
       <c r="AZ65" s="3"/>
-    </row>
-    <row r="66" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA65" s="3"/>
+      <c r="BB65" s="3"/>
+      <c r="BC65" s="3"/>
+      <c r="BD65" s="3"/>
+    </row>
+    <row r="66" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -5402,8 +5791,12 @@
       <c r="AX66" s="3"/>
       <c r="AY66" s="3"/>
       <c r="AZ66" s="3"/>
-    </row>
-    <row r="67" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA66" s="3"/>
+      <c r="BB66" s="3"/>
+      <c r="BC66" s="3"/>
+      <c r="BD66" s="3"/>
+    </row>
+    <row r="67" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -5454,8 +5847,12 @@
       <c r="AX67" s="3"/>
       <c r="AY67" s="3"/>
       <c r="AZ67" s="3"/>
-    </row>
-    <row r="68" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA67" s="3"/>
+      <c r="BB67" s="3"/>
+      <c r="BC67" s="3"/>
+      <c r="BD67" s="3"/>
+    </row>
+    <row r="68" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -5506,8 +5903,12 @@
       <c r="AX68" s="3"/>
       <c r="AY68" s="3"/>
       <c r="AZ68" s="3"/>
-    </row>
-    <row r="69" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA68" s="3"/>
+      <c r="BB68" s="3"/>
+      <c r="BC68" s="3"/>
+      <c r="BD68" s="3"/>
+    </row>
+    <row r="69" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -5558,8 +5959,12 @@
       <c r="AX69" s="3"/>
       <c r="AY69" s="3"/>
       <c r="AZ69" s="3"/>
-    </row>
-    <row r="70" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA69" s="3"/>
+      <c r="BB69" s="3"/>
+      <c r="BC69" s="3"/>
+      <c r="BD69" s="3"/>
+    </row>
+    <row r="70" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -5610,8 +6015,12 @@
       <c r="AX70" s="3"/>
       <c r="AY70" s="3"/>
       <c r="AZ70" s="3"/>
-    </row>
-    <row r="71" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA70" s="3"/>
+      <c r="BB70" s="3"/>
+      <c r="BC70" s="3"/>
+      <c r="BD70" s="3"/>
+    </row>
+    <row r="71" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -5662,8 +6071,12 @@
       <c r="AX71" s="3"/>
       <c r="AY71" s="3"/>
       <c r="AZ71" s="3"/>
-    </row>
-    <row r="72" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA71" s="3"/>
+      <c r="BB71" s="3"/>
+      <c r="BC71" s="3"/>
+      <c r="BD71" s="3"/>
+    </row>
+    <row r="72" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -5714,8 +6127,12 @@
       <c r="AX72" s="3"/>
       <c r="AY72" s="3"/>
       <c r="AZ72" s="3"/>
-    </row>
-    <row r="73" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA72" s="3"/>
+      <c r="BB72" s="3"/>
+      <c r="BC72" s="3"/>
+      <c r="BD72" s="3"/>
+    </row>
+    <row r="73" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -5766,8 +6183,12 @@
       <c r="AX73" s="3"/>
       <c r="AY73" s="3"/>
       <c r="AZ73" s="3"/>
-    </row>
-    <row r="74" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA73" s="3"/>
+      <c r="BB73" s="3"/>
+      <c r="BC73" s="3"/>
+      <c r="BD73" s="3"/>
+    </row>
+    <row r="74" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -5818,8 +6239,12 @@
       <c r="AX74" s="3"/>
       <c r="AY74" s="3"/>
       <c r="AZ74" s="3"/>
-    </row>
-    <row r="75" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA74" s="3"/>
+      <c r="BB74" s="3"/>
+      <c r="BC74" s="3"/>
+      <c r="BD74" s="3"/>
+    </row>
+    <row r="75" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -5870,8 +6295,12 @@
       <c r="AX75" s="3"/>
       <c r="AY75" s="3"/>
       <c r="AZ75" s="3"/>
-    </row>
-    <row r="76" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA75" s="3"/>
+      <c r="BB75" s="3"/>
+      <c r="BC75" s="3"/>
+      <c r="BD75" s="3"/>
+    </row>
+    <row r="76" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -5922,8 +6351,12 @@
       <c r="AX76" s="3"/>
       <c r="AY76" s="3"/>
       <c r="AZ76" s="3"/>
-    </row>
-    <row r="77" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA76" s="3"/>
+      <c r="BB76" s="3"/>
+      <c r="BC76" s="3"/>
+      <c r="BD76" s="3"/>
+    </row>
+    <row r="77" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -5974,8 +6407,12 @@
       <c r="AX77" s="3"/>
       <c r="AY77" s="3"/>
       <c r="AZ77" s="3"/>
-    </row>
-    <row r="78" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA77" s="3"/>
+      <c r="BB77" s="3"/>
+      <c r="BC77" s="3"/>
+      <c r="BD77" s="3"/>
+    </row>
+    <row r="78" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -6026,8 +6463,12 @@
       <c r="AX78" s="3"/>
       <c r="AY78" s="3"/>
       <c r="AZ78" s="3"/>
-    </row>
-    <row r="79" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA78" s="3"/>
+      <c r="BB78" s="3"/>
+      <c r="BC78" s="3"/>
+      <c r="BD78" s="3"/>
+    </row>
+    <row r="79" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -6078,8 +6519,12 @@
       <c r="AX79" s="3"/>
       <c r="AY79" s="3"/>
       <c r="AZ79" s="3"/>
-    </row>
-    <row r="80" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA79" s="3"/>
+      <c r="BB79" s="3"/>
+      <c r="BC79" s="3"/>
+      <c r="BD79" s="3"/>
+    </row>
+    <row r="80" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -6130,8 +6575,12 @@
       <c r="AX80" s="3"/>
       <c r="AY80" s="3"/>
       <c r="AZ80" s="3"/>
-    </row>
-    <row r="81" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA80" s="3"/>
+      <c r="BB80" s="3"/>
+      <c r="BC80" s="3"/>
+      <c r="BD80" s="3"/>
+    </row>
+    <row r="81" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -6182,8 +6631,12 @@
       <c r="AX81" s="3"/>
       <c r="AY81" s="3"/>
       <c r="AZ81" s="3"/>
-    </row>
-    <row r="82" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA81" s="3"/>
+      <c r="BB81" s="3"/>
+      <c r="BC81" s="3"/>
+      <c r="BD81" s="3"/>
+    </row>
+    <row r="82" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -6234,8 +6687,12 @@
       <c r="AX82" s="3"/>
       <c r="AY82" s="3"/>
       <c r="AZ82" s="3"/>
-    </row>
-    <row r="83" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA82" s="3"/>
+      <c r="BB82" s="3"/>
+      <c r="BC82" s="3"/>
+      <c r="BD82" s="3"/>
+    </row>
+    <row r="83" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -6286,8 +6743,12 @@
       <c r="AX83" s="3"/>
       <c r="AY83" s="3"/>
       <c r="AZ83" s="3"/>
-    </row>
-    <row r="84" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA83" s="3"/>
+      <c r="BB83" s="3"/>
+      <c r="BC83" s="3"/>
+      <c r="BD83" s="3"/>
+    </row>
+    <row r="84" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -6338,8 +6799,12 @@
       <c r="AX84" s="3"/>
       <c r="AY84" s="3"/>
       <c r="AZ84" s="3"/>
-    </row>
-    <row r="85" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA84" s="3"/>
+      <c r="BB84" s="3"/>
+      <c r="BC84" s="3"/>
+      <c r="BD84" s="3"/>
+    </row>
+    <row r="85" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -6390,8 +6855,12 @@
       <c r="AX85" s="3"/>
       <c r="AY85" s="3"/>
       <c r="AZ85" s="3"/>
-    </row>
-    <row r="86" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA85" s="3"/>
+      <c r="BB85" s="3"/>
+      <c r="BC85" s="3"/>
+      <c r="BD85" s="3"/>
+    </row>
+    <row r="86" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -6442,8 +6911,12 @@
       <c r="AX86" s="3"/>
       <c r="AY86" s="3"/>
       <c r="AZ86" s="3"/>
-    </row>
-    <row r="87" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA86" s="3"/>
+      <c r="BB86" s="3"/>
+      <c r="BC86" s="3"/>
+      <c r="BD86" s="3"/>
+    </row>
+    <row r="87" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -6494,8 +6967,12 @@
       <c r="AX87" s="3"/>
       <c r="AY87" s="3"/>
       <c r="AZ87" s="3"/>
-    </row>
-    <row r="88" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA87" s="3"/>
+      <c r="BB87" s="3"/>
+      <c r="BC87" s="3"/>
+      <c r="BD87" s="3"/>
+    </row>
+    <row r="88" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -6546,8 +7023,12 @@
       <c r="AX88" s="3"/>
       <c r="AY88" s="3"/>
       <c r="AZ88" s="3"/>
-    </row>
-    <row r="89" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA88" s="3"/>
+      <c r="BB88" s="3"/>
+      <c r="BC88" s="3"/>
+      <c r="BD88" s="3"/>
+    </row>
+    <row r="89" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -6598,8 +7079,12 @@
       <c r="AX89" s="3"/>
       <c r="AY89" s="3"/>
       <c r="AZ89" s="3"/>
-    </row>
-    <row r="90" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA89" s="3"/>
+      <c r="BB89" s="3"/>
+      <c r="BC89" s="3"/>
+      <c r="BD89" s="3"/>
+    </row>
+    <row r="90" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
@@ -6650,8 +7135,12 @@
       <c r="AX90" s="3"/>
       <c r="AY90" s="3"/>
       <c r="AZ90" s="3"/>
-    </row>
-    <row r="91" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA90" s="3"/>
+      <c r="BB90" s="3"/>
+      <c r="BC90" s="3"/>
+      <c r="BD90" s="3"/>
+    </row>
+    <row r="91" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -6702,8 +7191,12 @@
       <c r="AX91" s="3"/>
       <c r="AY91" s="3"/>
       <c r="AZ91" s="3"/>
-    </row>
-    <row r="92" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA91" s="3"/>
+      <c r="BB91" s="3"/>
+      <c r="BC91" s="3"/>
+      <c r="BD91" s="3"/>
+    </row>
+    <row r="92" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
@@ -6754,8 +7247,12 @@
       <c r="AX92" s="3"/>
       <c r="AY92" s="3"/>
       <c r="AZ92" s="3"/>
-    </row>
-    <row r="93" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA92" s="3"/>
+      <c r="BB92" s="3"/>
+      <c r="BC92" s="3"/>
+      <c r="BD92" s="3"/>
+    </row>
+    <row r="93" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
@@ -6806,8 +7303,12 @@
       <c r="AX93" s="3"/>
       <c r="AY93" s="3"/>
       <c r="AZ93" s="3"/>
-    </row>
-    <row r="94" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA93" s="3"/>
+      <c r="BB93" s="3"/>
+      <c r="BC93" s="3"/>
+      <c r="BD93" s="3"/>
+    </row>
+    <row r="94" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
@@ -6858,8 +7359,12 @@
       <c r="AX94" s="3"/>
       <c r="AY94" s="3"/>
       <c r="AZ94" s="3"/>
-    </row>
-    <row r="95" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA94" s="3"/>
+      <c r="BB94" s="3"/>
+      <c r="BC94" s="3"/>
+      <c r="BD94" s="3"/>
+    </row>
+    <row r="95" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -6910,8 +7415,12 @@
       <c r="AX95" s="3"/>
       <c r="AY95" s="3"/>
       <c r="AZ95" s="3"/>
-    </row>
-    <row r="96" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA95" s="3"/>
+      <c r="BB95" s="3"/>
+      <c r="BC95" s="3"/>
+      <c r="BD95" s="3"/>
+    </row>
+    <row r="96" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -6962,8 +7471,12 @@
       <c r="AX96" s="3"/>
       <c r="AY96" s="3"/>
       <c r="AZ96" s="3"/>
-    </row>
-    <row r="97" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA96" s="3"/>
+      <c r="BB96" s="3"/>
+      <c r="BC96" s="3"/>
+      <c r="BD96" s="3"/>
+    </row>
+    <row r="97" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -7014,8 +7527,12 @@
       <c r="AX97" s="3"/>
       <c r="AY97" s="3"/>
       <c r="AZ97" s="3"/>
-    </row>
-    <row r="98" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA97" s="3"/>
+      <c r="BB97" s="3"/>
+      <c r="BC97" s="3"/>
+      <c r="BD97" s="3"/>
+    </row>
+    <row r="98" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -7066,8 +7583,12 @@
       <c r="AX98" s="3"/>
       <c r="AY98" s="3"/>
       <c r="AZ98" s="3"/>
-    </row>
-    <row r="99" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA98" s="3"/>
+      <c r="BB98" s="3"/>
+      <c r="BC98" s="3"/>
+      <c r="BD98" s="3"/>
+    </row>
+    <row r="99" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
@@ -7118,8 +7639,12 @@
       <c r="AX99" s="3"/>
       <c r="AY99" s="3"/>
       <c r="AZ99" s="3"/>
-    </row>
-    <row r="100" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA99" s="3"/>
+      <c r="BB99" s="3"/>
+      <c r="BC99" s="3"/>
+      <c r="BD99" s="3"/>
+    </row>
+    <row r="100" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
@@ -7170,8 +7695,12 @@
       <c r="AX100" s="3"/>
       <c r="AY100" s="3"/>
       <c r="AZ100" s="3"/>
-    </row>
-    <row r="101" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA100" s="3"/>
+      <c r="BB100" s="3"/>
+      <c r="BC100" s="3"/>
+      <c r="BD100" s="3"/>
+    </row>
+    <row r="101" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -7222,8 +7751,12 @@
       <c r="AX101" s="3"/>
       <c r="AY101" s="3"/>
       <c r="AZ101" s="3"/>
-    </row>
-    <row r="102" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA101" s="3"/>
+      <c r="BB101" s="3"/>
+      <c r="BC101" s="3"/>
+      <c r="BD101" s="3"/>
+    </row>
+    <row r="102" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -7274,8 +7807,12 @@
       <c r="AX102" s="3"/>
       <c r="AY102" s="3"/>
       <c r="AZ102" s="3"/>
-    </row>
-    <row r="103" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA102" s="3"/>
+      <c r="BB102" s="3"/>
+      <c r="BC102" s="3"/>
+      <c r="BD102" s="3"/>
+    </row>
+    <row r="103" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -7326,8 +7863,12 @@
       <c r="AX103" s="3"/>
       <c r="AY103" s="3"/>
       <c r="AZ103" s="3"/>
-    </row>
-    <row r="104" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA103" s="3"/>
+      <c r="BB103" s="3"/>
+      <c r="BC103" s="3"/>
+      <c r="BD103" s="3"/>
+    </row>
+    <row r="104" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -7378,8 +7919,12 @@
       <c r="AX104" s="3"/>
       <c r="AY104" s="3"/>
       <c r="AZ104" s="3"/>
-    </row>
-    <row r="105" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA104" s="3"/>
+      <c r="BB104" s="3"/>
+      <c r="BC104" s="3"/>
+      <c r="BD104" s="3"/>
+    </row>
+    <row r="105" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -7430,8 +7975,12 @@
       <c r="AX105" s="3"/>
       <c r="AY105" s="3"/>
       <c r="AZ105" s="3"/>
-    </row>
-    <row r="106" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA105" s="3"/>
+      <c r="BB105" s="3"/>
+      <c r="BC105" s="3"/>
+      <c r="BD105" s="3"/>
+    </row>
+    <row r="106" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -7482,8 +8031,12 @@
       <c r="AX106" s="3"/>
       <c r="AY106" s="3"/>
       <c r="AZ106" s="3"/>
-    </row>
-    <row r="107" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA106" s="3"/>
+      <c r="BB106" s="3"/>
+      <c r="BC106" s="3"/>
+      <c r="BD106" s="3"/>
+    </row>
+    <row r="107" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -7534,8 +8087,12 @@
       <c r="AX107" s="3"/>
       <c r="AY107" s="3"/>
       <c r="AZ107" s="3"/>
-    </row>
-    <row r="108" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA107" s="3"/>
+      <c r="BB107" s="3"/>
+      <c r="BC107" s="3"/>
+      <c r="BD107" s="3"/>
+    </row>
+    <row r="108" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -7586,8 +8143,12 @@
       <c r="AX108" s="3"/>
       <c r="AY108" s="3"/>
       <c r="AZ108" s="3"/>
-    </row>
-    <row r="109" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA108" s="3"/>
+      <c r="BB108" s="3"/>
+      <c r="BC108" s="3"/>
+      <c r="BD108" s="3"/>
+    </row>
+    <row r="109" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -7638,8 +8199,12 @@
       <c r="AX109" s="3"/>
       <c r="AY109" s="3"/>
       <c r="AZ109" s="3"/>
-    </row>
-    <row r="110" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA109" s="3"/>
+      <c r="BB109" s="3"/>
+      <c r="BC109" s="3"/>
+      <c r="BD109" s="3"/>
+    </row>
+    <row r="110" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
@@ -7690,8 +8255,12 @@
       <c r="AX110" s="3"/>
       <c r="AY110" s="3"/>
       <c r="AZ110" s="3"/>
-    </row>
-    <row r="111" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA110" s="3"/>
+      <c r="BB110" s="3"/>
+      <c r="BC110" s="3"/>
+      <c r="BD110" s="3"/>
+    </row>
+    <row r="111" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -7742,8 +8311,12 @@
       <c r="AX111" s="3"/>
       <c r="AY111" s="3"/>
       <c r="AZ111" s="3"/>
-    </row>
-    <row r="112" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA111" s="3"/>
+      <c r="BB111" s="3"/>
+      <c r="BC111" s="3"/>
+      <c r="BD111" s="3"/>
+    </row>
+    <row r="112" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -7794,8 +8367,12 @@
       <c r="AX112" s="3"/>
       <c r="AY112" s="3"/>
       <c r="AZ112" s="3"/>
-    </row>
-    <row r="113" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA112" s="3"/>
+      <c r="BB112" s="3"/>
+      <c r="BC112" s="3"/>
+      <c r="BD112" s="3"/>
+    </row>
+    <row r="113" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -7846,8 +8423,12 @@
       <c r="AX113" s="3"/>
       <c r="AY113" s="3"/>
       <c r="AZ113" s="3"/>
-    </row>
-    <row r="114" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA113" s="3"/>
+      <c r="BB113" s="3"/>
+      <c r="BC113" s="3"/>
+      <c r="BD113" s="3"/>
+    </row>
+    <row r="114" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -7898,8 +8479,12 @@
       <c r="AX114" s="3"/>
       <c r="AY114" s="3"/>
       <c r="AZ114" s="3"/>
-    </row>
-    <row r="115" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA114" s="3"/>
+      <c r="BB114" s="3"/>
+      <c r="BC114" s="3"/>
+      <c r="BD114" s="3"/>
+    </row>
+    <row r="115" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
@@ -7950,8 +8535,12 @@
       <c r="AX115" s="3"/>
       <c r="AY115" s="3"/>
       <c r="AZ115" s="3"/>
-    </row>
-    <row r="116" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA115" s="3"/>
+      <c r="BB115" s="3"/>
+      <c r="BC115" s="3"/>
+      <c r="BD115" s="3"/>
+    </row>
+    <row r="116" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
@@ -8002,8 +8591,12 @@
       <c r="AX116" s="3"/>
       <c r="AY116" s="3"/>
       <c r="AZ116" s="3"/>
-    </row>
-    <row r="117" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA116" s="3"/>
+      <c r="BB116" s="3"/>
+      <c r="BC116" s="3"/>
+      <c r="BD116" s="3"/>
+    </row>
+    <row r="117" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
@@ -8054,8 +8647,12 @@
       <c r="AX117" s="3"/>
       <c r="AY117" s="3"/>
       <c r="AZ117" s="3"/>
-    </row>
-    <row r="118" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA117" s="3"/>
+      <c r="BB117" s="3"/>
+      <c r="BC117" s="3"/>
+      <c r="BD117" s="3"/>
+    </row>
+    <row r="118" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -8106,8 +8703,12 @@
       <c r="AX118" s="3"/>
       <c r="AY118" s="3"/>
       <c r="AZ118" s="3"/>
-    </row>
-    <row r="119" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA118" s="3"/>
+      <c r="BB118" s="3"/>
+      <c r="BC118" s="3"/>
+      <c r="BD118" s="3"/>
+    </row>
+    <row r="119" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
@@ -8158,8 +8759,12 @@
       <c r="AX119" s="3"/>
       <c r="AY119" s="3"/>
       <c r="AZ119" s="3"/>
-    </row>
-    <row r="120" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA119" s="3"/>
+      <c r="BB119" s="3"/>
+      <c r="BC119" s="3"/>
+      <c r="BD119" s="3"/>
+    </row>
+    <row r="120" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -8210,8 +8815,12 @@
       <c r="AX120" s="3"/>
       <c r="AY120" s="3"/>
       <c r="AZ120" s="3"/>
-    </row>
-    <row r="121" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA120" s="3"/>
+      <c r="BB120" s="3"/>
+      <c r="BC120" s="3"/>
+      <c r="BD120" s="3"/>
+    </row>
+    <row r="121" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -8262,8 +8871,12 @@
       <c r="AX121" s="3"/>
       <c r="AY121" s="3"/>
       <c r="AZ121" s="3"/>
-    </row>
-    <row r="122" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA121" s="3"/>
+      <c r="BB121" s="3"/>
+      <c r="BC121" s="3"/>
+      <c r="BD121" s="3"/>
+    </row>
+    <row r="122" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
@@ -8314,8 +8927,12 @@
       <c r="AX122" s="3"/>
       <c r="AY122" s="3"/>
       <c r="AZ122" s="3"/>
-    </row>
-    <row r="123" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA122" s="3"/>
+      <c r="BB122" s="3"/>
+      <c r="BC122" s="3"/>
+      <c r="BD122" s="3"/>
+    </row>
+    <row r="123" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
@@ -8366,8 +8983,12 @@
       <c r="AX123" s="3"/>
       <c r="AY123" s="3"/>
       <c r="AZ123" s="3"/>
-    </row>
-    <row r="124" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA123" s="3"/>
+      <c r="BB123" s="3"/>
+      <c r="BC123" s="3"/>
+      <c r="BD123" s="3"/>
+    </row>
+    <row r="124" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -8418,8 +9039,12 @@
       <c r="AX124" s="3"/>
       <c r="AY124" s="3"/>
       <c r="AZ124" s="3"/>
-    </row>
-    <row r="125" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA124" s="3"/>
+      <c r="BB124" s="3"/>
+      <c r="BC124" s="3"/>
+      <c r="BD124" s="3"/>
+    </row>
+    <row r="125" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
@@ -8470,8 +9095,12 @@
       <c r="AX125" s="3"/>
       <c r="AY125" s="3"/>
       <c r="AZ125" s="3"/>
-    </row>
-    <row r="126" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA125" s="3"/>
+      <c r="BB125" s="3"/>
+      <c r="BC125" s="3"/>
+      <c r="BD125" s="3"/>
+    </row>
+    <row r="126" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -8522,8 +9151,12 @@
       <c r="AX126" s="3"/>
       <c r="AY126" s="3"/>
       <c r="AZ126" s="3"/>
-    </row>
-    <row r="127" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA126" s="3"/>
+      <c r="BB126" s="3"/>
+      <c r="BC126" s="3"/>
+      <c r="BD126" s="3"/>
+    </row>
+    <row r="127" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -8574,8 +9207,12 @@
       <c r="AX127" s="3"/>
       <c r="AY127" s="3"/>
       <c r="AZ127" s="3"/>
-    </row>
-    <row r="128" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA127" s="3"/>
+      <c r="BB127" s="3"/>
+      <c r="BC127" s="3"/>
+      <c r="BD127" s="3"/>
+    </row>
+    <row r="128" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
@@ -8626,8 +9263,12 @@
       <c r="AX128" s="3"/>
       <c r="AY128" s="3"/>
       <c r="AZ128" s="3"/>
-    </row>
-    <row r="129" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA128" s="3"/>
+      <c r="BB128" s="3"/>
+      <c r="BC128" s="3"/>
+      <c r="BD128" s="3"/>
+    </row>
+    <row r="129" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
@@ -8678,8 +9319,12 @@
       <c r="AX129" s="3"/>
       <c r="AY129" s="3"/>
       <c r="AZ129" s="3"/>
-    </row>
-    <row r="130" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA129" s="3"/>
+      <c r="BB129" s="3"/>
+      <c r="BC129" s="3"/>
+      <c r="BD129" s="3"/>
+    </row>
+    <row r="130" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
@@ -8730,8 +9375,12 @@
       <c r="AX130" s="3"/>
       <c r="AY130" s="3"/>
       <c r="AZ130" s="3"/>
-    </row>
-    <row r="131" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA130" s="3"/>
+      <c r="BB130" s="3"/>
+      <c r="BC130" s="3"/>
+      <c r="BD130" s="3"/>
+    </row>
+    <row r="131" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
@@ -8782,8 +9431,12 @@
       <c r="AX131" s="3"/>
       <c r="AY131" s="3"/>
       <c r="AZ131" s="3"/>
-    </row>
-    <row r="132" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA131" s="3"/>
+      <c r="BB131" s="3"/>
+      <c r="BC131" s="3"/>
+      <c r="BD131" s="3"/>
+    </row>
+    <row r="132" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
@@ -8834,8 +9487,12 @@
       <c r="AX132" s="3"/>
       <c r="AY132" s="3"/>
       <c r="AZ132" s="3"/>
-    </row>
-    <row r="133" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA132" s="3"/>
+      <c r="BB132" s="3"/>
+      <c r="BC132" s="3"/>
+      <c r="BD132" s="3"/>
+    </row>
+    <row r="133" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
@@ -8886,8 +9543,12 @@
       <c r="AX133" s="3"/>
       <c r="AY133" s="3"/>
       <c r="AZ133" s="3"/>
-    </row>
-    <row r="134" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA133" s="3"/>
+      <c r="BB133" s="3"/>
+      <c r="BC133" s="3"/>
+      <c r="BD133" s="3"/>
+    </row>
+    <row r="134" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
@@ -8938,8 +9599,12 @@
       <c r="AX134" s="3"/>
       <c r="AY134" s="3"/>
       <c r="AZ134" s="3"/>
-    </row>
-    <row r="135" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA134" s="3"/>
+      <c r="BB134" s="3"/>
+      <c r="BC134" s="3"/>
+      <c r="BD134" s="3"/>
+    </row>
+    <row r="135" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
@@ -8990,8 +9655,12 @@
       <c r="AX135" s="3"/>
       <c r="AY135" s="3"/>
       <c r="AZ135" s="3"/>
-    </row>
-    <row r="136" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA135" s="3"/>
+      <c r="BB135" s="3"/>
+      <c r="BC135" s="3"/>
+      <c r="BD135" s="3"/>
+    </row>
+    <row r="136" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
@@ -9042,8 +9711,12 @@
       <c r="AX136" s="3"/>
       <c r="AY136" s="3"/>
       <c r="AZ136" s="3"/>
-    </row>
-    <row r="137" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA136" s="3"/>
+      <c r="BB136" s="3"/>
+      <c r="BC136" s="3"/>
+      <c r="BD136" s="3"/>
+    </row>
+    <row r="137" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
@@ -9094,8 +9767,12 @@
       <c r="AX137" s="3"/>
       <c r="AY137" s="3"/>
       <c r="AZ137" s="3"/>
-    </row>
-    <row r="138" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA137" s="3"/>
+      <c r="BB137" s="3"/>
+      <c r="BC137" s="3"/>
+      <c r="BD137" s="3"/>
+    </row>
+    <row r="138" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
@@ -9146,8 +9823,12 @@
       <c r="AX138" s="3"/>
       <c r="AY138" s="3"/>
       <c r="AZ138" s="3"/>
-    </row>
-    <row r="139" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA138" s="3"/>
+      <c r="BB138" s="3"/>
+      <c r="BC138" s="3"/>
+      <c r="BD138" s="3"/>
+    </row>
+    <row r="139" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
@@ -9198,8 +9879,12 @@
       <c r="AX139" s="3"/>
       <c r="AY139" s="3"/>
       <c r="AZ139" s="3"/>
-    </row>
-    <row r="140" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA139" s="3"/>
+      <c r="BB139" s="3"/>
+      <c r="BC139" s="3"/>
+      <c r="BD139" s="3"/>
+    </row>
+    <row r="140" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
@@ -9250,8 +9935,12 @@
       <c r="AX140" s="3"/>
       <c r="AY140" s="3"/>
       <c r="AZ140" s="3"/>
-    </row>
-    <row r="141" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA140" s="3"/>
+      <c r="BB140" s="3"/>
+      <c r="BC140" s="3"/>
+      <c r="BD140" s="3"/>
+    </row>
+    <row r="141" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
@@ -9302,8 +9991,12 @@
       <c r="AX141" s="3"/>
       <c r="AY141" s="3"/>
       <c r="AZ141" s="3"/>
-    </row>
-    <row r="142" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA141" s="3"/>
+      <c r="BB141" s="3"/>
+      <c r="BC141" s="3"/>
+      <c r="BD141" s="3"/>
+    </row>
+    <row r="142" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
@@ -9354,8 +10047,12 @@
       <c r="AX142" s="3"/>
       <c r="AY142" s="3"/>
       <c r="AZ142" s="3"/>
-    </row>
-    <row r="143" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA142" s="3"/>
+      <c r="BB142" s="3"/>
+      <c r="BC142" s="3"/>
+      <c r="BD142" s="3"/>
+    </row>
+    <row r="143" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
@@ -9406,8 +10103,12 @@
       <c r="AX143" s="3"/>
       <c r="AY143" s="3"/>
       <c r="AZ143" s="3"/>
-    </row>
-    <row r="144" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA143" s="3"/>
+      <c r="BB143" s="3"/>
+      <c r="BC143" s="3"/>
+      <c r="BD143" s="3"/>
+    </row>
+    <row r="144" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
@@ -9458,8 +10159,12 @@
       <c r="AX144" s="3"/>
       <c r="AY144" s="3"/>
       <c r="AZ144" s="3"/>
-    </row>
-    <row r="145" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA144" s="3"/>
+      <c r="BB144" s="3"/>
+      <c r="BC144" s="3"/>
+      <c r="BD144" s="3"/>
+    </row>
+    <row r="145" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
@@ -9510,8 +10215,12 @@
       <c r="AX145" s="3"/>
       <c r="AY145" s="3"/>
       <c r="AZ145" s="3"/>
-    </row>
-    <row r="146" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA145" s="3"/>
+      <c r="BB145" s="3"/>
+      <c r="BC145" s="3"/>
+      <c r="BD145" s="3"/>
+    </row>
+    <row r="146" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
@@ -9562,8 +10271,12 @@
       <c r="AX146" s="3"/>
       <c r="AY146" s="3"/>
       <c r="AZ146" s="3"/>
-    </row>
-    <row r="147" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA146" s="3"/>
+      <c r="BB146" s="3"/>
+      <c r="BC146" s="3"/>
+      <c r="BD146" s="3"/>
+    </row>
+    <row r="147" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
@@ -9614,8 +10327,12 @@
       <c r="AX147" s="3"/>
       <c r="AY147" s="3"/>
       <c r="AZ147" s="3"/>
-    </row>
-    <row r="148" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA147" s="3"/>
+      <c r="BB147" s="3"/>
+      <c r="BC147" s="3"/>
+      <c r="BD147" s="3"/>
+    </row>
+    <row r="148" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
@@ -9666,8 +10383,12 @@
       <c r="AX148" s="3"/>
       <c r="AY148" s="3"/>
       <c r="AZ148" s="3"/>
-    </row>
-    <row r="149" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA148" s="3"/>
+      <c r="BB148" s="3"/>
+      <c r="BC148" s="3"/>
+      <c r="BD148" s="3"/>
+    </row>
+    <row r="149" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -9718,8 +10439,12 @@
       <c r="AX149" s="3"/>
       <c r="AY149" s="3"/>
       <c r="AZ149" s="3"/>
-    </row>
-    <row r="150" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA149" s="3"/>
+      <c r="BB149" s="3"/>
+      <c r="BC149" s="3"/>
+      <c r="BD149" s="3"/>
+    </row>
+    <row r="150" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
@@ -9770,8 +10495,12 @@
       <c r="AX150" s="3"/>
       <c r="AY150" s="3"/>
       <c r="AZ150" s="3"/>
-    </row>
-    <row r="151" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA150" s="3"/>
+      <c r="BB150" s="3"/>
+      <c r="BC150" s="3"/>
+      <c r="BD150" s="3"/>
+    </row>
+    <row r="151" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -9822,8 +10551,12 @@
       <c r="AX151" s="3"/>
       <c r="AY151" s="3"/>
       <c r="AZ151" s="3"/>
-    </row>
-    <row r="152" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA151" s="3"/>
+      <c r="BB151" s="3"/>
+      <c r="BC151" s="3"/>
+      <c r="BD151" s="3"/>
+    </row>
+    <row r="152" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
@@ -9874,8 +10607,12 @@
       <c r="AX152" s="3"/>
       <c r="AY152" s="3"/>
       <c r="AZ152" s="3"/>
-    </row>
-    <row r="153" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA152" s="3"/>
+      <c r="BB152" s="3"/>
+      <c r="BC152" s="3"/>
+      <c r="BD152" s="3"/>
+    </row>
+    <row r="153" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -9926,8 +10663,12 @@
       <c r="AX153" s="3"/>
       <c r="AY153" s="3"/>
       <c r="AZ153" s="3"/>
-    </row>
-    <row r="154" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA153" s="3"/>
+      <c r="BB153" s="3"/>
+      <c r="BC153" s="3"/>
+      <c r="BD153" s="3"/>
+    </row>
+    <row r="154" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -9978,8 +10719,12 @@
       <c r="AX154" s="3"/>
       <c r="AY154" s="3"/>
       <c r="AZ154" s="3"/>
-    </row>
-    <row r="155" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA154" s="3"/>
+      <c r="BB154" s="3"/>
+      <c r="BC154" s="3"/>
+      <c r="BD154" s="3"/>
+    </row>
+    <row r="155" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -10030,8 +10775,12 @@
       <c r="AX155" s="3"/>
       <c r="AY155" s="3"/>
       <c r="AZ155" s="3"/>
-    </row>
-    <row r="156" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA155" s="3"/>
+      <c r="BB155" s="3"/>
+      <c r="BC155" s="3"/>
+      <c r="BD155" s="3"/>
+    </row>
+    <row r="156" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -10082,8 +10831,12 @@
       <c r="AX156" s="3"/>
       <c r="AY156" s="3"/>
       <c r="AZ156" s="3"/>
-    </row>
-    <row r="157" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA156" s="3"/>
+      <c r="BB156" s="3"/>
+      <c r="BC156" s="3"/>
+      <c r="BD156" s="3"/>
+    </row>
+    <row r="157" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -10134,8 +10887,12 @@
       <c r="AX157" s="3"/>
       <c r="AY157" s="3"/>
       <c r="AZ157" s="3"/>
-    </row>
-    <row r="158" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA157" s="3"/>
+      <c r="BB157" s="3"/>
+      <c r="BC157" s="3"/>
+      <c r="BD157" s="3"/>
+    </row>
+    <row r="158" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -10186,8 +10943,12 @@
       <c r="AX158" s="3"/>
       <c r="AY158" s="3"/>
       <c r="AZ158" s="3"/>
-    </row>
-    <row r="159" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA158" s="3"/>
+      <c r="BB158" s="3"/>
+      <c r="BC158" s="3"/>
+      <c r="BD158" s="3"/>
+    </row>
+    <row r="159" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
@@ -10238,8 +10999,12 @@
       <c r="AX159" s="3"/>
       <c r="AY159" s="3"/>
       <c r="AZ159" s="3"/>
-    </row>
-    <row r="160" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA159" s="3"/>
+      <c r="BB159" s="3"/>
+      <c r="BC159" s="3"/>
+      <c r="BD159" s="3"/>
+    </row>
+    <row r="160" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -10290,8 +11055,12 @@
       <c r="AX160" s="3"/>
       <c r="AY160" s="3"/>
       <c r="AZ160" s="3"/>
-    </row>
-    <row r="161" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA160" s="3"/>
+      <c r="BB160" s="3"/>
+      <c r="BC160" s="3"/>
+      <c r="BD160" s="3"/>
+    </row>
+    <row r="161" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -10342,8 +11111,12 @@
       <c r="AX161" s="3"/>
       <c r="AY161" s="3"/>
       <c r="AZ161" s="3"/>
-    </row>
-    <row r="162" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA161" s="3"/>
+      <c r="BB161" s="3"/>
+      <c r="BC161" s="3"/>
+      <c r="BD161" s="3"/>
+    </row>
+    <row r="162" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -10394,8 +11167,12 @@
       <c r="AX162" s="3"/>
       <c r="AY162" s="3"/>
       <c r="AZ162" s="3"/>
-    </row>
-    <row r="163" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA162" s="3"/>
+      <c r="BB162" s="3"/>
+      <c r="BC162" s="3"/>
+      <c r="BD162" s="3"/>
+    </row>
+    <row r="163" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
@@ -10446,8 +11223,12 @@
       <c r="AX163" s="3"/>
       <c r="AY163" s="3"/>
       <c r="AZ163" s="3"/>
-    </row>
-    <row r="164" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA163" s="3"/>
+      <c r="BB163" s="3"/>
+      <c r="BC163" s="3"/>
+      <c r="BD163" s="3"/>
+    </row>
+    <row r="164" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
@@ -10498,8 +11279,12 @@
       <c r="AX164" s="3"/>
       <c r="AY164" s="3"/>
       <c r="AZ164" s="3"/>
-    </row>
-    <row r="165" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA164" s="3"/>
+      <c r="BB164" s="3"/>
+      <c r="BC164" s="3"/>
+      <c r="BD164" s="3"/>
+    </row>
+    <row r="165" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
@@ -10550,8 +11335,12 @@
       <c r="AX165" s="3"/>
       <c r="AY165" s="3"/>
       <c r="AZ165" s="3"/>
-    </row>
-    <row r="166" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA165" s="3"/>
+      <c r="BB165" s="3"/>
+      <c r="BC165" s="3"/>
+      <c r="BD165" s="3"/>
+    </row>
+    <row r="166" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
@@ -10602,8 +11391,12 @@
       <c r="AX166" s="3"/>
       <c r="AY166" s="3"/>
       <c r="AZ166" s="3"/>
-    </row>
-    <row r="167" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA166" s="3"/>
+      <c r="BB166" s="3"/>
+      <c r="BC166" s="3"/>
+      <c r="BD166" s="3"/>
+    </row>
+    <row r="167" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
@@ -10654,8 +11447,12 @@
       <c r="AX167" s="3"/>
       <c r="AY167" s="3"/>
       <c r="AZ167" s="3"/>
-    </row>
-    <row r="168" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA167" s="3"/>
+      <c r="BB167" s="3"/>
+      <c r="BC167" s="3"/>
+      <c r="BD167" s="3"/>
+    </row>
+    <row r="168" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
@@ -10706,8 +11503,12 @@
       <c r="AX168" s="3"/>
       <c r="AY168" s="3"/>
       <c r="AZ168" s="3"/>
-    </row>
-    <row r="169" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA168" s="3"/>
+      <c r="BB168" s="3"/>
+      <c r="BC168" s="3"/>
+      <c r="BD168" s="3"/>
+    </row>
+    <row r="169" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
@@ -10758,8 +11559,12 @@
       <c r="AX169" s="3"/>
       <c r="AY169" s="3"/>
       <c r="AZ169" s="3"/>
-    </row>
-    <row r="170" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA169" s="3"/>
+      <c r="BB169" s="3"/>
+      <c r="BC169" s="3"/>
+      <c r="BD169" s="3"/>
+    </row>
+    <row r="170" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
@@ -10810,8 +11615,12 @@
       <c r="AX170" s="3"/>
       <c r="AY170" s="3"/>
       <c r="AZ170" s="3"/>
-    </row>
-    <row r="171" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA170" s="3"/>
+      <c r="BB170" s="3"/>
+      <c r="BC170" s="3"/>
+      <c r="BD170" s="3"/>
+    </row>
+    <row r="171" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
@@ -10862,8 +11671,12 @@
       <c r="AX171" s="3"/>
       <c r="AY171" s="3"/>
       <c r="AZ171" s="3"/>
-    </row>
-    <row r="172" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA171" s="3"/>
+      <c r="BB171" s="3"/>
+      <c r="BC171" s="3"/>
+      <c r="BD171" s="3"/>
+    </row>
+    <row r="172" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
@@ -10914,8 +11727,12 @@
       <c r="AX172" s="3"/>
       <c r="AY172" s="3"/>
       <c r="AZ172" s="3"/>
-    </row>
-    <row r="173" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA172" s="3"/>
+      <c r="BB172" s="3"/>
+      <c r="BC172" s="3"/>
+      <c r="BD172" s="3"/>
+    </row>
+    <row r="173" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
@@ -10966,8 +11783,12 @@
       <c r="AX173" s="3"/>
       <c r="AY173" s="3"/>
       <c r="AZ173" s="3"/>
-    </row>
-    <row r="174" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA173" s="3"/>
+      <c r="BB173" s="3"/>
+      <c r="BC173" s="3"/>
+      <c r="BD173" s="3"/>
+    </row>
+    <row r="174" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
@@ -11018,8 +11839,12 @@
       <c r="AX174" s="3"/>
       <c r="AY174" s="3"/>
       <c r="AZ174" s="3"/>
-    </row>
-    <row r="175" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA174" s="3"/>
+      <c r="BB174" s="3"/>
+      <c r="BC174" s="3"/>
+      <c r="BD174" s="3"/>
+    </row>
+    <row r="175" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
@@ -11070,8 +11895,12 @@
       <c r="AX175" s="3"/>
       <c r="AY175" s="3"/>
       <c r="AZ175" s="3"/>
-    </row>
-    <row r="176" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA175" s="3"/>
+      <c r="BB175" s="3"/>
+      <c r="BC175" s="3"/>
+      <c r="BD175" s="3"/>
+    </row>
+    <row r="176" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
@@ -11122,8 +11951,12 @@
       <c r="AX176" s="3"/>
       <c r="AY176" s="3"/>
       <c r="AZ176" s="3"/>
-    </row>
-    <row r="177" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA176" s="3"/>
+      <c r="BB176" s="3"/>
+      <c r="BC176" s="3"/>
+      <c r="BD176" s="3"/>
+    </row>
+    <row r="177" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
@@ -11174,8 +12007,12 @@
       <c r="AX177" s="3"/>
       <c r="AY177" s="3"/>
       <c r="AZ177" s="3"/>
-    </row>
-    <row r="178" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA177" s="3"/>
+      <c r="BB177" s="3"/>
+      <c r="BC177" s="3"/>
+      <c r="BD177" s="3"/>
+    </row>
+    <row r="178" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
@@ -11226,8 +12063,12 @@
       <c r="AX178" s="3"/>
       <c r="AY178" s="3"/>
       <c r="AZ178" s="3"/>
-    </row>
-    <row r="179" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA178" s="3"/>
+      <c r="BB178" s="3"/>
+      <c r="BC178" s="3"/>
+      <c r="BD178" s="3"/>
+    </row>
+    <row r="179" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
@@ -11278,8 +12119,12 @@
       <c r="AX179" s="3"/>
       <c r="AY179" s="3"/>
       <c r="AZ179" s="3"/>
-    </row>
-    <row r="180" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA179" s="3"/>
+      <c r="BB179" s="3"/>
+      <c r="BC179" s="3"/>
+      <c r="BD179" s="3"/>
+    </row>
+    <row r="180" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
@@ -11330,8 +12175,12 @@
       <c r="AX180" s="3"/>
       <c r="AY180" s="3"/>
       <c r="AZ180" s="3"/>
-    </row>
-    <row r="181" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA180" s="3"/>
+      <c r="BB180" s="3"/>
+      <c r="BC180" s="3"/>
+      <c r="BD180" s="3"/>
+    </row>
+    <row r="181" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
@@ -11382,8 +12231,12 @@
       <c r="AX181" s="3"/>
       <c r="AY181" s="3"/>
       <c r="AZ181" s="3"/>
-    </row>
-    <row r="182" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA181" s="3"/>
+      <c r="BB181" s="3"/>
+      <c r="BC181" s="3"/>
+      <c r="BD181" s="3"/>
+    </row>
+    <row r="182" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
@@ -11434,8 +12287,12 @@
       <c r="AX182" s="3"/>
       <c r="AY182" s="3"/>
       <c r="AZ182" s="3"/>
-    </row>
-    <row r="183" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA182" s="3"/>
+      <c r="BB182" s="3"/>
+      <c r="BC182" s="3"/>
+      <c r="BD182" s="3"/>
+    </row>
+    <row r="183" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
@@ -11486,8 +12343,12 @@
       <c r="AX183" s="3"/>
       <c r="AY183" s="3"/>
       <c r="AZ183" s="3"/>
-    </row>
-    <row r="184" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA183" s="3"/>
+      <c r="BB183" s="3"/>
+      <c r="BC183" s="3"/>
+      <c r="BD183" s="3"/>
+    </row>
+    <row r="184" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
@@ -11538,8 +12399,12 @@
       <c r="AX184" s="3"/>
       <c r="AY184" s="3"/>
       <c r="AZ184" s="3"/>
-    </row>
-    <row r="185" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA184" s="3"/>
+      <c r="BB184" s="3"/>
+      <c r="BC184" s="3"/>
+      <c r="BD184" s="3"/>
+    </row>
+    <row r="185" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
@@ -11590,8 +12455,12 @@
       <c r="AX185" s="3"/>
       <c r="AY185" s="3"/>
       <c r="AZ185" s="3"/>
-    </row>
-    <row r="186" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA185" s="3"/>
+      <c r="BB185" s="3"/>
+      <c r="BC185" s="3"/>
+      <c r="BD185" s="3"/>
+    </row>
+    <row r="186" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
@@ -11642,8 +12511,12 @@
       <c r="AX186" s="3"/>
       <c r="AY186" s="3"/>
       <c r="AZ186" s="3"/>
-    </row>
-    <row r="187" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA186" s="3"/>
+      <c r="BB186" s="3"/>
+      <c r="BC186" s="3"/>
+      <c r="BD186" s="3"/>
+    </row>
+    <row r="187" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
@@ -11694,8 +12567,12 @@
       <c r="AX187" s="3"/>
       <c r="AY187" s="3"/>
       <c r="AZ187" s="3"/>
-    </row>
-    <row r="188" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA187" s="3"/>
+      <c r="BB187" s="3"/>
+      <c r="BC187" s="3"/>
+      <c r="BD187" s="3"/>
+    </row>
+    <row r="188" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
@@ -11746,8 +12623,12 @@
       <c r="AX188" s="3"/>
       <c r="AY188" s="3"/>
       <c r="AZ188" s="3"/>
-    </row>
-    <row r="189" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA188" s="3"/>
+      <c r="BB188" s="3"/>
+      <c r="BC188" s="3"/>
+      <c r="BD188" s="3"/>
+    </row>
+    <row r="189" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
@@ -11798,8 +12679,12 @@
       <c r="AX189" s="3"/>
       <c r="AY189" s="3"/>
       <c r="AZ189" s="3"/>
-    </row>
-    <row r="190" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA189" s="3"/>
+      <c r="BB189" s="3"/>
+      <c r="BC189" s="3"/>
+      <c r="BD189" s="3"/>
+    </row>
+    <row r="190" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
@@ -11850,8 +12735,12 @@
       <c r="AX190" s="3"/>
       <c r="AY190" s="3"/>
       <c r="AZ190" s="3"/>
-    </row>
-    <row r="191" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA190" s="3"/>
+      <c r="BB190" s="3"/>
+      <c r="BC190" s="3"/>
+      <c r="BD190" s="3"/>
+    </row>
+    <row r="191" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
@@ -11902,8 +12791,12 @@
       <c r="AX191" s="3"/>
       <c r="AY191" s="3"/>
       <c r="AZ191" s="3"/>
-    </row>
-    <row r="192" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA191" s="3"/>
+      <c r="BB191" s="3"/>
+      <c r="BC191" s="3"/>
+      <c r="BD191" s="3"/>
+    </row>
+    <row r="192" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
@@ -11954,8 +12847,12 @@
       <c r="AX192" s="3"/>
       <c r="AY192" s="3"/>
       <c r="AZ192" s="3"/>
-    </row>
-    <row r="193" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA192" s="3"/>
+      <c r="BB192" s="3"/>
+      <c r="BC192" s="3"/>
+      <c r="BD192" s="3"/>
+    </row>
+    <row r="193" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
@@ -12006,8 +12903,12 @@
       <c r="AX193" s="3"/>
       <c r="AY193" s="3"/>
       <c r="AZ193" s="3"/>
-    </row>
-    <row r="194" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA193" s="3"/>
+      <c r="BB193" s="3"/>
+      <c r="BC193" s="3"/>
+      <c r="BD193" s="3"/>
+    </row>
+    <row r="194" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
@@ -12058,8 +12959,12 @@
       <c r="AX194" s="3"/>
       <c r="AY194" s="3"/>
       <c r="AZ194" s="3"/>
-    </row>
-    <row r="195" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA194" s="3"/>
+      <c r="BB194" s="3"/>
+      <c r="BC194" s="3"/>
+      <c r="BD194" s="3"/>
+    </row>
+    <row r="195" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
@@ -12110,8 +13015,12 @@
       <c r="AX195" s="3"/>
       <c r="AY195" s="3"/>
       <c r="AZ195" s="3"/>
-    </row>
-    <row r="196" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA195" s="3"/>
+      <c r="BB195" s="3"/>
+      <c r="BC195" s="3"/>
+      <c r="BD195" s="3"/>
+    </row>
+    <row r="196" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
@@ -12162,8 +13071,12 @@
       <c r="AX196" s="3"/>
       <c r="AY196" s="3"/>
       <c r="AZ196" s="3"/>
-    </row>
-    <row r="197" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA196" s="3"/>
+      <c r="BB196" s="3"/>
+      <c r="BC196" s="3"/>
+      <c r="BD196" s="3"/>
+    </row>
+    <row r="197" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
@@ -12214,8 +13127,12 @@
       <c r="AX197" s="3"/>
       <c r="AY197" s="3"/>
       <c r="AZ197" s="3"/>
-    </row>
-    <row r="198" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA197" s="3"/>
+      <c r="BB197" s="3"/>
+      <c r="BC197" s="3"/>
+      <c r="BD197" s="3"/>
+    </row>
+    <row r="198" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
@@ -12266,8 +13183,12 @@
       <c r="AX198" s="3"/>
       <c r="AY198" s="3"/>
       <c r="AZ198" s="3"/>
-    </row>
-    <row r="199" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA198" s="3"/>
+      <c r="BB198" s="3"/>
+      <c r="BC198" s="3"/>
+      <c r="BD198" s="3"/>
+    </row>
+    <row r="199" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
@@ -12318,8 +13239,12 @@
       <c r="AX199" s="3"/>
       <c r="AY199" s="3"/>
       <c r="AZ199" s="3"/>
-    </row>
-    <row r="200" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA199" s="3"/>
+      <c r="BB199" s="3"/>
+      <c r="BC199" s="3"/>
+      <c r="BD199" s="3"/>
+    </row>
+    <row r="200" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
@@ -12370,8 +13295,12 @@
       <c r="AX200" s="3"/>
       <c r="AY200" s="3"/>
       <c r="AZ200" s="3"/>
-    </row>
-    <row r="201" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA200" s="3"/>
+      <c r="BB200" s="3"/>
+      <c r="BC200" s="3"/>
+      <c r="BD200" s="3"/>
+    </row>
+    <row r="201" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
@@ -12422,8 +13351,12 @@
       <c r="AX201" s="3"/>
       <c r="AY201" s="3"/>
       <c r="AZ201" s="3"/>
-    </row>
-    <row r="202" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA201" s="3"/>
+      <c r="BB201" s="3"/>
+      <c r="BC201" s="3"/>
+      <c r="BD201" s="3"/>
+    </row>
+    <row r="202" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
@@ -12474,8 +13407,12 @@
       <c r="AX202" s="3"/>
       <c r="AY202" s="3"/>
       <c r="AZ202" s="3"/>
-    </row>
-    <row r="203" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA202" s="3"/>
+      <c r="BB202" s="3"/>
+      <c r="BC202" s="3"/>
+      <c r="BD202" s="3"/>
+    </row>
+    <row r="203" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
@@ -12526,8 +13463,12 @@
       <c r="AX203" s="3"/>
       <c r="AY203" s="3"/>
       <c r="AZ203" s="3"/>
-    </row>
-    <row r="204" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA203" s="3"/>
+      <c r="BB203" s="3"/>
+      <c r="BC203" s="3"/>
+      <c r="BD203" s="3"/>
+    </row>
+    <row r="204" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
@@ -12578,8 +13519,12 @@
       <c r="AX204" s="3"/>
       <c r="AY204" s="3"/>
       <c r="AZ204" s="3"/>
-    </row>
-    <row r="205" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA204" s="3"/>
+      <c r="BB204" s="3"/>
+      <c r="BC204" s="3"/>
+      <c r="BD204" s="3"/>
+    </row>
+    <row r="205" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
@@ -12630,8 +13575,12 @@
       <c r="AX205" s="3"/>
       <c r="AY205" s="3"/>
       <c r="AZ205" s="3"/>
-    </row>
-    <row r="206" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA205" s="3"/>
+      <c r="BB205" s="3"/>
+      <c r="BC205" s="3"/>
+      <c r="BD205" s="3"/>
+    </row>
+    <row r="206" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
@@ -12682,8 +13631,12 @@
       <c r="AX206" s="3"/>
       <c r="AY206" s="3"/>
       <c r="AZ206" s="3"/>
-    </row>
-    <row r="207" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA206" s="3"/>
+      <c r="BB206" s="3"/>
+      <c r="BC206" s="3"/>
+      <c r="BD206" s="3"/>
+    </row>
+    <row r="207" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
@@ -12734,8 +13687,12 @@
       <c r="AX207" s="3"/>
       <c r="AY207" s="3"/>
       <c r="AZ207" s="3"/>
-    </row>
-    <row r="208" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA207" s="3"/>
+      <c r="BB207" s="3"/>
+      <c r="BC207" s="3"/>
+      <c r="BD207" s="3"/>
+    </row>
+    <row r="208" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
@@ -12786,8 +13743,12 @@
       <c r="AX208" s="3"/>
       <c r="AY208" s="3"/>
       <c r="AZ208" s="3"/>
-    </row>
-    <row r="209" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA208" s="3"/>
+      <c r="BB208" s="3"/>
+      <c r="BC208" s="3"/>
+      <c r="BD208" s="3"/>
+    </row>
+    <row r="209" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
@@ -12838,8 +13799,12 @@
       <c r="AX209" s="3"/>
       <c r="AY209" s="3"/>
       <c r="AZ209" s="3"/>
-    </row>
-    <row r="210" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA209" s="3"/>
+      <c r="BB209" s="3"/>
+      <c r="BC209" s="3"/>
+      <c r="BD209" s="3"/>
+    </row>
+    <row r="210" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
@@ -12890,8 +13855,12 @@
       <c r="AX210" s="3"/>
       <c r="AY210" s="3"/>
       <c r="AZ210" s="3"/>
-    </row>
-    <row r="211" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA210" s="3"/>
+      <c r="BB210" s="3"/>
+      <c r="BC210" s="3"/>
+      <c r="BD210" s="3"/>
+    </row>
+    <row r="211" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
@@ -12942,8 +13911,12 @@
       <c r="AX211" s="3"/>
       <c r="AY211" s="3"/>
       <c r="AZ211" s="3"/>
-    </row>
-    <row r="212" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA211" s="3"/>
+      <c r="BB211" s="3"/>
+      <c r="BC211" s="3"/>
+      <c r="BD211" s="3"/>
+    </row>
+    <row r="212" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
@@ -12994,8 +13967,12 @@
       <c r="AX212" s="3"/>
       <c r="AY212" s="3"/>
       <c r="AZ212" s="3"/>
-    </row>
-    <row r="213" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA212" s="3"/>
+      <c r="BB212" s="3"/>
+      <c r="BC212" s="3"/>
+      <c r="BD212" s="3"/>
+    </row>
+    <row r="213" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
@@ -13046,8 +14023,12 @@
       <c r="AX213" s="3"/>
       <c r="AY213" s="3"/>
       <c r="AZ213" s="3"/>
-    </row>
-    <row r="214" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA213" s="3"/>
+      <c r="BB213" s="3"/>
+      <c r="BC213" s="3"/>
+      <c r="BD213" s="3"/>
+    </row>
+    <row r="214" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
@@ -13098,8 +14079,12 @@
       <c r="AX214" s="3"/>
       <c r="AY214" s="3"/>
       <c r="AZ214" s="3"/>
-    </row>
-    <row r="215" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA214" s="3"/>
+      <c r="BB214" s="3"/>
+      <c r="BC214" s="3"/>
+      <c r="BD214" s="3"/>
+    </row>
+    <row r="215" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
@@ -13150,8 +14135,12 @@
       <c r="AX215" s="3"/>
       <c r="AY215" s="3"/>
       <c r="AZ215" s="3"/>
-    </row>
-    <row r="216" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA215" s="3"/>
+      <c r="BB215" s="3"/>
+      <c r="BC215" s="3"/>
+      <c r="BD215" s="3"/>
+    </row>
+    <row r="216" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
@@ -13202,8 +14191,12 @@
       <c r="AX216" s="3"/>
       <c r="AY216" s="3"/>
       <c r="AZ216" s="3"/>
-    </row>
-    <row r="217" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA216" s="3"/>
+      <c r="BB216" s="3"/>
+      <c r="BC216" s="3"/>
+      <c r="BD216" s="3"/>
+    </row>
+    <row r="217" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
@@ -13254,8 +14247,12 @@
       <c r="AX217" s="3"/>
       <c r="AY217" s="3"/>
       <c r="AZ217" s="3"/>
-    </row>
-    <row r="218" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA217" s="3"/>
+      <c r="BB217" s="3"/>
+      <c r="BC217" s="3"/>
+      <c r="BD217" s="3"/>
+    </row>
+    <row r="218" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
@@ -13306,8 +14303,12 @@
       <c r="AX218" s="3"/>
       <c r="AY218" s="3"/>
       <c r="AZ218" s="3"/>
-    </row>
-    <row r="219" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA218" s="3"/>
+      <c r="BB218" s="3"/>
+      <c r="BC218" s="3"/>
+      <c r="BD218" s="3"/>
+    </row>
+    <row r="219" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
@@ -13358,8 +14359,12 @@
       <c r="AX219" s="3"/>
       <c r="AY219" s="3"/>
       <c r="AZ219" s="3"/>
-    </row>
-    <row r="220" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA219" s="3"/>
+      <c r="BB219" s="3"/>
+      <c r="BC219" s="3"/>
+      <c r="BD219" s="3"/>
+    </row>
+    <row r="220" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
@@ -13410,8 +14415,12 @@
       <c r="AX220" s="3"/>
       <c r="AY220" s="3"/>
       <c r="AZ220" s="3"/>
-    </row>
-    <row r="221" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA220" s="3"/>
+      <c r="BB220" s="3"/>
+      <c r="BC220" s="3"/>
+      <c r="BD220" s="3"/>
+    </row>
+    <row r="221" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
@@ -13462,8 +14471,12 @@
       <c r="AX221" s="3"/>
       <c r="AY221" s="3"/>
       <c r="AZ221" s="3"/>
-    </row>
-    <row r="222" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA221" s="3"/>
+      <c r="BB221" s="3"/>
+      <c r="BC221" s="3"/>
+      <c r="BD221" s="3"/>
+    </row>
+    <row r="222" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
@@ -13514,8 +14527,12 @@
       <c r="AX222" s="3"/>
       <c r="AY222" s="3"/>
       <c r="AZ222" s="3"/>
-    </row>
-    <row r="223" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA222" s="3"/>
+      <c r="BB222" s="3"/>
+      <c r="BC222" s="3"/>
+      <c r="BD222" s="3"/>
+    </row>
+    <row r="223" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
@@ -13566,8 +14583,12 @@
       <c r="AX223" s="3"/>
       <c r="AY223" s="3"/>
       <c r="AZ223" s="3"/>
-    </row>
-    <row r="224" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA223" s="3"/>
+      <c r="BB223" s="3"/>
+      <c r="BC223" s="3"/>
+      <c r="BD223" s="3"/>
+    </row>
+    <row r="224" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
@@ -13618,8 +14639,12 @@
       <c r="AX224" s="3"/>
       <c r="AY224" s="3"/>
       <c r="AZ224" s="3"/>
-    </row>
-    <row r="225" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA224" s="3"/>
+      <c r="BB224" s="3"/>
+      <c r="BC224" s="3"/>
+      <c r="BD224" s="3"/>
+    </row>
+    <row r="225" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
@@ -13670,8 +14695,12 @@
       <c r="AX225" s="3"/>
       <c r="AY225" s="3"/>
       <c r="AZ225" s="3"/>
-    </row>
-    <row r="226" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA225" s="3"/>
+      <c r="BB225" s="3"/>
+      <c r="BC225" s="3"/>
+      <c r="BD225" s="3"/>
+    </row>
+    <row r="226" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
@@ -13722,8 +14751,12 @@
       <c r="AX226" s="3"/>
       <c r="AY226" s="3"/>
       <c r="AZ226" s="3"/>
-    </row>
-    <row r="227" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA226" s="3"/>
+      <c r="BB226" s="3"/>
+      <c r="BC226" s="3"/>
+      <c r="BD226" s="3"/>
+    </row>
+    <row r="227" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
@@ -13774,8 +14807,12 @@
       <c r="AX227" s="3"/>
       <c r="AY227" s="3"/>
       <c r="AZ227" s="3"/>
-    </row>
-    <row r="228" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA227" s="3"/>
+      <c r="BB227" s="3"/>
+      <c r="BC227" s="3"/>
+      <c r="BD227" s="3"/>
+    </row>
+    <row r="228" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
@@ -13826,8 +14863,12 @@
       <c r="AX228" s="3"/>
       <c r="AY228" s="3"/>
       <c r="AZ228" s="3"/>
-    </row>
-    <row r="229" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA228" s="3"/>
+      <c r="BB228" s="3"/>
+      <c r="BC228" s="3"/>
+      <c r="BD228" s="3"/>
+    </row>
+    <row r="229" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
@@ -13878,8 +14919,12 @@
       <c r="AX229" s="3"/>
       <c r="AY229" s="3"/>
       <c r="AZ229" s="3"/>
-    </row>
-    <row r="230" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA229" s="3"/>
+      <c r="BB229" s="3"/>
+      <c r="BC229" s="3"/>
+      <c r="BD229" s="3"/>
+    </row>
+    <row r="230" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
@@ -13930,8 +14975,12 @@
       <c r="AX230" s="3"/>
       <c r="AY230" s="3"/>
       <c r="AZ230" s="3"/>
-    </row>
-    <row r="231" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA230" s="3"/>
+      <c r="BB230" s="3"/>
+      <c r="BC230" s="3"/>
+      <c r="BD230" s="3"/>
+    </row>
+    <row r="231" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
@@ -13982,8 +15031,12 @@
       <c r="AX231" s="3"/>
       <c r="AY231" s="3"/>
       <c r="AZ231" s="3"/>
-    </row>
-    <row r="232" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA231" s="3"/>
+      <c r="BB231" s="3"/>
+      <c r="BC231" s="3"/>
+      <c r="BD231" s="3"/>
+    </row>
+    <row r="232" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
@@ -14034,8 +15087,12 @@
       <c r="AX232" s="3"/>
       <c r="AY232" s="3"/>
       <c r="AZ232" s="3"/>
-    </row>
-    <row r="233" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA232" s="3"/>
+      <c r="BB232" s="3"/>
+      <c r="BC232" s="3"/>
+      <c r="BD232" s="3"/>
+    </row>
+    <row r="233" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
@@ -14086,8 +15143,12 @@
       <c r="AX233" s="3"/>
       <c r="AY233" s="3"/>
       <c r="AZ233" s="3"/>
-    </row>
-    <row r="234" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA233" s="3"/>
+      <c r="BB233" s="3"/>
+      <c r="BC233" s="3"/>
+      <c r="BD233" s="3"/>
+    </row>
+    <row r="234" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
@@ -14138,8 +15199,12 @@
       <c r="AX234" s="3"/>
       <c r="AY234" s="3"/>
       <c r="AZ234" s="3"/>
-    </row>
-    <row r="235" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA234" s="3"/>
+      <c r="BB234" s="3"/>
+      <c r="BC234" s="3"/>
+      <c r="BD234" s="3"/>
+    </row>
+    <row r="235" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
@@ -14190,8 +15255,12 @@
       <c r="AX235" s="3"/>
       <c r="AY235" s="3"/>
       <c r="AZ235" s="3"/>
-    </row>
-    <row r="236" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA235" s="3"/>
+      <c r="BB235" s="3"/>
+      <c r="BC235" s="3"/>
+      <c r="BD235" s="3"/>
+    </row>
+    <row r="236" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
@@ -14242,8 +15311,12 @@
       <c r="AX236" s="3"/>
       <c r="AY236" s="3"/>
       <c r="AZ236" s="3"/>
-    </row>
-    <row r="237" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA236" s="3"/>
+      <c r="BB236" s="3"/>
+      <c r="BC236" s="3"/>
+      <c r="BD236" s="3"/>
+    </row>
+    <row r="237" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
@@ -14294,8 +15367,12 @@
       <c r="AX237" s="3"/>
       <c r="AY237" s="3"/>
       <c r="AZ237" s="3"/>
-    </row>
-    <row r="238" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA237" s="3"/>
+      <c r="BB237" s="3"/>
+      <c r="BC237" s="3"/>
+      <c r="BD237" s="3"/>
+    </row>
+    <row r="238" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
@@ -14346,8 +15423,12 @@
       <c r="AX238" s="3"/>
       <c r="AY238" s="3"/>
       <c r="AZ238" s="3"/>
-    </row>
-    <row r="239" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA238" s="3"/>
+      <c r="BB238" s="3"/>
+      <c r="BC238" s="3"/>
+      <c r="BD238" s="3"/>
+    </row>
+    <row r="239" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
@@ -14398,8 +15479,12 @@
       <c r="AX239" s="3"/>
       <c r="AY239" s="3"/>
       <c r="AZ239" s="3"/>
-    </row>
-    <row r="240" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA239" s="3"/>
+      <c r="BB239" s="3"/>
+      <c r="BC239" s="3"/>
+      <c r="BD239" s="3"/>
+    </row>
+    <row r="240" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
       <c r="E240" s="3"/>
@@ -14450,8 +15535,12 @@
       <c r="AX240" s="3"/>
       <c r="AY240" s="3"/>
       <c r="AZ240" s="3"/>
-    </row>
-    <row r="241" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA240" s="3"/>
+      <c r="BB240" s="3"/>
+      <c r="BC240" s="3"/>
+      <c r="BD240" s="3"/>
+    </row>
+    <row r="241" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
@@ -14502,8 +15591,12 @@
       <c r="AX241" s="3"/>
       <c r="AY241" s="3"/>
       <c r="AZ241" s="3"/>
-    </row>
-    <row r="242" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA241" s="3"/>
+      <c r="BB241" s="3"/>
+      <c r="BC241" s="3"/>
+      <c r="BD241" s="3"/>
+    </row>
+    <row r="242" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
@@ -14554,8 +15647,12 @@
       <c r="AX242" s="3"/>
       <c r="AY242" s="3"/>
       <c r="AZ242" s="3"/>
-    </row>
-    <row r="243" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA242" s="3"/>
+      <c r="BB242" s="3"/>
+      <c r="BC242" s="3"/>
+      <c r="BD242" s="3"/>
+    </row>
+    <row r="243" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
@@ -14606,8 +15703,12 @@
       <c r="AX243" s="3"/>
       <c r="AY243" s="3"/>
       <c r="AZ243" s="3"/>
-    </row>
-    <row r="244" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA243" s="3"/>
+      <c r="BB243" s="3"/>
+      <c r="BC243" s="3"/>
+      <c r="BD243" s="3"/>
+    </row>
+    <row r="244" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
@@ -14658,8 +15759,12 @@
       <c r="AX244" s="3"/>
       <c r="AY244" s="3"/>
       <c r="AZ244" s="3"/>
-    </row>
-    <row r="245" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA244" s="3"/>
+      <c r="BB244" s="3"/>
+      <c r="BC244" s="3"/>
+      <c r="BD244" s="3"/>
+    </row>
+    <row r="245" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
@@ -14710,8 +15815,12 @@
       <c r="AX245" s="3"/>
       <c r="AY245" s="3"/>
       <c r="AZ245" s="3"/>
-    </row>
-    <row r="246" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA245" s="3"/>
+      <c r="BB245" s="3"/>
+      <c r="BC245" s="3"/>
+      <c r="BD245" s="3"/>
+    </row>
+    <row r="246" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
@@ -14762,8 +15871,12 @@
       <c r="AX246" s="3"/>
       <c r="AY246" s="3"/>
       <c r="AZ246" s="3"/>
-    </row>
-    <row r="247" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA246" s="3"/>
+      <c r="BB246" s="3"/>
+      <c r="BC246" s="3"/>
+      <c r="BD246" s="3"/>
+    </row>
+    <row r="247" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
@@ -14814,8 +15927,12 @@
       <c r="AX247" s="3"/>
       <c r="AY247" s="3"/>
       <c r="AZ247" s="3"/>
-    </row>
-    <row r="248" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA247" s="3"/>
+      <c r="BB247" s="3"/>
+      <c r="BC247" s="3"/>
+      <c r="BD247" s="3"/>
+    </row>
+    <row r="248" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
@@ -14866,8 +15983,12 @@
       <c r="AX248" s="3"/>
       <c r="AY248" s="3"/>
       <c r="AZ248" s="3"/>
-    </row>
-    <row r="249" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA248" s="3"/>
+      <c r="BB248" s="3"/>
+      <c r="BC248" s="3"/>
+      <c r="BD248" s="3"/>
+    </row>
+    <row r="249" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
@@ -14918,8 +16039,12 @@
       <c r="AX249" s="3"/>
       <c r="AY249" s="3"/>
       <c r="AZ249" s="3"/>
-    </row>
-    <row r="250" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA249" s="3"/>
+      <c r="BB249" s="3"/>
+      <c r="BC249" s="3"/>
+      <c r="BD249" s="3"/>
+    </row>
+    <row r="250" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
@@ -14970,8 +16095,12 @@
       <c r="AX250" s="3"/>
       <c r="AY250" s="3"/>
       <c r="AZ250" s="3"/>
-    </row>
-    <row r="251" spans="3:52" x14ac:dyDescent="0.2">
+      <c r="BA250" s="3"/>
+      <c r="BB250" s="3"/>
+      <c r="BC250" s="3"/>
+      <c r="BD250" s="3"/>
+    </row>
+    <row r="251" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
@@ -15022,6 +16151,10 @@
       <c r="AX251" s="3"/>
       <c r="AY251" s="3"/>
       <c r="AZ251" s="3"/>
+      <c r="BA251" s="3"/>
+      <c r="BB251" s="3"/>
+      <c r="BC251" s="3"/>
+      <c r="BD251" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
